--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -25067,7 +25067,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K473" s="19" t="n"/>
+      <c r="K473" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L473" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -4983,7 +4983,11 @@
         </is>
       </c>
       <c r="J85" s="13" t="n"/>
-      <c r="K85" s="19" t="n"/>
+      <c r="K85" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L85" s="19" t="inlineStr">
         <is>
           <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -27230,28 +27230,28 @@
     <row r="514">
       <c r="A514" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B514" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C514" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>Implement an error handling policy at the global level</t>
+          <t>Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
         </is>
       </c>
       <c r="E514" s="18" t="n"/>
       <c r="F514" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -27269,7 +27269,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27281,28 +27281,28 @@
     <row r="515">
       <c r="A515" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B515" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C515" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>Ensure all APIs policies include a &lt;base/&gt; element.</t>
+          <t>Protect logic apps from region failures with zone redundancy and availability zones</t>
         </is>
       </c>
       <c r="E515" s="18" t="n"/>
       <c r="F515" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -27320,7 +27320,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27332,28 +27332,28 @@
     <row r="516">
       <c r="A516" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B516" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C516" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>Use Policy Fragments to avoid repeating same policies definitions across multiple APIs</t>
+          <t>Consider a Cross-Region DR strategy for critical workloads</t>
         </is>
       </c>
       <c r="E516" s="18" t="n"/>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27371,7 +27371,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27383,28 +27383,28 @@
     <row r="517">
       <c r="A517" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B517" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C517" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>If you are planning to monetize your APIs, review the 'monetization support' article for best practices</t>
+          <t>If deploying to an Isolated environment, use or migrate to App Service Environment (ASE) v3</t>
         </is>
       </c>
       <c r="E517" s="18" t="n"/>
       <c r="F517" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -27422,7 +27422,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27434,7 +27434,7 @@
     <row r="518">
       <c r="A518" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B518" s="18" t="inlineStr">
@@ -27444,18 +27444,18 @@
       </c>
       <c r="C518" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Enable Diagnostics Settings to export logs to Azure Monitor</t>
+          <t>Leverage Azure DevOps or GitHub to streamline CI/CD and safeguard your Logic App code</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
       <c r="F518" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -27473,7 +27473,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27500,7 +27500,7 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Enable Application Insights for more detailed telemetry</t>
+          <t>Implement an error handling policy at the global level</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
@@ -27524,7 +27524,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27551,13 +27551,13 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics</t>
+          <t>Ensure all APIs policies include a &lt;base/&gt; element.</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27575,7 +27575,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27592,7 +27592,7 @@
       </c>
       <c r="B521" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C521" s="18" t="inlineStr">
@@ -27602,13 +27602,13 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Be aware of APIM's limits</t>
+          <t>Use Policy Fragments to avoid repeating same policies definitions across multiple APIs</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27626,7 +27626,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27643,7 +27643,7 @@
       </c>
       <c r="B522" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C522" s="18" t="inlineStr">
@@ -27653,13 +27653,13 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
+          <t>If you are planning to monetize your APIs, review the 'monetization support' article for best practices</t>
         </is>
       </c>
       <c r="E522" s="18" t="n"/>
       <c r="F522" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
@@ -27677,7 +27677,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27694,7 +27694,7 @@
       </c>
       <c r="B523" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C523" s="18" t="inlineStr">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
+          <t>Enable Diagnostics Settings to export logs to Azure Monitor</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
@@ -27728,7 +27728,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27745,7 +27745,7 @@
       </c>
       <c r="B524" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C524" s="18" t="inlineStr">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Use Azure AD to authenticate users in the Developer Portal</t>
+          <t>Enable Application Insights for more detailed telemetry</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
@@ -27779,7 +27779,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27796,7 +27796,7 @@
       </c>
       <c r="B525" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C525" s="18" t="inlineStr">
@@ -27806,13 +27806,13 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Create appropriate groups to control the visibility of the products</t>
+          <t>Configure alerts on the most critical metrics</t>
         </is>
       </c>
       <c r="E525" s="18" t="n"/>
       <c r="F525" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -27830,7 +27830,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27847,7 +27847,7 @@
       </c>
       <c r="B526" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C526" s="18" t="inlineStr">
@@ -27857,13 +27857,13 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Use Backends feature to eliminate redundant API backend configurations</t>
+          <t>Be aware of APIM's limits</t>
         </is>
       </c>
       <c r="E526" s="18" t="n"/>
       <c r="F526" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -27881,7 +27881,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27898,7 +27898,7 @@
       </c>
       <c r="B527" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C527" s="18" t="inlineStr">
@@ -27908,13 +27908,13 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Use Named Values to store common values that can be used in policies</t>
+          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
       <c r="F527" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -27932,7 +27932,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27949,7 +27949,7 @@
       </c>
       <c r="B528" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C528" s="18" t="inlineStr">
@@ -27959,13 +27959,13 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>Use the premium tier for production workloads.</t>
+          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
       <c r="F528" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -27983,7 +27983,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -28000,7 +28000,7 @@
       </c>
       <c r="B529" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C529" s="18" t="inlineStr">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
+          <t>Use Azure AD to authenticate users in the Developer Portal</t>
         </is>
       </c>
       <c r="E529" s="18" t="n"/>
@@ -28034,7 +28034,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -28051,7 +28051,7 @@
       </c>
       <c r="B530" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C530" s="18" t="inlineStr">
@@ -28061,7 +28061,7 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
+          <t>Create appropriate groups to control the visibility of the products</t>
         </is>
       </c>
       <c r="E530" s="18" t="n"/>
@@ -28085,7 +28085,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -28102,7 +28102,7 @@
       </c>
       <c r="B531" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C531" s="18" t="inlineStr">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
+          <t>Use Backends feature to eliminate redundant API backend configurations</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
@@ -28136,7 +28136,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28153,7 +28153,7 @@
       </c>
       <c r="B532" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C532" s="18" t="inlineStr">
@@ -28163,13 +28163,13 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
+          <t>Use Named Values to store common values that can be used in policies</t>
         </is>
       </c>
       <c r="E532" s="18" t="n"/>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28187,7 +28187,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28214,13 +28214,13 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>Ensure there is an automated backup routine</t>
+          <t>Use the premium tier for production workloads.</t>
         </is>
       </c>
       <c r="E533" s="18" t="n"/>
       <c r="F533" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
@@ -28238,7 +28238,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28255,7 +28255,7 @@
       </c>
       <c r="B534" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C534" s="18" t="inlineStr">
@@ -28265,13 +28265,13 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
+          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
         </is>
       </c>
       <c r="E534" s="18" t="n"/>
       <c r="F534" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -28289,7 +28289,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28306,7 +28306,7 @@
       </c>
       <c r="B535" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C535" s="18" t="inlineStr">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Apply throttling policies to control the number of requests per second</t>
+          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
         </is>
       </c>
       <c r="E535" s="18" t="n"/>
@@ -28336,15 +28336,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J535" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J535" s="13" t="n"/>
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28361,7 +28357,7 @@
       </c>
       <c r="B536" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C536" s="18" t="inlineStr">
@@ -28371,7 +28367,7 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
+          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
         </is>
       </c>
       <c r="E536" s="18" t="n"/>
@@ -28395,7 +28391,7 @@
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28412,7 +28408,7 @@
       </c>
       <c r="B537" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C537" s="18" t="inlineStr">
@@ -28422,13 +28418,13 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
+          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
         </is>
       </c>
       <c r="E537" s="18" t="n"/>
       <c r="F537" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -28446,7 +28442,7 @@
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28473,13 +28469,13 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
+          <t>Ensure there is an automated backup routine</t>
         </is>
       </c>
       <c r="E538" s="18" t="n"/>
       <c r="F538" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -28497,7 +28493,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28514,7 +28510,7 @@
       </c>
       <c r="B539" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C539" s="18" t="inlineStr">
@@ -28524,13 +28520,13 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Front Door in front of APIM for multi-region deployment</t>
+          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
         </is>
       </c>
       <c r="E539" s="18" t="n"/>
       <c r="F539" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -28548,7 +28544,7 @@
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28565,7 +28561,7 @@
       </c>
       <c r="B540" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C540" s="18" t="inlineStr">
@@ -28575,7 +28571,7 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>Deploy the service within a Virtual Network (VNet)</t>
+          <t>Apply throttling policies to control the number of requests per second</t>
         </is>
       </c>
       <c r="E540" s="18" t="n"/>
@@ -28595,11 +28591,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J540" s="13" t="n"/>
+      <c r="J540" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28616,7 +28616,7 @@
       </c>
       <c r="B541" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C541" s="18" t="inlineStr">
@@ -28626,7 +28626,7 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>Deploy network security groups (NSG) to your subnets to restrict or monitor traffic to/from APIM.</t>
+          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
         </is>
       </c>
       <c r="E541" s="18" t="n"/>
@@ -28650,7 +28650,7 @@
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28667,7 +28667,7 @@
       </c>
       <c r="B542" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C542" s="18" t="inlineStr">
@@ -28677,7 +28677,7 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Deploy Private Endpoints to filter incoming traffic when APIM is not deployed to a VNet.</t>
+          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
         </is>
       </c>
       <c r="E542" s="18" t="n"/>
@@ -28701,7 +28701,7 @@
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28718,7 +28718,7 @@
       </c>
       <c r="B543" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C543" s="18" t="inlineStr">
@@ -28728,13 +28728,13 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Disable Public Network Access</t>
+          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
         </is>
       </c>
       <c r="E543" s="18" t="n"/>
       <c r="F543" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -28752,7 +28752,7 @@
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28769,7 +28769,7 @@
       </c>
       <c r="B544" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C544" s="18" t="inlineStr">
@@ -28779,7 +28779,7 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Simplify management with PowerShell automation scripts</t>
+          <t>Use Azure Front Door in front of APIM for multi-region deployment</t>
         </is>
       </c>
       <c r="E544" s="18" t="n"/>
@@ -28803,7 +28803,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28820,7 +28820,7 @@
       </c>
       <c r="B545" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C545" s="18" t="inlineStr">
@@ -28830,7 +28830,7 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Configure APIM via Infrastructure-as-code. Review DevOps best practices from the Cloud Adaption Framework APIM Landing Zone Accelerator</t>
+          <t>Deploy the service within a Virtual Network (VNet)</t>
         </is>
       </c>
       <c r="E545" s="18" t="n"/>
@@ -28854,7 +28854,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28871,7 +28871,7 @@
       </c>
       <c r="B546" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C546" s="18" t="inlineStr">
@@ -28881,7 +28881,7 @@
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>Promote usage of Visual Studio Code APIM extension for faster API development</t>
+          <t>Deploy network security groups (NSG) to your subnets to restrict or monitor traffic to/from APIM.</t>
         </is>
       </c>
       <c r="E546" s="18" t="n"/>
@@ -28905,7 +28905,7 @@
       <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -28922,7 +28922,7 @@
       </c>
       <c r="B547" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C547" s="18" t="inlineStr">
@@ -28932,7 +28932,7 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>Implement DevOps and CI/CD in your workflow</t>
+          <t>Deploy Private Endpoints to filter incoming traffic when APIM is not deployed to a VNet.</t>
         </is>
       </c>
       <c r="E547" s="18" t="n"/>
@@ -28956,7 +28956,7 @@
       <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -28983,13 +28983,13 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>Secure APIs using client certificate authentication</t>
+          <t>Disable Public Network Access</t>
         </is>
       </c>
       <c r="E548" s="18" t="n"/>
       <c r="F548" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -29007,7 +29007,7 @@
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -29024,7 +29024,7 @@
       </c>
       <c r="B549" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C549" s="18" t="inlineStr">
@@ -29034,7 +29034,7 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>Secure backend services using client certificate authentication</t>
+          <t>Simplify management with PowerShell automation scripts</t>
         </is>
       </c>
       <c r="E549" s="18" t="n"/>
@@ -29058,7 +29058,7 @@
       <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="B550" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C550" s="18" t="inlineStr">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>Review 'Recommendations to mitigate OWASP API Security Top 10 threats' article and check what is applicable to your APIs</t>
+          <t>Configure APIM via Infrastructure-as-code. Review DevOps best practices from the Cloud Adaption Framework APIM Landing Zone Accelerator</t>
         </is>
       </c>
       <c r="E550" s="18" t="n"/>
@@ -29109,7 +29109,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29126,7 +29126,7 @@
       </c>
       <c r="B551" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C551" s="18" t="inlineStr">
@@ -29136,7 +29136,7 @@
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>Use Authorizations feature to simplify management of OAuth 2.0 token for your backend APIs</t>
+          <t>Promote usage of Visual Studio Code APIM extension for faster API development</t>
         </is>
       </c>
       <c r="E551" s="18" t="n"/>
@@ -29160,7 +29160,7 @@
       <c r="K551" s="19" t="n"/>
       <c r="L551" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M551" s="20" t="n"/>
@@ -29177,7 +29177,7 @@
       </c>
       <c r="B552" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C552" s="18" t="inlineStr">
@@ -29187,13 +29187,13 @@
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>Use the latest TLS version when encrypting information in transit. Disable outdated and unnecessary protocols and ciphers when possible.</t>
+          <t>Implement DevOps and CI/CD in your workflow</t>
         </is>
       </c>
       <c r="E552" s="18" t="n"/>
       <c r="F552" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -29211,7 +29211,7 @@
       <c r="K552" s="19" t="n"/>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -29238,13 +29238,13 @@
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>Ensure that secrets (Named values) are stored an Azure Key Vault so they can be securely accessed and updated</t>
+          <t>Secure APIs using client certificate authentication</t>
         </is>
       </c>
       <c r="E553" s="18" t="n"/>
       <c r="F553" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -29262,7 +29262,7 @@
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -29289,7 +29289,7 @@
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>Use managed identities to authenticate to other Azure resources whenever possible</t>
+          <t>Secure backend services using client certificate authentication</t>
         </is>
       </c>
       <c r="E554" s="18" t="n"/>
@@ -29313,7 +29313,7 @@
       <c r="K554" s="19" t="n"/>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -29340,13 +29340,13 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>Use web application firewall (WAF) by deploying Application Gateway in front of APIM</t>
+          <t>Review 'Recommendations to mitigate OWASP API Security Top 10 threats' article and check what is applicable to your APIs</t>
         </is>
       </c>
       <c r="E555" s="18" t="n"/>
       <c r="F555" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -29364,7 +29364,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -29376,7 +29376,7 @@
     <row r="556">
       <c r="A556" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B556" s="18" t="inlineStr">
@@ -29386,22 +29386,18 @@
       </c>
       <c r="C556" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D556" s="18" t="inlineStr">
         <is>
-          <t>Use customer-managed key option in data at rest encryption when required</t>
-        </is>
-      </c>
-      <c r="E556" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Event Hub provides encryption of data at rest. If you use your own key, the data is still encrypted using the Microsoft-managed key, but in addition the Microsoft-managed key will be encrypted using the customer-managed key. </t>
-        </is>
-      </c>
+          <t>Use Authorizations feature to simplify management of OAuth 2.0 token for your backend APIs</t>
+        </is>
+      </c>
+      <c r="E556" s="18" t="n"/>
       <c r="F556" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -29415,15 +29411,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J556" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J556" s="13" t="n"/>
       <c r="K556" s="19" t="n"/>
       <c r="L556" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M556" s="20" t="n"/>
@@ -29435,7 +29427,7 @@
     <row r="557">
       <c r="A557" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B557" s="18" t="inlineStr">
@@ -29445,22 +29437,18 @@
       </c>
       <c r="C557" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enforce a minimum required version of Transport Layer Security (TLS) for requests </t>
-        </is>
-      </c>
-      <c r="E557" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Event Hubs namespaces permit clients to send and receive data with TLS 1.0 and above. To enforce stricter security measures, you can configure your Event Hubs namespace to require that clients send and receive data with a newer version of TLS. If an Event Hubs namespace requires a minimum version of TLS, then any requests made with an older version will fail. </t>
-        </is>
-      </c>
+          <t>Use the latest TLS version when encrypting information in transit. Disable outdated and unnecessary protocols and ciphers when possible.</t>
+        </is>
+      </c>
+      <c r="E557" s="18" t="n"/>
       <c r="F557" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
@@ -29474,15 +29462,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J557" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J557" s="13" t="n"/>
       <c r="K557" s="19" t="n"/>
       <c r="L557" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M557" s="20" t="n"/>
@@ -29494,7 +29478,7 @@
     <row r="558">
       <c r="A558" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B558" s="18" t="inlineStr">
@@ -29504,22 +29488,18 @@
       </c>
       <c r="C558" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>Avoid using root account when it is not necessary</t>
-        </is>
-      </c>
-      <c r="E558" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When you create an Event Hubs namespace, a policy rule named RootManageSharedAccessKey is automatically created for the namespace. This policy has manage permissions for the entire namespace. It�s recommended that you treat this rule like an administrative root account and don�t use it in your application. Using AAD as an authentication provider with RBAC is recommended. </t>
-        </is>
-      </c>
+          <t>Ensure that secrets (Named values) are stored an Azure Key Vault so they can be securely accessed and updated</t>
+        </is>
+      </c>
+      <c r="E558" s="18" t="n"/>
       <c r="F558" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -29533,15 +29513,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J558" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+      <c r="J558" s="13" t="n"/>
       <c r="K558" s="19" t="n"/>
       <c r="L558" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M558" s="20" t="n"/>
@@ -29553,7 +29529,7 @@
     <row r="559">
       <c r="A559" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B559" s="18" t="inlineStr">
@@ -29563,19 +29539,15 @@
       </c>
       <c r="C559" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>When possible, your application should be using a managed identity to authenticate to Azure Event Hub. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
-        </is>
-      </c>
-      <c r="E559" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Managed identities for Azure resources can authorize access to Event Hubs resources using Azure AD credentials from applications running in Azure Virtual Machines (VMs), Function apps, Virtual Machine Scale Sets, and other services. By using managed identities for Azure resources together with Azure AD authentication, you can avoid storing credentials with your applications that run in the cloud. </t>
-        </is>
-      </c>
+          <t>Use managed identities to authenticate to other Azure resources whenever possible</t>
+        </is>
+      </c>
+      <c r="E559" s="18" t="n"/>
       <c r="F559" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -29592,15 +29564,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J559" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J559" s="13" t="n"/>
       <c r="K559" s="19" t="n"/>
       <c r="L559" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M559" s="20" t="n"/>
@@ -29612,7 +29580,7 @@
     <row r="560">
       <c r="A560" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B560" s="18" t="inlineStr">
@@ -29622,19 +29590,15 @@
       </c>
       <c r="C560" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>Use least privilege data plane RBAC</t>
-        </is>
-      </c>
-      <c r="E560" s="18" t="inlineStr">
-        <is>
-          <t>When creating permissions, provide fine-grained control over a client's access to Azure Event Hub. Permissions in Azure Event Hub can and should be scoped to the individual resource level e.g. consumer group, event hub entity, event hub namespaces, etc.</t>
-        </is>
-      </c>
+          <t>Use web application firewall (WAF) by deploying Application Gateway in front of APIM</t>
+        </is>
+      </c>
+      <c r="E560" s="18" t="n"/>
       <c r="F560" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -29651,15 +29615,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J560" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J560" s="13" t="n"/>
       <c r="K560" s="19" t="n"/>
       <c r="L560" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M560" s="20" t="n"/>
@@ -29686,17 +29646,17 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>Enable logging for security investigation. Use Azure Monitor to captured metrics and logs such as resource logs, runtime audit logs and Kafka logs</t>
+          <t>Use customer-managed key option in data at rest encryption when required</t>
         </is>
       </c>
       <c r="E561" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub resource logs include operational logs, virtual network and Kafka logs. Runtime audit logs capture aggregated diagnostic information for all data plane access operations (such as send or receive events) in Event Hubs.</t>
+          <t xml:space="preserve">Azure Event Hub provides encryption of data at rest. If you use your own key, the data is still encrypted using the Microsoft-managed key, but in addition the Microsoft-managed key will be encrypted using the customer-managed key. </t>
         </is>
       </c>
       <c r="F561" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -29712,13 +29672,13 @@
       </c>
       <c r="J561" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K561" s="19" t="n"/>
       <c r="L561" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M561" s="20" t="n"/>
@@ -29745,12 +29705,12 @@
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Consider using private endpoints to access Azure Event Hub and disable public network access when applicable.</t>
+          <t xml:space="preserve">Enforce a minimum required version of Transport Layer Security (TLS) for requests </t>
         </is>
       </c>
       <c r="E562" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Event Hub by default has a public IP address and is Internet-reachable. Private endpoints allow traffic between your virtual network and Azure Event Hub traverses over the Microsoft backbone network. In addition to that, you should disable public endpoints if those are not used. </t>
+          <t xml:space="preserve">Azure Event Hubs namespaces permit clients to send and receive data with TLS 1.0 and above. To enforce stricter security measures, you can configure your Event Hubs namespace to require that clients send and receive data with a newer version of TLS. If an Event Hubs namespace requires a minimum version of TLS, then any requests made with an older version will fail. </t>
         </is>
       </c>
       <c r="F562" s="18" t="inlineStr">
@@ -29771,13 +29731,13 @@
       </c>
       <c r="J562" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K562" s="19" t="n"/>
       <c r="L562" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M562" s="20" t="n"/>
@@ -29804,12 +29764,12 @@
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>Consider only allowing access to Azure Event Hub namespace from specific IP addresses or ranges</t>
+          <t>Avoid using root account when it is not necessary</t>
         </is>
       </c>
       <c r="E563" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">With IP firewall, you can restrict public endpoint further to only a set of IPv4 addresses or IPv4 address ranges in CIDR (Classless Inter-Domain Routing) notation. </t>
+          <t xml:space="preserve">When you create an Event Hubs namespace, a policy rule named RootManageSharedAccessKey is automatically created for the namespace. This policy has manage permissions for the entire namespace. It�s recommended that you treat this rule like an administrative root account and don�t use it in your application. Using AAD as an authentication provider with RBAC is recommended. </t>
         </is>
       </c>
       <c r="F563" s="18" t="inlineStr">
@@ -29830,13 +29790,13 @@
       </c>
       <c r="J563" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="K563" s="19" t="n"/>
       <c r="L563" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M563" s="20" t="n"/>
@@ -29848,25 +29808,29 @@
     <row r="564">
       <c r="A564" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B564" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C564" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps permits two deployments for every app, only one of which receives production traffic. You can achieve zero downtime with blue green deployment strategies. Blue green deployment is only available in Standard and Enterprise tiers. You could automate deployment using CI/CD with ADO/GitHub actions</t>
-        </is>
-      </c>
-      <c r="E564" s="18" t="n"/>
+          <t>When possible, your application should be using a managed identity to authenticate to Azure Event Hub. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
+        </is>
+      </c>
+      <c r="E564" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Managed identities for Azure resources can authorize access to Event Hubs resources using Azure AD credentials from applications running in Azure Virtual Machines (VMs), Function apps, Virtual Machine Scale Sets, and other services. By using managed identities for Azure resources together with Azure AD authentication, you can avoid storing credentials with your applications that run in the cloud. </t>
+        </is>
+      </c>
       <c r="F564" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -29883,11 +29847,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J564" s="13" t="n"/>
+      <c r="J564" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K564" s="19" t="n"/>
       <c r="L564" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M564" s="20" t="n"/>
@@ -29899,28 +29867,32 @@
     <row r="565">
       <c r="A565" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B565" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C565" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps instances could be created in multiple regions for your applications and traffic could be routed by Traffic Manager/Front Door.</t>
-        </is>
-      </c>
-      <c r="E565" s="18" t="n"/>
+          <t>Use least privilege data plane RBAC</t>
+        </is>
+      </c>
+      <c r="E565" s="18" t="inlineStr">
+        <is>
+          <t>When creating permissions, provide fine-grained control over a client's access to Azure Event Hub. Permissions in Azure Event Hub can and should be scoped to the individual resource level e.g. consumer group, event hub entity, event hub namespaces, etc.</t>
+        </is>
+      </c>
       <c r="F565" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -29934,11 +29906,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J565" s="13" t="n"/>
+      <c r="J565" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K565" s="19" t="n"/>
       <c r="L565" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M565" s="20" t="n"/>
@@ -29950,25 +29926,29 @@
     <row r="566">
       <c r="A566" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B566" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C566" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>In supported region, Azure Spring Apps can be deployed as zone redundant, which means that instances are automatically distributed across availability zones. This feature is only available in Standard and Enterprise tiers.</t>
-        </is>
-      </c>
-      <c r="E566" s="18" t="n"/>
+          <t>Enable logging for security investigation. Use Azure Monitor to captured metrics and logs such as resource logs, runtime audit logs and Kafka logs</t>
+        </is>
+      </c>
+      <c r="E566" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub resource logs include operational logs, virtual network and Kafka logs. Runtime audit logs capture aggregated diagnostic information for all data plane access operations (such as send or receive events) in Event Hubs.</t>
+        </is>
+      </c>
       <c r="F566" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -29985,11 +29965,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J566" s="13" t="n"/>
+      <c r="J566" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K566" s="19" t="n"/>
       <c r="L566" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
         </is>
       </c>
       <c r="M566" s="20" t="n"/>
@@ -30001,25 +29985,29 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>Use more than 1 app instance for your apps</t>
-        </is>
-      </c>
-      <c r="E567" s="18" t="n"/>
+          <t>Consider using private endpoints to access Azure Event Hub and disable public network access when applicable.</t>
+        </is>
+      </c>
+      <c r="E567" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azure Event Hub by default has a public IP address and is Internet-reachable. Private endpoints allow traffic between your virtual network and Azure Event Hub traverses over the Microsoft backbone network. In addition to that, you should disable public endpoints if those are not used. </t>
+        </is>
+      </c>
       <c r="F567" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -30036,11 +30024,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J567" s="13" t="n"/>
+      <c r="J567" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K567" s="19" t="n"/>
       <c r="L567" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
         </is>
       </c>
       <c r="M567" s="20" t="n"/>
@@ -30052,25 +30044,29 @@
     <row r="568">
       <c r="A568" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B568" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C568" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>Monitor Azure Spring Apps with logs, metrics and tracing. Integrate ASA with application insights and track failures and create workbooks.</t>
-        </is>
-      </c>
-      <c r="E568" s="18" t="n"/>
+          <t>Consider only allowing access to Azure Event Hub namespace from specific IP addresses or ranges</t>
+        </is>
+      </c>
+      <c r="E568" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">With IP firewall, you can restrict public endpoint further to only a set of IPv4 addresses or IPv4 address ranges in CIDR (Classless Inter-Domain Routing) notation. </t>
+        </is>
+      </c>
       <c r="F568" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -30087,11 +30083,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J568" s="13" t="n"/>
+      <c r="J568" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K568" s="19" t="n"/>
       <c r="L568" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
         </is>
       </c>
       <c r="M568" s="20" t="n"/>
@@ -30118,7 +30118,7 @@
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>Set up autoscaling in Spring Cloud Gateway</t>
+          <t>Azure Spring Apps permits two deployments for every app, only one of which receives production traffic. You can achieve zero downtime with blue green deployment strategies. Blue green deployment is only available in Standard and Enterprise tiers. You could automate deployment using CI/CD with ADO/GitHub actions</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
@@ -30142,7 +30142,7 @@
       <c r="K569" s="19" t="n"/>
       <c r="L569" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M569" s="20" t="n"/>
@@ -30169,13 +30169,13 @@
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>Enable autoscale for the apps with Standard consumption &amp; dedicated plan.</t>
+          <t>Azure Spring Apps instances could be created in multiple regions for your applications and traffic could be routed by Traffic Manager/Front Door.</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
       <c r="F570" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -30193,7 +30193,7 @@
       <c r="K570" s="19" t="n"/>
       <c r="L570" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M570" s="20" t="n"/>
@@ -30220,7 +30220,7 @@
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>Use Enterprise plan for commercial support of spring boot for mission critical apps. With other tiers you get OSS support.</t>
+          <t>In supported region, Azure Spring Apps can be deployed as zone redundant, which means that instances are automatically distributed across availability zones. This feature is only available in Standard and Enterprise tiers.</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30244,7 +30244,7 @@
       <c r="K571" s="19" t="n"/>
       <c r="L571" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M571" s="20" t="n"/>
@@ -30256,32 +30256,28 @@
     <row r="572">
       <c r="A572" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B572" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C572" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>Disable Azure Container Registry image export</t>
-        </is>
-      </c>
-      <c r="E572" s="18" t="inlineStr">
-        <is>
-          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
-        </is>
-      </c>
+          <t>Use more than 1 app instance for your apps</t>
+        </is>
+      </c>
+      <c r="E572" s="18" t="n"/>
       <c r="F572" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -30299,7 +30295,7 @@
       <c r="K572" s="19" t="n"/>
       <c r="L572" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M572" s="20" t="n"/>
@@ -30311,32 +30307,28 @@
     <row r="573">
       <c r="A573" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B573" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C573" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>Enable Azure Policies for Azure Container Registry</t>
-        </is>
-      </c>
-      <c r="E573" s="18" t="inlineStr">
-        <is>
-          <t>Enable audit compliance visibility by enabling Azure Policy for Azure Container Registry</t>
-        </is>
-      </c>
+          <t>Monitor Azure Spring Apps with logs, metrics and tracing. Integrate ASA with application insights and track failures and create workbooks.</t>
+        </is>
+      </c>
+      <c r="E573" s="18" t="n"/>
       <c r="F573" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -30354,7 +30346,7 @@
       <c r="K573" s="19" t="n"/>
       <c r="L573" s="19" t="inlineStr">
         <is>
-          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M573" s="20" t="n"/>
@@ -30366,32 +30358,28 @@
     <row r="574">
       <c r="A574" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B574" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C574" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>Sign and Verify containers with notation (Notary v2)</t>
-        </is>
-      </c>
-      <c r="E574" s="18" t="inlineStr">
-        <is>
-          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by?notation?with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the?az?or?oras?CLI commands.</t>
-        </is>
-      </c>
+          <t>Set up autoscaling in Spring Cloud Gateway</t>
+        </is>
+      </c>
+      <c r="E574" s="18" t="n"/>
       <c r="F574" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -30409,7 +30397,7 @@
       <c r="K574" s="19" t="n"/>
       <c r="L574" s="19" t="inlineStr">
         <is>
-          <t>d345293c-7639-4637-a551-c5c04e401955</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M574" s="20" t="n"/>
@@ -30421,32 +30409,28 @@
     <row r="575">
       <c r="A575" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B575" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C575" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>Encrypt registry with a customer managed key</t>
-        </is>
-      </c>
-      <c r="E575" s="18" t="inlineStr">
-        <is>
-          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
-        </is>
-      </c>
+          <t>Enable autoscale for the apps with Standard consumption &amp; dedicated plan.</t>
+        </is>
+      </c>
+      <c r="E575" s="18" t="n"/>
       <c r="F575" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -30464,7 +30448,7 @@
       <c r="K575" s="19" t="n"/>
       <c r="L575" s="19" t="inlineStr">
         <is>
-          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M575" s="20" t="n"/>
@@ -30476,32 +30460,28 @@
     <row r="576">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B576" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C576" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>Use Managed Identities to connect instead of Service Principals</t>
-        </is>
-      </c>
-      <c r="E576" s="18" t="inlineStr">
-        <is>
-          <t>Use managed identities to secure ACRPull/Push RBAC access from client applications</t>
-        </is>
-      </c>
+          <t>Use Enterprise plan for commercial support of spring boot for mission critical apps. With other tiers you get OSS support.</t>
+        </is>
+      </c>
+      <c r="E576" s="18" t="n"/>
       <c r="F576" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G576" t="inlineStr">
@@ -30519,7 +30499,7 @@
       <c r="K576" s="19" t="n"/>
       <c r="L576" s="19" t="inlineStr">
         <is>
-          <t>8f42d78e-79dc-47b3-9bd2-a1a27e7a8e90</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M576" s="20" t="n"/>
@@ -30546,12 +30526,12 @@
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>Disable local authentication for management plane access</t>
+          <t>Disable Azure Container Registry image export</t>
         </is>
       </c>
       <c r="E577" s="18" t="inlineStr">
         <is>
-          <t>The local Administrator account is disabled by default and should not be enabled. Use either Token or RBAC-based access methods instead</t>
+          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
         </is>
       </c>
       <c r="F577" s="18" t="inlineStr">
@@ -30574,7 +30554,7 @@
       <c r="K577" s="19" t="n"/>
       <c r="L577" s="19" t="inlineStr">
         <is>
-          <t>be0e38ce-e297-411b-b363-caaab79b198d</t>
+          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
         </is>
       </c>
       <c r="M577" s="20" t="n"/>
@@ -30601,12 +30581,12 @@
       </c>
       <c r="D578" s="18" t="inlineStr">
         <is>
-          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
+          <t>Enable Azure Policies for Azure Container Registry</t>
         </is>
       </c>
       <c r="E578" s="18" t="inlineStr">
         <is>
-          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
+          <t>Enable audit compliance visibility by enabling Azure Policy for Azure Container Registry</t>
         </is>
       </c>
       <c r="F578" s="18" t="inlineStr">
@@ -30629,7 +30609,7 @@
       <c r="K578" s="19" t="n"/>
       <c r="L578" s="19" t="inlineStr">
         <is>
-          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
+          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
         </is>
       </c>
       <c r="M578" s="20" t="n"/>
@@ -30656,17 +30636,17 @@
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>Disable Anonymous pull access</t>
+          <t>Sign and Verify containers with notation (Notary v2)</t>
         </is>
       </c>
       <c r="E579" s="18" t="inlineStr">
         <is>
-          <t>Disable anonymous pull/push access</t>
+          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by?notation?with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the?az?or?oras?CLI commands.</t>
         </is>
       </c>
       <c r="F579" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
@@ -30684,7 +30664,7 @@
       <c r="K579" s="19" t="n"/>
       <c r="L579" s="19" t="inlineStr">
         <is>
-          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
+          <t>d345293c-7639-4637-a551-c5c04e401955</t>
         </is>
       </c>
       <c r="M579" s="20" t="n"/>
@@ -30711,17 +30691,17 @@
       </c>
       <c r="D580" s="18" t="inlineStr">
         <is>
-          <t>Disable repository-scoped access tokens</t>
+          <t>Encrypt registry with a customer managed key</t>
         </is>
       </c>
       <c r="E580" s="18" t="inlineStr">
         <is>
-          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
+          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
         </is>
       </c>
       <c r="F580" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G580" t="inlineStr">
@@ -30739,7 +30719,7 @@
       <c r="K580" s="19" t="n"/>
       <c r="L580" s="19" t="inlineStr">
         <is>
-          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
+          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
         </is>
       </c>
       <c r="M580" s="20" t="n"/>
@@ -30766,12 +30746,12 @@
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>Deploy images from a trusted environment</t>
+          <t>Use Managed Identities to connect instead of Service Principals</t>
         </is>
       </c>
       <c r="E581" s="18" t="inlineStr">
         <is>
-          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
+          <t>Use managed identities to secure ACRPull/Push RBAC access from client applications</t>
         </is>
       </c>
       <c r="F581" s="18" t="inlineStr">
@@ -30785,12 +30765,16 @@
         </is>
       </c>
       <c r="H581" s="18" t="n"/>
-      <c r="I581" s="13" t="n"/>
+      <c r="I581" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J581" s="13" t="n"/>
       <c r="K581" s="19" t="n"/>
       <c r="L581" s="19" t="inlineStr">
         <is>
-          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
+          <t>8f42d78e-79dc-47b3-9bd2-a1a27e7a8e90</t>
         </is>
       </c>
       <c r="M581" s="20" t="n"/>
@@ -30817,17 +30801,17 @@
       </c>
       <c r="D582" s="18" t="inlineStr">
         <is>
-          <t>Disable Azure ARM audience tokens for authentication</t>
+          <t>Disable local authentication for management plane access</t>
         </is>
       </c>
       <c r="E582" s="18" t="inlineStr">
         <is>
-          <t>Only tokens with an ACR audience can be used for authentication. Used when enabling Conditional access policies for ACR</t>
+          <t>The local Administrator account is disabled by default and should not be enabled. Use either Token or RBAC-based access methods instead</t>
         </is>
       </c>
       <c r="F582" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
@@ -30845,7 +30829,7 @@
       <c r="K582" s="19" t="n"/>
       <c r="L582" s="19" t="inlineStr">
         <is>
-          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
+          <t>be0e38ce-e297-411b-b363-caaab79b198d</t>
         </is>
       </c>
       <c r="M582" s="20" t="n"/>
@@ -30872,17 +30856,17 @@
       </c>
       <c r="D583" s="18" t="inlineStr">
         <is>
-          <t>Enable diagnostics logging</t>
+          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
         </is>
       </c>
       <c r="E583" s="18" t="inlineStr">
         <is>
-          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
+          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
         </is>
       </c>
       <c r="F583" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
@@ -30900,7 +30884,7 @@
       <c r="K583" s="19" t="n"/>
       <c r="L583" s="19" t="inlineStr">
         <is>
-          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
+          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
         </is>
       </c>
       <c r="M583" s="20" t="n"/>
@@ -30927,12 +30911,12 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Control inbound network access with Private Link</t>
+          <t>Disable Anonymous pull access</t>
         </is>
       </c>
       <c r="E584" s="18" t="inlineStr">
         <is>
-          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
+          <t>Disable anonymous pull/push access</t>
         </is>
       </c>
       <c r="F584" s="18" t="inlineStr">
@@ -30955,7 +30939,7 @@
       <c r="K584" s="19" t="n"/>
       <c r="L584" s="19" t="inlineStr">
         <is>
-          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
+          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
         </is>
       </c>
       <c r="M584" s="20" t="n"/>
@@ -30982,17 +30966,17 @@
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>Disable Public Network access</t>
+          <t>Disable repository-scoped access tokens</t>
         </is>
       </c>
       <c r="E585" s="18" t="inlineStr">
         <is>
-          <t>Disable public network access if inbound network access is secured using Private Link</t>
+          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
         </is>
       </c>
       <c r="F585" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -31010,7 +30994,7 @@
       <c r="K585" s="19" t="n"/>
       <c r="L585" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
+          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
         </is>
       </c>
       <c r="M585" s="20" t="n"/>
@@ -31037,17 +31021,17 @@
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
+          <t>Deploy images from a trusted environment</t>
         </is>
       </c>
       <c r="E586" s="18" t="inlineStr">
         <is>
-          <t>Only the ACR Premium SKU supports Private Link access</t>
+          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
         </is>
       </c>
       <c r="F586" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -31056,16 +31040,12 @@
         </is>
       </c>
       <c r="H586" s="18" t="n"/>
-      <c r="I586" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I586" s="13" t="n"/>
       <c r="J586" s="13" t="n"/>
       <c r="K586" s="19" t="n"/>
       <c r="L586" s="19" t="inlineStr">
         <is>
-          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
+          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
         </is>
       </c>
       <c r="M586" s="20" t="n"/>
@@ -31092,17 +31072,17 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
+          <t>Disable Azure ARM audience tokens for authentication</t>
         </is>
       </c>
       <c r="E587" s="18" t="inlineStr">
         <is>
-          <t>Azure Defender for containers or equivalent service should be used to scan container images for vulnerabilities</t>
+          <t>Only tokens with an ACR audience can be used for authentication. Used when enabling Conditional access policies for ACR</t>
         </is>
       </c>
       <c r="F587" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
@@ -31120,7 +31100,7 @@
       <c r="K587" s="19" t="n"/>
       <c r="L587" s="19" t="inlineStr">
         <is>
-          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
+          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
         </is>
       </c>
       <c r="M587" s="20" t="n"/>
@@ -31147,12 +31127,12 @@
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t>Deploy validated container images</t>
+          <t>Enable diagnostics logging</t>
         </is>
       </c>
       <c r="E588" s="18" t="inlineStr">
         <is>
-          <t>Deploy trusted code that was validated and scanned for vulnerabilities according to DevSecOps practices.</t>
+          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
         </is>
       </c>
       <c r="F588" s="18" t="inlineStr">
@@ -31166,12 +31146,16 @@
         </is>
       </c>
       <c r="H588" s="18" t="n"/>
-      <c r="I588" s="13" t="n"/>
+      <c r="I588" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J588" s="13" t="n"/>
       <c r="K588" s="19" t="n"/>
       <c r="L588" s="19" t="inlineStr">
         <is>
-          <t>4451e1a2-d345-4293-a763-9637a551c5c0</t>
+          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
         </is>
       </c>
       <c r="M588" s="20" t="n"/>
@@ -31198,17 +31182,17 @@
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
+          <t>Control inbound network access with Private Link</t>
         </is>
       </c>
       <c r="E589" s="18" t="inlineStr">
         <is>
-          <t>Use the latest versions of supported platforms, programming languages, protocols, and frameworks.</t>
+          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
         </is>
       </c>
       <c r="F589" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -31217,12 +31201,16 @@
         </is>
       </c>
       <c r="H589" s="18" t="n"/>
-      <c r="I589" s="13" t="n"/>
+      <c r="I589" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J589" s="13" t="n"/>
       <c r="K589" s="19" t="n"/>
       <c r="L589" s="19" t="inlineStr">
         <is>
-          <t>4e401955-387e-45ce-b126-cd132af5b20c</t>
+          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
         </is>
       </c>
       <c r="M589" s="20" t="n"/>
@@ -31234,26 +31222,34 @@
     <row r="590">
       <c r="A590" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B590" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C590" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
-        </is>
-      </c>
-      <c r="E590" s="18" t="n"/>
-      <c r="F590" s="18" t="n"/>
+          <t>Disable Public Network access</t>
+        </is>
+      </c>
+      <c r="E590" s="18" t="inlineStr">
+        <is>
+          <t>Disable public network access if inbound network access is secured using Private Link</t>
+        </is>
+      </c>
+      <c r="F590" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="G590" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31269,7 +31265,7 @@
       <c r="K590" s="19" t="n"/>
       <c r="L590" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
         </is>
       </c>
       <c r="M590" s="20" t="n"/>
@@ -31281,26 +31277,34 @@
     <row r="591">
       <c r="A591" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B591" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C591" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
-        </is>
-      </c>
-      <c r="E591" s="18" t="n"/>
-      <c r="F591" s="18" t="n"/>
+          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
+        </is>
+      </c>
+      <c r="E591" s="18" t="inlineStr">
+        <is>
+          <t>Only the ACR Premium SKU supports Private Link access</t>
+        </is>
+      </c>
+      <c r="F591" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="G591" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31316,7 +31320,7 @@
       <c r="K591" s="19" t="n"/>
       <c r="L591" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
         </is>
       </c>
       <c r="M591" s="20" t="n"/>
@@ -31328,26 +31332,34 @@
     <row r="592">
       <c r="A592" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B592" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C592" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>Use Geo-redundant storage account to persist Azure Cache for Redis data, or zonally redundant where geo-redundancy is not available</t>
-        </is>
-      </c>
-      <c r="E592" s="18" t="n"/>
-      <c r="F592" s="18" t="n"/>
+          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
+        </is>
+      </c>
+      <c r="E592" s="18" t="inlineStr">
+        <is>
+          <t>Azure Defender for containers or equivalent service should be used to scan container images for vulnerabilities</t>
+        </is>
+      </c>
+      <c r="F592" s="18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G592" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31363,7 +31375,7 @@
       <c r="K592" s="19" t="n"/>
       <c r="L592" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
         </is>
       </c>
       <c r="M592" s="20" t="n"/>
@@ -31375,42 +31387,46 @@
     <row r="593">
       <c r="A593" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B593" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C593" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
-        </is>
-      </c>
-      <c r="E593" s="18" t="n"/>
-      <c r="F593" s="18" t="n"/>
+          <t>Deploy validated container images</t>
+        </is>
+      </c>
+      <c r="E593" s="18" t="inlineStr">
+        <is>
+          <t>Deploy trusted code that was validated and scanned for vulnerabilities according to DevSecOps practices.</t>
+        </is>
+      </c>
+      <c r="F593" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="G593" t="inlineStr">
         <is>
           <t>Not verified</t>
         </is>
       </c>
       <c r="H593" s="18" t="n"/>
-      <c r="I593" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I593" s="13" t="n"/>
       <c r="J593" s="13" t="n"/>
       <c r="K593" s="19" t="n"/>
       <c r="L593" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>4451e1a2-d345-4293-a763-9637a551c5c0</t>
         </is>
       </c>
       <c r="M593" s="20" t="n"/>
@@ -31422,32 +31438,32 @@
     <row r="594">
       <c r="A594" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B594" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C594" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>Enable automatic instance repairs for enhanced VM Scale Sets resiliency</t>
+          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
         </is>
       </c>
       <c r="E594" s="18" t="inlineStr">
         <is>
-          <t>Automatic instance repairs ensure that unhealthy instances are promptly identified and replaced, maintaining a set of healthy instances within your scale set.</t>
+          <t>Use the latest versions of supported platforms, programming languages, protocols, and frameworks.</t>
         </is>
       </c>
       <c r="F594" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -31456,16 +31472,12 @@
         </is>
       </c>
       <c r="H594" s="18" t="n"/>
-      <c r="I594" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I594" s="13" t="n"/>
       <c r="J594" s="13" t="n"/>
       <c r="K594" s="19" t="n"/>
       <c r="L594" s="19" t="inlineStr">
         <is>
-          <t>7e13c105-675c-41e9-95b4-59837ff7ae7c</t>
+          <t>4e401955-387e-45ce-b126-cd132af5b20c</t>
         </is>
       </c>
       <c r="M594" s="20" t="n"/>
@@ -31477,7 +31489,7 @@
     <row r="595">
       <c r="A595" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B595" s="18" t="inlineStr">
@@ -31487,24 +31499,16 @@
       </c>
       <c r="C595" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Consider Azure Backup to meet your resiliency requirements for Azure VMs</t>
-        </is>
-      </c>
-      <c r="E595" s="18" t="inlineStr">
-        <is>
-          <t>Ensure that Azure Backup is utilized appropriately to meet your organization's resiliency requirements for Azure virtual machines (VMs).</t>
-        </is>
-      </c>
-      <c r="F595" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+          <t>Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
+        </is>
+      </c>
+      <c r="E595" s="18" t="n"/>
+      <c r="F595" s="18" t="n"/>
       <c r="G595" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31520,7 +31524,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>4d874a74-8b66-42d6-b150-512a66498f6d</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -31532,7 +31536,7 @@
     <row r="596">
       <c r="A596" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B596" s="18" t="inlineStr">
@@ -31542,24 +31546,16 @@
       </c>
       <c r="C596" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Use Premium or Ultra disks for production VMs</t>
-        </is>
-      </c>
-      <c r="E596" s="18" t="inlineStr">
-        <is>
-          <t>Single Instance VMs using Premium SSD or Ultra Disk for all Operating System Disks and Data Disks are guaranteed to have Virtual Machine Connectivity of at least 99.9%</t>
-        </is>
-      </c>
-      <c r="F596" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+          <t>Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
+        </is>
+      </c>
+      <c r="E596" s="18" t="n"/>
+      <c r="F596" s="18" t="n"/>
       <c r="G596" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31575,7 +31571,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>8052d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -31587,7 +31583,7 @@
     <row r="597">
       <c r="A597" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B597" s="18" t="inlineStr">
@@ -31597,24 +31593,16 @@
       </c>
       <c r="C597" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Ensure Managed Disks are used for all VMs</t>
-        </is>
-      </c>
-      <c r="E597" s="18" t="inlineStr">
-        <is>
-          <t>Azure automatically replicates managed disks within a region to ensure data durability and protect against single-point failures.</t>
-        </is>
-      </c>
-      <c r="F597" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
+          <t>Use Geo-redundant storage account to persist Azure Cache for Redis data, or zonally redundant where geo-redundancy is not available</t>
+        </is>
+      </c>
+      <c r="E597" s="18" t="n"/>
+      <c r="F597" s="18" t="n"/>
       <c r="G597" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31630,7 +31618,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>b31e38c3-f298-412b-8363-cffe179b599d</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -31642,7 +31630,7 @@
     <row r="598">
       <c r="A598" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B598" s="18" t="inlineStr">
@@ -31652,24 +31640,16 @@
       </c>
       <c r="C598" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Do not use the Temp disk for anything that is not acceptable to be lost</t>
-        </is>
-      </c>
-      <c r="E598" s="18" t="inlineStr">
-        <is>
-          <t>Temporary disks are intended for short-term storage of non-persistent data such as page files, swap files, or SQL Server tempdb. Storing persistent data on temporary disks can lead to data loss during maintenance events or VM redeployment.</t>
-        </is>
-      </c>
-      <c r="F598" s="18" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
+          <t>Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
+        </is>
+      </c>
+      <c r="E598" s="18" t="n"/>
+      <c r="F598" s="18" t="n"/>
       <c r="G598" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -31685,7 +31665,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4ce-432c-8881-37f6f7c4c0d4</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -31707,22 +31687,22 @@
       </c>
       <c r="C599" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported</t>
+          <t>Enable automatic instance repairs for enhanced VM Scale Sets resiliency</t>
         </is>
       </c>
       <c r="E599" s="18" t="inlineStr">
         <is>
-          <t>Co-locate your compute, storage, networking, and data resources across an availability zone, and replicate this arrangement in other availability zones.</t>
+          <t>Automatic instance repairs ensure that unhealthy instances are promptly identified and replaced, maintaining a set of healthy instances within your scale set.</t>
         </is>
       </c>
       <c r="F599" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G599" t="inlineStr">
@@ -31740,7 +31720,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>e514548d-2447-4ec6-9138-b8200f1ce16e</t>
+          <t>7e13c105-675c-41e9-95b4-59837ff7ae7c</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -31767,17 +31747,17 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>For regions that do not support Availability Zones deploy VMs into Availability Sets</t>
+          <t>Consider Azure Backup to meet your resiliency requirements for Azure VMs</t>
         </is>
       </c>
       <c r="E600" s="18" t="inlineStr">
         <is>
-          <t>Use at least two VMs in Availability Sets to isolate VMs on different fault and update domains.</t>
+          <t>Ensure that Azure Backup is utilized appropriately to meet your organization's resiliency requirements for Azure virtual machines (VMs).</t>
         </is>
       </c>
       <c r="F600" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -31795,7 +31775,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>5a785d6f-e96c-496a-b884-4cf3b2b38c88</t>
+          <t>4d874a74-8b66-42d6-b150-512a66498f6d</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -31822,12 +31802,12 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM</t>
+          <t>Use Premium or Ultra disks for production VMs</t>
         </is>
       </c>
       <c r="E601" s="18" t="inlineStr">
         <is>
-          <t>Azure provides multiple options for VM redundancy to meet different requirements (Availability Zones, Virtual Machine Scale Sets, Availability Sets, Azure Site Recovery)</t>
+          <t>Single Instance VMs using Premium SSD or Ultra Disk for all Operating System Disks and Data Disks are guaranteed to have Virtual Machine Connectivity of at least 99.9%</t>
         </is>
       </c>
       <c r="F601" s="18" t="inlineStr">
@@ -31850,7 +31830,7 @@
       <c r="K601" s="19" t="n"/>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>6ba2c021-4991-414a-9d3c-e574dccbd979</t>
+          <t>8052d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -31877,12 +31857,12 @@
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>For Azure and on-premises VMs (Hyper-V/Phyiscal/VMware) with low RTO requirements use Azure Site Recovery</t>
+          <t>Ensure Managed Disks are used for all VMs</t>
         </is>
       </c>
       <c r="E602" s="18" t="inlineStr">
         <is>
-          <t>Azure Site Recovery enables you to achieve low RTO (Recovery Time Objective) for your Azure and hybrid VMs by providing continuous replication and failover capabilities.</t>
+          <t>Azure automatically replicates managed disks within a region to ensure data durability and protect against single-point failures.</t>
         </is>
       </c>
       <c r="F602" s="18" t="inlineStr">
@@ -31905,7 +31885,7 @@
       <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>2a6bcca2-b5fe-4a1e-af3d-d95d48c7c891</t>
+          <t>b31e38c3-f298-412b-8363-cffe179b599d</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -31932,17 +31912,17 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>Use Capacity Reservations for critical workloads that require guaranteed capacity</t>
+          <t>Do not use the Temp disk for anything that is not acceptable to be lost</t>
         </is>
       </c>
       <c r="E603" s="18" t="inlineStr">
         <is>
-          <t>By using Capacity Reservations, you can effectively manage capacity for critical workloads, ensuring resource availability in specified regions.</t>
+          <t>Temporary disks are intended for short-term storage of non-persistent data such as page files, swap files, or SQL Server tempdb. Storing persistent data on temporary disks can lead to data loss during maintenance events or VM redeployment.</t>
         </is>
       </c>
       <c r="F603" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -31960,7 +31940,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>bd7bb012-f7b9-45e0-9e15-8e3ea3992c2d</t>
+          <t>e0d5973c-d4ce-432c-8881-37f6f7c4c0d4</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -31987,12 +31967,12 @@
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Increase quotas in DR region before testing failover with ASR</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported</t>
         </is>
       </c>
       <c r="E604" s="18" t="inlineStr">
         <is>
-          <t>By ensuring that the necessary quotas are increased in your DR region before testing failover with ASR, you can avoid any potential resource constraints during the recovery process for failed over VMs.</t>
+          <t>Co-locate your compute, storage, networking, and data resources across an availability zone, and replicate this arrangement in other availability zones.</t>
         </is>
       </c>
       <c r="F604" s="18" t="inlineStr">
@@ -32015,7 +31995,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>e6e2065b-3a76-4af4-a691-e8939ada4666</t>
+          <t>e514548d-2447-4ec6-9138-b8200f1ce16e</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -32042,17 +32022,17 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Utilize Scheduled Events to prepare for VM maintenance</t>
+          <t>For regions that do not support Availability Zones deploy VMs into Availability Sets</t>
         </is>
       </c>
       <c r="E605" s="18" t="inlineStr">
         <is>
-          <t>Scheduled Events is an Azure Metadata Service that provides information about upcoming maintenance events for virtual machines (VMs). By leveraging Scheduled Events, you can proactively prepare your applications for VM maintenance, minimizing disruption and improving the availability of your VMs.</t>
+          <t>Use at least two VMs in Availability Sets to isolate VMs on different fault and update domains.</t>
         </is>
       </c>
       <c r="F605" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -32070,7 +32050,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>6d3b475a-5c7a-4cbe-99bb-e64dd8902e87</t>
+          <t>5a785d6f-e96c-496a-b884-4cf3b2b38c88</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -32092,22 +32072,22 @@
       </c>
       <c r="C606" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Choose the most appropriate data redundancy option for Azure Storage based on your requirements</t>
+          <t>Avoid running a production workload on a single VM</t>
         </is>
       </c>
       <c r="E606" s="18" t="inlineStr">
         <is>
-          <t>Use Zone-redundant Storage (ZRS) in the primary region for scenarios that require high availability and for restricting replication to a particular country or region. For protection against regional disasters, use Geo-zone-redundant Storage (GZRS), which combines ZRS in the primary region with geo-replication to a secondary region?.</t>
+          <t>Azure provides multiple options for VM redundancy to meet different requirements (Availability Zones, Virtual Machine Scale Sets, Availability Sets, Azure Site Recovery)</t>
         </is>
       </c>
       <c r="F606" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
@@ -32125,7 +32105,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>48c7c891-dcb1-4f7d-9769-ae568ba38d4a</t>
+          <t>6ba2c021-4991-414a-9d3c-e574dccbd979</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -32147,22 +32127,22 @@
       </c>
       <c r="C607" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Apply a Delete lock to prevent accidental or malicious deletion of storage accounts</t>
+          <t>For Azure and on-premises VMs (Hyper-V/Phyiscal/VMware) with low RTO requirements use Azure Site Recovery</t>
         </is>
       </c>
       <c r="E607" s="18" t="inlineStr">
         <is>
-          <t>Assigning a Delete lock to your storage account helps protect the availability of your data, minimizing the risk of disruptions to your business operations.</t>
+          <t>Azure Site Recovery enables you to achieve low RTO (Recovery Time Objective) for your Azure and hybrid VMs by providing continuous replication and failover capabilities.</t>
         </is>
       </c>
       <c r="F607" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -32180,7 +32160,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>85e2213d-bd7b-4b01-8f7b-95e06e158e3e</t>
+          <t>2a6bcca2-b5fe-4a1e-af3d-d95d48c7c891</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -32202,17 +32182,17 @@
       </c>
       <c r="C608" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>Enable soft delete for Storage Account Containers</t>
+          <t>Use Capacity Reservations for critical workloads that require guaranteed capacity</t>
         </is>
       </c>
       <c r="E608" s="18" t="inlineStr">
         <is>
-          <t>Container soft delete protects your data from being accidentally deleted by maintaining the deleted data in the system for a specified period of time.</t>
+          <t>By using Capacity Reservations, you can effectively manage capacity for critical workloads, ensuring resource availability in specified regions.</t>
         </is>
       </c>
       <c r="F608" s="18" t="inlineStr">
@@ -32235,7 +32215,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>a3992c2d-e6e2-4065-a3a7-6af4a691e893</t>
+          <t>bd7bb012-f7b9-45e0-9e15-8e3ea3992c2d</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -32257,22 +32237,22 @@
       </c>
       <c r="C609" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Enable soft delete for blobs</t>
+          <t>Increase quotas in DR region before testing failover with ASR</t>
         </is>
       </c>
       <c r="E609" s="18" t="inlineStr">
         <is>
-          <t>Blob soft delete protects an individual blob and its versions, snapshots, and metadata from accidental deletes or overwrites by maintaining the deleted data in the system for a specified period of time.</t>
+          <t>By ensuring that the necessary quotas are increased in your DR region before testing failover with ASR, you can avoid any potential resource constraints during the recovery process for failed over VMs.</t>
         </is>
       </c>
       <c r="F609" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -32290,7 +32270,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>9ada4666-7e13-4c10-96b9-153d89f89dc7</t>
+          <t>e6e2065b-3a76-4af4-a691-e8939ada4666</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32312,22 +32292,22 @@
       </c>
       <c r="C610" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>Enable Azure Backup enhanced soft delete for improved data protection and recovery</t>
+          <t>Utilize Scheduled Events to prepare for VM maintenance</t>
         </is>
       </c>
       <c r="E610" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup enhanced soft delete provides critical protection against ransomware attacks by retaining deleted backups, enabling recovery from potential ransomware encryption or deletion.</t>
+          <t>Scheduled Events is an Azure Metadata Service that provides information about upcoming maintenance events for virtual machines (VMs). By leveraging Scheduled Events, you can proactively prepare your applications for VM maintenance, minimizing disruption and improving the availability of your VMs.</t>
         </is>
       </c>
       <c r="F610" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
@@ -32345,7 +32325,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>b44be3b1-a27f-48b9-b91b-e1038df03a82</t>
+          <t>6d3b475a-5c7a-4cbe-99bb-e64dd8902e87</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32367,22 +32347,22 @@
       </c>
       <c r="C611" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>Implement multi-user authorization for Azure Backup to ensure secure and controlled access to backup resources</t>
+          <t>Choose the most appropriate data redundancy option for Azure Storage based on your requirements</t>
         </is>
       </c>
       <c r="E611" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup's multi-user authorization enables fine-grained control over user access to backup resources, allowing you to restrict privileges and ensure proper authentication and authorization for backup operations.</t>
+          <t>Use Zone-redundant Storage (ZRS) in the primary region for scenarios that require high availability and for restricting replication to a particular country or region. For protection against regional disasters, use Geo-zone-redundant Storage (GZRS), which combines ZRS in the primary region with geo-replication to a secondary region?.</t>
         </is>
       </c>
       <c r="F611" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -32400,7 +32380,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>2cd463cb-bbc8-4ac2-a9eb-c92a43da1dae</t>
+          <t>48c7c891-dcb1-4f7d-9769-ae568ba38d4a</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32422,17 +32402,17 @@
       </c>
       <c r="C612" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Implement Immutable Storage for your vaults to protect against ransomware and prevent unauthorized modifications to backups</t>
+          <t>Apply a Delete lock to prevent accidental or malicious deletion of storage accounts</t>
         </is>
       </c>
       <c r="E612" s="18" t="inlineStr">
         <is>
-          <t>Azure Immutable Storage provides an additional layer of security by ensuring that backup data stored in the vault cannot be modified or deleted for a specified retention period. This helps safeguard your backups from ransomware attacks that may attempt to compromise or manipulate your backup data.</t>
+          <t>Assigning a Delete lock to your storage account helps protect the availability of your data, minimizing the risk of disruptions to your business operations.</t>
         </is>
       </c>
       <c r="F612" s="18" t="inlineStr">
@@ -32455,7 +32435,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>2cc88147-0607-4c1c-aa0e-614658dd458e</t>
+          <t>85e2213d-bd7b-4b01-8f7b-95e06e158e3e</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32477,17 +32457,17 @@
       </c>
       <c r="C613" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Implement DNS Failover using Azure DNS Private Resolvers</t>
+          <t>Enable soft delete for Storage Account Containers</t>
         </is>
       </c>
       <c r="E613" s="18" t="inlineStr">
         <is>
-          <t>To eliminate a single point of failure in your on-premises DNS services and ensure reliable DNS resolution during business continuity and disaster recovery scenarios, it is recommended to utilize Azure DNS Private Resolvers in multiple regions. By deploying two or more Azure DNS private resolvers across different regions, you can enable DNS failover and achieve resiliency in your DNS infrastructure.</t>
+          <t>Container soft delete protects your data from being accidentally deleted by maintaining the deleted data in the system for a specified period of time.</t>
         </is>
       </c>
       <c r="F613" s="18" t="inlineStr">
@@ -32510,7 +32490,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>43da1dae-2cc8-4814-9060-7c1cca0e6146</t>
+          <t>a3992c2d-e6e2-4065-a3a7-6af4a691e893</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32532,22 +32512,22 @@
       </c>
       <c r="C614" s="18" t="inlineStr">
         <is>
-          <t>Data Gateways</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
+          <t>Enable soft delete for blobs</t>
         </is>
       </c>
       <c r="E614" s="18" t="inlineStr">
         <is>
-          <t>Use an on-premises data gateway cluster to avoid single points of failure and to load balance traffic across gateways.</t>
+          <t>Blob soft delete protects an individual blob and its versions, snapshots, and metadata from accidental deletes or overwrites by maintaining the deleted data in the system for a specified period of time.</t>
         </is>
       </c>
       <c r="F614" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
@@ -32565,7 +32545,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>89f89dc7-b44b-4e3b-8a27-f8b9e91be103</t>
+          <t>9ada4666-7e13-4c10-96b9-153d89f89dc7</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -32587,22 +32567,22 @@
       </c>
       <c r="C615" s="18" t="inlineStr">
         <is>
-          <t>Network Virtual Appliances</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>Deploy Network Virtual Appliances (NVAs) in a vendor supported configuration for High Availability</t>
+          <t>Enable Azure Backup enhanced soft delete for improved data protection and recovery</t>
         </is>
       </c>
       <c r="E615" s="18" t="inlineStr">
         <is>
-          <t>When choosing the best option for deploying NVAs in Azure, it is crucial to consider the vendor's recommendations and validate that the specific design has been vetted and validated by the NVA vendor. The vendor should also provide the necessary NVA configuration for seamless integration in Azure.</t>
+          <t>Azure Backup enhanced soft delete provides critical protection against ransomware attacks by retaining deleted backups, enabling recovery from potential ransomware encryption or deletion.</t>
         </is>
       </c>
       <c r="F615" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
@@ -32620,7 +32600,7 @@
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>8b1188b3-c6a4-46ce-a544-451e192d3442</t>
+          <t>b44be3b1-a27f-48b9-b91b-e1038df03a82</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -32630,17 +32610,54 @@
       <c r="Q615" s="20" t="n"/>
     </row>
     <row r="616">
-      <c r="A616" s="18" t="n"/>
-      <c r="B616" s="18" t="n"/>
-      <c r="C616" s="18" t="n"/>
-      <c r="D616" s="18" t="n"/>
-      <c r="E616" s="18" t="n"/>
-      <c r="F616" s="18" t="n"/>
+      <c r="A616" s="18" t="inlineStr">
+        <is>
+          <t>Resiliency Review</t>
+        </is>
+      </c>
+      <c r="B616" s="18" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C616" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup</t>
+        </is>
+      </c>
+      <c r="D616" s="18" t="inlineStr">
+        <is>
+          <t>Implement multi-user authorization for Azure Backup to ensure secure and controlled access to backup resources</t>
+        </is>
+      </c>
+      <c r="E616" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup's multi-user authorization enables fine-grained control over user access to backup resources, allowing you to restrict privileges and ensure proper authentication and authorization for backup operations.</t>
+        </is>
+      </c>
+      <c r="F616" s="18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H616" s="18" t="n"/>
-      <c r="I616" s="13" t="n"/>
+      <c r="I616" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J616" s="13" t="n"/>
       <c r="K616" s="19" t="n"/>
-      <c r="L616" s="19" t="n"/>
+      <c r="L616" s="19" t="inlineStr">
+        <is>
+          <t>2cd463cb-bbc8-4ac2-a9eb-c92a43da1dae</t>
+        </is>
+      </c>
       <c r="M616" s="20" t="n"/>
       <c r="N616" s="20" t="n"/>
       <c r="O616" s="20" t="n"/>
@@ -32648,17 +32665,54 @@
       <c r="Q616" s="20" t="n"/>
     </row>
     <row r="617">
-      <c r="A617" s="18" t="n"/>
-      <c r="B617" s="18" t="n"/>
-      <c r="C617" s="18" t="n"/>
-      <c r="D617" s="18" t="n"/>
-      <c r="E617" s="18" t="n"/>
-      <c r="F617" s="18" t="n"/>
+      <c r="A617" s="18" t="inlineStr">
+        <is>
+          <t>Resiliency Review</t>
+        </is>
+      </c>
+      <c r="B617" s="18" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C617" s="18" t="inlineStr">
+        <is>
+          <t>Azure Backup</t>
+        </is>
+      </c>
+      <c r="D617" s="18" t="inlineStr">
+        <is>
+          <t>Implement Immutable Storage for your vaults to protect against ransomware and prevent unauthorized modifications to backups</t>
+        </is>
+      </c>
+      <c r="E617" s="18" t="inlineStr">
+        <is>
+          <t>Azure Immutable Storage provides an additional layer of security by ensuring that backup data stored in the vault cannot be modified or deleted for a specified retention period. This helps safeguard your backups from ransomware attacks that may attempt to compromise or manipulate your backup data.</t>
+        </is>
+      </c>
+      <c r="F617" s="18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H617" s="18" t="n"/>
-      <c r="I617" s="13" t="n"/>
+      <c r="I617" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J617" s="13" t="n"/>
       <c r="K617" s="19" t="n"/>
-      <c r="L617" s="19" t="n"/>
+      <c r="L617" s="19" t="inlineStr">
+        <is>
+          <t>2cc88147-0607-4c1c-aa0e-614658dd458e</t>
+        </is>
+      </c>
       <c r="M617" s="20" t="n"/>
       <c r="N617" s="20" t="n"/>
       <c r="O617" s="20" t="n"/>
@@ -32666,17 +32720,54 @@
       <c r="Q617" s="20" t="n"/>
     </row>
     <row r="618">
-      <c r="A618" s="18" t="n"/>
-      <c r="B618" s="18" t="n"/>
-      <c r="C618" s="18" t="n"/>
-      <c r="D618" s="18" t="n"/>
-      <c r="E618" s="18" t="n"/>
-      <c r="F618" s="18" t="n"/>
+      <c r="A618" s="18" t="inlineStr">
+        <is>
+          <t>Resiliency Review</t>
+        </is>
+      </c>
+      <c r="B618" s="18" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C618" s="18" t="inlineStr">
+        <is>
+          <t>DNS</t>
+        </is>
+      </c>
+      <c r="D618" s="18" t="inlineStr">
+        <is>
+          <t>Implement DNS Failover using Azure DNS Private Resolvers</t>
+        </is>
+      </c>
+      <c r="E618" s="18" t="inlineStr">
+        <is>
+          <t>To eliminate a single point of failure in your on-premises DNS services and ensure reliable DNS resolution during business continuity and disaster recovery scenarios, it is recommended to utilize Azure DNS Private Resolvers in multiple regions. By deploying two or more Azure DNS private resolvers across different regions, you can enable DNS failover and achieve resiliency in your DNS infrastructure.</t>
+        </is>
+      </c>
+      <c r="F618" s="18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H618" s="18" t="n"/>
-      <c r="I618" s="13" t="n"/>
+      <c r="I618" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J618" s="13" t="n"/>
       <c r="K618" s="19" t="n"/>
-      <c r="L618" s="19" t="n"/>
+      <c r="L618" s="19" t="inlineStr">
+        <is>
+          <t>43da1dae-2cc8-4814-9060-7c1cca0e6146</t>
+        </is>
+      </c>
       <c r="M618" s="20" t="n"/>
       <c r="N618" s="20" t="n"/>
       <c r="O618" s="20" t="n"/>
@@ -32684,17 +32775,54 @@
       <c r="Q618" s="20" t="n"/>
     </row>
     <row r="619">
-      <c r="A619" s="18" t="n"/>
-      <c r="B619" s="18" t="n"/>
-      <c r="C619" s="18" t="n"/>
-      <c r="D619" s="18" t="n"/>
-      <c r="E619" s="18" t="n"/>
-      <c r="F619" s="18" t="n"/>
+      <c r="A619" s="18" t="inlineStr">
+        <is>
+          <t>Resiliency Review</t>
+        </is>
+      </c>
+      <c r="B619" s="18" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C619" s="18" t="inlineStr">
+        <is>
+          <t>Data Gateways</t>
+        </is>
+      </c>
+      <c r="D619" s="18" t="inlineStr">
+        <is>
+          <t>Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
+        </is>
+      </c>
+      <c r="E619" s="18" t="inlineStr">
+        <is>
+          <t>Use an on-premises data gateway cluster to avoid single points of failure and to load balance traffic across gateways.</t>
+        </is>
+      </c>
+      <c r="F619" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H619" s="18" t="n"/>
-      <c r="I619" s="13" t="n"/>
+      <c r="I619" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J619" s="13" t="n"/>
       <c r="K619" s="19" t="n"/>
-      <c r="L619" s="19" t="n"/>
+      <c r="L619" s="19" t="inlineStr">
+        <is>
+          <t>89f89dc7-b44b-4e3b-8a27-f8b9e91be103</t>
+        </is>
+      </c>
       <c r="M619" s="20" t="n"/>
       <c r="N619" s="20" t="n"/>
       <c r="O619" s="20" t="n"/>
@@ -32702,17 +32830,54 @@
       <c r="Q619" s="20" t="n"/>
     </row>
     <row r="620">
-      <c r="A620" s="18" t="n"/>
-      <c r="B620" s="18" t="n"/>
-      <c r="C620" s="18" t="n"/>
-      <c r="D620" s="18" t="n"/>
-      <c r="E620" s="18" t="n"/>
-      <c r="F620" s="18" t="n"/>
+      <c r="A620" s="18" t="inlineStr">
+        <is>
+          <t>Resiliency Review</t>
+        </is>
+      </c>
+      <c r="B620" s="18" t="inlineStr">
+        <is>
+          <t>Reliability</t>
+        </is>
+      </c>
+      <c r="C620" s="18" t="inlineStr">
+        <is>
+          <t>Network Virtual Appliances</t>
+        </is>
+      </c>
+      <c r="D620" s="18" t="inlineStr">
+        <is>
+          <t>Deploy Network Virtual Appliances (NVAs) in a vendor supported configuration for High Availability</t>
+        </is>
+      </c>
+      <c r="E620" s="18" t="inlineStr">
+        <is>
+          <t>When choosing the best option for deploying NVAs in Azure, it is crucial to consider the vendor's recommendations and validate that the specific design has been vetted and validated by the NVA vendor. The vendor should also provide the necessary NVA configuration for seamless integration in Azure.</t>
+        </is>
+      </c>
+      <c r="F620" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H620" s="18" t="n"/>
-      <c r="I620" s="13" t="n"/>
+      <c r="I620" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J620" s="13" t="n"/>
       <c r="K620" s="19" t="n"/>
-      <c r="L620" s="19" t="n"/>
+      <c r="L620" s="19" t="inlineStr">
+        <is>
+          <t>8b1188b3-c6a4-46ce-a544-451e192d3442</t>
+        </is>
+      </c>
       <c r="M620" s="20" t="n"/>
       <c r="N620" s="20" t="n"/>
       <c r="O620" s="20" t="n"/>
@@ -43394,7 +43559,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G616" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G621" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -43874,17 +44039,17 @@
     <hyperlink ref="I578" r:id="rId473"/>
     <hyperlink ref="I579" r:id="rId474"/>
     <hyperlink ref="I580" r:id="rId475"/>
-    <hyperlink ref="I582" r:id="rId476"/>
-    <hyperlink ref="I583" r:id="rId477"/>
-    <hyperlink ref="I584" r:id="rId478"/>
-    <hyperlink ref="I585" r:id="rId479"/>
-    <hyperlink ref="I586" r:id="rId480"/>
+    <hyperlink ref="I581" r:id="rId476"/>
+    <hyperlink ref="I582" r:id="rId477"/>
+    <hyperlink ref="I583" r:id="rId478"/>
+    <hyperlink ref="I584" r:id="rId479"/>
+    <hyperlink ref="I585" r:id="rId480"/>
     <hyperlink ref="I587" r:id="rId481"/>
-    <hyperlink ref="I590" r:id="rId482"/>
-    <hyperlink ref="I591" r:id="rId483"/>
-    <hyperlink ref="I592" r:id="rId484"/>
-    <hyperlink ref="I593" r:id="rId485"/>
-    <hyperlink ref="I594" r:id="rId486"/>
+    <hyperlink ref="I588" r:id="rId482"/>
+    <hyperlink ref="I589" r:id="rId483"/>
+    <hyperlink ref="I590" r:id="rId484"/>
+    <hyperlink ref="I591" r:id="rId485"/>
+    <hyperlink ref="I592" r:id="rId486"/>
     <hyperlink ref="I595" r:id="rId487"/>
     <hyperlink ref="I596" r:id="rId488"/>
     <hyperlink ref="I597" r:id="rId489"/>
@@ -43906,6 +44071,11 @@
     <hyperlink ref="I613" r:id="rId505"/>
     <hyperlink ref="I614" r:id="rId506"/>
     <hyperlink ref="I615" r:id="rId507"/>
+    <hyperlink ref="I616" r:id="rId508"/>
+    <hyperlink ref="I617" r:id="rId509"/>
+    <hyperlink ref="I618" r:id="rId510"/>
+    <hyperlink ref="I619" r:id="rId511"/>
+    <hyperlink ref="I620" r:id="rId512"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -22875,7 +22875,7 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Azure-AD-only group if a group management system is already in place.</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Entra ID only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22930,7 +22930,7 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>If Entra Domain Services in use, evaluate the compatibility of all workloads</t>
+          <t>If planning to switch from Active Directory Domain Serivces to Entra domain services, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
@@ -28299,7 +28299,7 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the 'append' policy mode to enforce usage via Azure Policy.</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
@@ -28323,7 +28323,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -28350,7 +28350,7 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
@@ -28374,7 +28374,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the intermediate root management group so that they can be assigned at inherited scopes</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
         </is>
       </c>
       <c r="E522" s="18" t="n"/>
@@ -28425,7 +28425,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -28452,13 +28452,13 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required.</t>
+          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
       <c r="F523" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -28476,7 +28476,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -28503,13 +28503,13 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control which services users can provision at the subscription/management group level</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
       <c r="F524" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -28527,7 +28527,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -28554,10 +28554,14 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
-        </is>
-      </c>
-      <c r="E525" s="18" t="n"/>
+          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
+      <c r="E525" s="18" t="inlineStr">
+        <is>
+          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
+        </is>
+      </c>
       <c r="F525" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -28578,7 +28582,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -28605,14 +28609,10 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Assign the built-in Resource Policy Contributor role at a particular scope to enable application-level governance.</t>
-        </is>
-      </c>
-      <c r="E526" s="18" t="inlineStr">
-        <is>
-          <t>Assigning the Resource Policy Contributor role to specific scopes allows you to delegate policy management to relevant teams. For instance, a central IT team may oversee management group-level policies, while application teams handle policies for their subscriptions, enabling distributed governance with adherence to organizational standards.</t>
-        </is>
-      </c>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
+      <c r="E526" s="18" t="n"/>
       <c r="F526" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -28633,7 +28633,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -28660,7 +28660,7 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
@@ -28680,11 +28680,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J527" s="13" t="n"/>
+      <c r="J527" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+        </is>
+      </c>
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -28711,7 +28715,7 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>If any data sovereignty requirements exist, Azure Policies can be deployed to enforce them</t>
+          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
@@ -28731,15 +28735,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J528" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+      <c r="J528" s="13" t="n"/>
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -28766,7 +28766,7 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereignty policy baseline' policy initiative is deployed and and assigned at correct MG level.</t>
+          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
         </is>
       </c>
       <c r="E529" s="18" t="n"/>
@@ -28790,7 +28790,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, sovereign Control objectives to policy mapping' is documented.</t>
+          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
         </is>
       </c>
       <c r="E530" s="18" t="n"/>
@@ -28832,16 +28832,12 @@
         </is>
       </c>
       <c r="H530" s="18" t="n"/>
-      <c r="I530" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I530" s="13" t="n"/>
       <c r="J530" s="13" t="n"/>
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -28858,23 +28854,23 @@
       </c>
       <c r="B531" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C531" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, process is in place for CRUD of 'Sovereign Control objectives to policy mapping'.</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -28883,12 +28879,16 @@
         </is>
       </c>
       <c r="H531" s="18" t="n"/>
-      <c r="I531" s="13" t="n"/>
+      <c r="I531" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J531" s="13" t="n"/>
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28905,23 +28905,23 @@
       </c>
       <c r="B532" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C532" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Consider using automation tags to start/stop VM's in your environment to save on cost.</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="E532" s="18" t="n"/>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28939,7 +28939,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28961,12 +28961,12 @@
       </c>
       <c r="C533" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>Leverage Azure Virtual Machine Scale sets to scale in and out based on the load.</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="E533" s="18" t="n"/>
@@ -28990,7 +28990,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -29012,18 +29012,18 @@
       </c>
       <c r="C534" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="E534" s="18" t="n"/>
       <c r="F534" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -29037,11 +29037,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J534" s="13" t="n"/>
+      <c r="J534" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -29063,12 +29067,12 @@
       </c>
       <c r="C535" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>Export logs to Azure Storage if your log retention requirements exceed twelve years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="E535" s="18" t="n"/>
@@ -29088,11 +29092,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J535" s="13" t="n"/>
+      <c r="J535" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -29109,17 +29117,17 @@
       </c>
       <c r="B536" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C536" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Monitor OS level virtual machine (VM) configuration drift using Azure Policy. Enabling Azure Automanage Machine Configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="E536" s="18" t="n"/>
@@ -29139,11 +29147,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J536" s="13" t="n"/>
+      <c r="J536" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -29165,12 +29177,12 @@
       </c>
       <c r="C537" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in Azure.</t>
         </is>
       </c>
       <c r="E537" s="18" t="n"/>
@@ -29192,13 +29204,13 @@
       </c>
       <c r="J537" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -29220,12 +29232,12 @@
       </c>
       <c r="C538" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs when log retention requirements exceed two years. You can currently keep data in archived state for up to 7 years.</t>
+          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc.</t>
         </is>
       </c>
       <c r="E538" s="18" t="n"/>
@@ -29247,13 +29259,13 @@
       </c>
       <c r="J538" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -29275,12 +29287,12 @@
       </c>
       <c r="C539" s="18" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="E539" s="18" t="n"/>
@@ -29302,13 +29314,13 @@
       </c>
       <c r="J539" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -29330,12 +29342,12 @@
       </c>
       <c r="C540" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="E540" s="18" t="n"/>
@@ -29355,15 +29367,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J540" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J540" s="13" t="n"/>
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -29385,12 +29393,12 @@
       </c>
       <c r="C541" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in Azure.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="E541" s="18" t="n"/>
@@ -29410,15 +29418,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J541" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J541" s="13" t="n"/>
       <c r="K541" s="19" t="n"/>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -29440,12 +29444,12 @@
       </c>
       <c r="C542" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc.</t>
+          <t>When using Change and Inventory Tracking via Azure Automation Accounts, ensure that you have selected supported regions for linking your Log Analytics workspace and automation accounts together.</t>
         </is>
       </c>
       <c r="E542" s="18" t="n"/>
@@ -29465,15 +29469,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J542" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J542" s="13" t="n"/>
       <c r="K542" s="19" t="n"/>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -29490,17 +29490,17 @@
       </c>
       <c r="B543" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C543" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="E543" s="18" t="n"/>
@@ -29520,15 +29520,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J543" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J543" s="13" t="n"/>
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -29545,20 +29541,24 @@
       </c>
       <c r="B544" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C544" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
-        </is>
-      </c>
-      <c r="E544" s="18" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="E544" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="F544" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -29579,7 +29579,7 @@
       <c r="K544" s="19" t="n"/>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -29601,12 +29601,12 @@
       </c>
       <c r="C545" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="E545" s="18" t="n"/>
@@ -29630,7 +29630,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -29652,12 +29652,12 @@
       </c>
       <c r="C546" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D546" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
         </is>
       </c>
       <c r="E546" s="18" t="n"/>
@@ -29681,7 +29681,7 @@
       <c r="K546" s="19" t="n"/>
       <c r="L546" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M546" s="20" t="n"/>
@@ -29698,23 +29698,23 @@
       </c>
       <c r="B547" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C547" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>When using Change and Inventory Tracking via Azure Automation Accounts, ensure that you have selected supported regions for linking your Log Analytics workspace and automation accounts together.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="E547" s="18" t="n"/>
       <c r="F547" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G547" t="inlineStr">
@@ -29732,7 +29732,7 @@
       <c r="K547" s="19" t="n"/>
       <c r="L547" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M547" s="20" t="n"/>
@@ -29749,7 +29749,7 @@
       </c>
       <c r="B548" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C548" s="18" t="inlineStr">
@@ -29759,13 +29759,13 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="E548" s="18" t="n"/>
       <c r="F548" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G548" t="inlineStr">
@@ -29783,7 +29783,7 @@
       <c r="K548" s="19" t="n"/>
       <c r="L548" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M548" s="20" t="n"/>
@@ -29800,7 +29800,7 @@
       </c>
       <c r="B549" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C549" s="18" t="inlineStr">
@@ -29810,14 +29810,10 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="E549" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+        </is>
+      </c>
+      <c r="E549" s="18" t="n"/>
       <c r="F549" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -29838,7 +29834,7 @@
       <c r="K549" s="19" t="n"/>
       <c r="L549" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M549" s="20" t="n"/>
@@ -29855,23 +29851,23 @@
       </c>
       <c r="B550" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C550" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="E550" s="18" t="n"/>
       <c r="F550" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G550" t="inlineStr">
@@ -29889,7 +29885,7 @@
       <c r="K550" s="19" t="n"/>
       <c r="L550" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M550" s="20" t="n"/>
@@ -29906,17 +29902,17 @@
       </c>
       <c r="B551" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C551" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="E551" s="18" t="n"/>
@@ -29937,10 +29933,14 @@
         </is>
       </c>
       <c r="J551" s="13" t="n"/>
-      <c r="K551" s="19" t="n"/>
+      <c r="K551" s="19" t="inlineStr">
+        <is>
+          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
+        </is>
+      </c>
       <c r="L551" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M551" s="20" t="n"/>
@@ -29957,23 +29957,23 @@
       </c>
       <c r="B552" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C552" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D552" s="18" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="E552" s="18" t="n"/>
       <c r="F552" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G552" t="inlineStr">
@@ -29991,7 +29991,7 @@
       <c r="K552" s="19" t="n"/>
       <c r="L552" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M552" s="20" t="n"/>
@@ -30008,23 +30008,23 @@
       </c>
       <c r="B553" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C553" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
         </is>
       </c>
       <c r="E553" s="18" t="n"/>
       <c r="F553" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -30042,7 +30042,7 @@
       <c r="K553" s="19" t="n"/>
       <c r="L553" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M553" s="20" t="n"/>
@@ -30059,17 +30059,17 @@
       </c>
       <c r="B554" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C554" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D554" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="E554" s="18" t="n"/>
@@ -30093,7 +30093,7 @@
       <c r="K554" s="19" t="n"/>
       <c r="L554" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M554" s="20" t="n"/>
@@ -30120,13 +30120,13 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="E555" s="18" t="n"/>
       <c r="F555" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
@@ -30144,7 +30144,7 @@
       <c r="K555" s="19" t="n"/>
       <c r="L555" s="19" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M555" s="20" t="n"/>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="D556" s="18" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="E556" s="18" t="n"/>
@@ -30192,14 +30192,10 @@
         </is>
       </c>
       <c r="J556" s="13" t="n"/>
-      <c r="K556" s="19" t="inlineStr">
-        <is>
-          <t>ResourceContainers | where type=='microsoft.resources/subscriptions'| parse id with '/subscriptions/' SubscriptionID| project subscriptionId, SubscriptionName = name| join kind=leftouter (Resources| where type == 'microsoft.keyvault/vaults'| project id, name, subscriptionId) on subscriptionId| join kind= leftouter (Resources| where type == 'microsoft.keyvault/vaults'| summarize ResourceCount = count() by subscriptionId) on subscriptionId| extend RCount = iff(isnull(ResourceCount), 0, ResourceCount)| project-away ResourceCount| extend compliant = (RCount &lt;&gt; 1)</t>
-        </is>
-      </c>
+      <c r="K556" s="19" t="n"/>
       <c r="L556" s="19" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M556" s="20" t="n"/>
@@ -30226,7 +30222,7 @@
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="E557" s="18" t="n"/>
@@ -30250,7 +30246,7 @@
       <c r="K557" s="19" t="n"/>
       <c r="L557" s="19" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M557" s="20" t="n"/>
@@ -30277,7 +30273,7 @@
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Microsoft Entra ID roles.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="E558" s="18" t="n"/>
@@ -30301,7 +30297,7 @@
       <c r="K558" s="19" t="n"/>
       <c r="L558" s="19" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M558" s="20" t="n"/>
@@ -30328,7 +30324,7 @@
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="E559" s="18" t="n"/>
@@ -30352,7 +30348,7 @@
       <c r="K559" s="19" t="n"/>
       <c r="L559" s="19" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M559" s="20" t="n"/>
@@ -30379,7 +30375,7 @@
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
@@ -30403,7 +30399,7 @@
       <c r="K560" s="19" t="n"/>
       <c r="L560" s="19" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M560" s="20" t="n"/>
@@ -30430,7 +30426,7 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
@@ -30454,7 +30450,7 @@
       <c r="K561" s="19" t="n"/>
       <c r="L561" s="19" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M561" s="20" t="n"/>
@@ -30476,12 +30472,12 @@
       </c>
       <c r="C562" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
@@ -30505,7 +30501,7 @@
       <c r="K562" s="19" t="n"/>
       <c r="L562" s="19" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M562" s="20" t="n"/>
@@ -30527,18 +30523,18 @@
       </c>
       <c r="C563" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
       <c r="F563" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -30556,7 +30552,7 @@
       <c r="K563" s="19" t="n"/>
       <c r="L563" s="19" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M563" s="20" t="n"/>
@@ -30578,18 +30574,18 @@
       </c>
       <c r="C564" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
       <c r="F564" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -30607,7 +30603,7 @@
       <c r="K564" s="19" t="n"/>
       <c r="L564" s="19" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M564" s="20" t="n"/>
@@ -30629,18 +30625,18 @@
       </c>
       <c r="C565" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>Defender</t>
         </is>
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
         </is>
       </c>
       <c r="E565" s="18" t="n"/>
       <c r="F565" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
@@ -30658,7 +30654,7 @@
       <c r="K565" s="19" t="n"/>
       <c r="L565" s="19" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M565" s="20" t="n"/>
@@ -30680,18 +30676,18 @@
       </c>
       <c r="C566" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, use Azure Key Vault managed HSM to store your secrets and credentials.</t>
+          <t>Enable Endpoint Protection on IaaS Servers.</t>
         </is>
       </c>
       <c r="E566" s="18" t="n"/>
       <c r="F566" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
@@ -30709,7 +30705,7 @@
       <c r="K566" s="19" t="n"/>
       <c r="L566" s="19" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M566" s="20" t="n"/>
@@ -30731,12 +30727,12 @@
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>Use Microsoft Entra ID reporting capabilities to generate access control audit reports.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="E567" s="18" t="n"/>
@@ -30760,7 +30756,7 @@
       <c r="K567" s="19" t="n"/>
       <c r="L567" s="19" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M567" s="20" t="n"/>
@@ -30782,18 +30778,18 @@
       </c>
       <c r="C568" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D568" s="18" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Security Posture Management for all subscriptions.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="E568" s="18" t="n"/>
       <c r="F568" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
@@ -30811,7 +30807,7 @@
       <c r="K568" s="19" t="n"/>
       <c r="L568" s="19" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M568" s="20" t="n"/>
@@ -30833,18 +30829,18 @@
       </c>
       <c r="C569" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>Enable a Defender Cloud Workload Protection Plan for Servers on all subscriptions.</t>
+          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
       <c r="F569" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -30862,7 +30858,7 @@
       <c r="K569" s="19" t="n"/>
       <c r="L569" s="19" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M569" s="20" t="n"/>
@@ -30884,18 +30880,18 @@
       </c>
       <c r="C570" s="18" t="inlineStr">
         <is>
-          <t>Defender</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>Enable Defender Cloud Workload Protection Plans for Azure Resources on all subscriptions.</t>
+          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
       <c r="F570" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -30913,7 +30909,7 @@
       <c r="K570" s="19" t="n"/>
       <c r="L570" s="19" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M570" s="20" t="n"/>
@@ -30935,12 +30931,12 @@
       </c>
       <c r="C571" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>Enable Endpoint Protection on IaaS Servers.</t>
+          <t>Secure transfer to storage accounts should be enabled</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30964,7 +30960,7 @@
       <c r="K571" s="19" t="n"/>
       <c r="L571" s="19" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M571" s="20" t="n"/>
@@ -30986,18 +30982,18 @@
       </c>
       <c r="C572" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
         </is>
       </c>
       <c r="E572" s="18" t="n"/>
       <c r="F572" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
@@ -31015,7 +31011,7 @@
       <c r="K572" s="19" t="n"/>
       <c r="L572" s="19" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M572" s="20" t="n"/>
@@ -31032,23 +31028,23 @@
       </c>
       <c r="B573" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C573" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
       <c r="F573" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G573" t="inlineStr">
@@ -31066,7 +31062,7 @@
       <c r="K573" s="19" t="n"/>
       <c r="L573" s="19" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M573" s="20" t="n"/>
@@ -31078,7 +31074,7 @@
     <row r="574">
       <c r="A574" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B574" s="18" t="inlineStr">
@@ -31088,18 +31084,18 @@
       </c>
       <c r="C574" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, transparancy logs is enabled on the Entra ID tenant.</t>
+          <t>Ensure ADDS domain controller(s) are deployed in the identity subscription in native Azure</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
       <c r="F574" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G574" t="inlineStr">
@@ -31108,16 +31104,12 @@
         </is>
       </c>
       <c r="H574" s="18" t="n"/>
-      <c r="I574" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I574" s="13" t="n"/>
       <c r="J574" s="13" t="n"/>
       <c r="K574" s="19" t="n"/>
       <c r="L574" s="19" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M574" s="20" t="n"/>
@@ -31129,7 +31121,7 @@
     <row r="575">
       <c r="A575" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B575" s="18" t="inlineStr">
@@ -31139,12 +31131,12 @@
       </c>
       <c r="C575" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>For Sovereign Landing Zone, customer Lockbox is enabled on the Entra ID tenant.</t>
+          <t>Ensure ADDS sites and services is configured to keep authentication requests from Azure-based resources (including Azure VMware Solution) local to Azure</t>
         </is>
       </c>
       <c r="E575" s="18" t="n"/>
@@ -31159,16 +31151,12 @@
         </is>
       </c>
       <c r="H575" s="18" t="n"/>
-      <c r="I575" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I575" s="13" t="n"/>
       <c r="J575" s="13" t="n"/>
       <c r="K575" s="19" t="n"/>
       <c r="L575" s="19" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M575" s="20" t="n"/>
@@ -31180,7 +31168,7 @@
     <row r="576">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B576" s="18" t="inlineStr">
@@ -31190,12 +31178,12 @@
       </c>
       <c r="C576" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>Secure transfer to storage accounts should be enabled</t>
+          <t>Ensure that vCenter is connected to ADDS to enable authentication based on 'named user accounts'</t>
         </is>
       </c>
       <c r="E576" s="18" t="n"/>
@@ -31210,16 +31198,12 @@
         </is>
       </c>
       <c r="H576" s="18" t="n"/>
-      <c r="I576" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I576" s="13" t="n"/>
       <c r="J576" s="13" t="n"/>
       <c r="K576" s="19" t="n"/>
       <c r="L576" s="19" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M576" s="20" t="n"/>
@@ -31231,7 +31215,7 @@
     <row r="577">
       <c r="A577" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B577" s="18" t="inlineStr">
@@ -31241,18 +31225,18 @@
       </c>
       <c r="C577" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>Enable container soft delete for the storage account to recover a deleted container and its contents.</t>
+          <t>Ensure that the connection from vCenter to ADDS is using a secure protocol (LDAPS)</t>
         </is>
       </c>
       <c r="E577" s="18" t="n"/>
       <c r="F577" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G577" t="inlineStr">
@@ -31261,16 +31245,12 @@
         </is>
       </c>
       <c r="H577" s="18" t="n"/>
-      <c r="I577" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I577" s="13" t="n"/>
       <c r="J577" s="13" t="n"/>
       <c r="K577" s="19" t="n"/>
       <c r="L577" s="19" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M577" s="20" t="n"/>
@@ -31282,28 +31262,28 @@
     <row r="578">
       <c r="A578" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B578" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C578" s="18" t="inlineStr">
         <is>
-          <t>Key Vault</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="D578" s="18" t="inlineStr">
         <is>
-          <t>Use Key Vault secrets to avoid hard-coding sensitive information such as credentials (virtual machines user passwords), certificates or keys.</t>
+          <t>CloudAdmin account in vCenter IdP is used only as an emergency account (break-glass)</t>
         </is>
       </c>
       <c r="E578" s="18" t="n"/>
       <c r="F578" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G578" t="inlineStr">
@@ -31312,16 +31292,12 @@
         </is>
       </c>
       <c r="H578" s="18" t="n"/>
-      <c r="I578" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I578" s="13" t="n"/>
       <c r="J578" s="13" t="n"/>
       <c r="K578" s="19" t="n"/>
       <c r="L578" s="19" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M578" s="20" t="n"/>
@@ -31348,7 +31324,7 @@
       </c>
       <c r="D579" s="18" t="inlineStr">
         <is>
-          <t>Ensure ADDS domain controller(s) are deployed in the identity subscription in native Azure</t>
+          <t>Ensure that NSX-Manager is integrated with an external Identity provider (LDAPS)</t>
         </is>
       </c>
       <c r="E579" s="18" t="n"/>
@@ -31368,7 +31344,7 @@
       <c r="K579" s="19" t="n"/>
       <c r="L579" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M579" s="20" t="n"/>
@@ -31395,7 +31371,7 @@
       </c>
       <c r="D580" s="18" t="inlineStr">
         <is>
-          <t>Ensure ADDS sites and services is configured to keep authentication requests from Azure-based resources (including Azure VMware Solution) local to Azure</t>
+          <t>Has an RBAC model been created for use within VMware vSphere</t>
         </is>
       </c>
       <c r="E580" s="18" t="n"/>
@@ -31415,7 +31391,7 @@
       <c r="K580" s="19" t="n"/>
       <c r="L580" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M580" s="20" t="n"/>
@@ -31442,13 +31418,13 @@
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>Ensure that vCenter is connected to ADDS to enable authentication based on 'named user accounts'</t>
+          <t>RBAC permissions should be granted on ADDS groups and not on specific users</t>
         </is>
       </c>
       <c r="E581" s="18" t="n"/>
       <c r="F581" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -31462,7 +31438,7 @@
       <c r="K581" s="19" t="n"/>
       <c r="L581" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M581" s="20" t="n"/>
@@ -31489,13 +31465,13 @@
       </c>
       <c r="D582" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the connection from vCenter to ADDS is using a secure protocol (LDAPS)</t>
+          <t>RBAC permissions on the Azure VMware Solution resource in Azure are 'locked down' to a limited set of owners only</t>
         </is>
       </c>
       <c r="E582" s="18" t="n"/>
       <c r="F582" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
@@ -31509,7 +31485,7 @@
       <c r="K582" s="19" t="n"/>
       <c r="L582" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M582" s="20" t="n"/>
@@ -31536,13 +31512,13 @@
       </c>
       <c r="D583" s="18" t="inlineStr">
         <is>
-          <t>CloudAdmin account in vCenter IdP is used only as an emergency account (break-glass)</t>
+          <t>Ensure all custom roles are scoped with CloudAdmin permitted authorizations</t>
         </is>
       </c>
       <c r="E583" s="18" t="n"/>
       <c r="F583" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G583" t="inlineStr">
@@ -31556,7 +31532,7 @@
       <c r="K583" s="19" t="n"/>
       <c r="L583" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M583" s="20" t="n"/>
@@ -31573,7 +31549,7 @@
       </c>
       <c r="B584" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C584" s="18" t="inlineStr">
@@ -31583,7 +31559,7 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Ensure that NSX-Manager is integrated with an external Identity provider (LDAPS)</t>
+          <t>Is the correct Azure VMware Solution connectivity model selected for the customer use case at hand</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
@@ -31598,12 +31574,16 @@
         </is>
       </c>
       <c r="H584" s="18" t="n"/>
-      <c r="I584" s="13" t="n"/>
+      <c r="I584" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J584" s="13" t="n"/>
       <c r="K584" s="19" t="n"/>
       <c r="L584" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M584" s="20" t="n"/>
@@ -31620,7 +31600,7 @@
       </c>
       <c r="B585" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C585" s="18" t="inlineStr">
@@ -31630,13 +31610,13 @@
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>Has an RBAC model been created for use within VMware vSphere</t>
+          <t>Ensure ExpressRoute or VPN connections from on-premises to Azure are monitored using 'connection monitor'</t>
         </is>
       </c>
       <c r="E585" s="18" t="n"/>
       <c r="F585" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G585" t="inlineStr">
@@ -31650,7 +31630,7 @@
       <c r="K585" s="19" t="n"/>
       <c r="L585" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M585" s="20" t="n"/>
@@ -31667,7 +31647,7 @@
       </c>
       <c r="B586" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C586" s="18" t="inlineStr">
@@ -31677,7 +31657,7 @@
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>RBAC permissions should be granted on ADDS groups and not on specific users</t>
+          <t>Ensure a connection monitor is created from an Azure native resource to an Azure VMware Solution virtual machine to monitor the Azure VMware Solution back-end ExpressRoute connection</t>
         </is>
       </c>
       <c r="E586" s="18" t="n"/>
@@ -31697,7 +31677,7 @@
       <c r="K586" s="19" t="n"/>
       <c r="L586" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M586" s="20" t="n"/>
@@ -31714,7 +31694,7 @@
       </c>
       <c r="B587" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C587" s="18" t="inlineStr">
@@ -31724,13 +31704,13 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>RBAC permissions on the Azure VMware Solution resource in Azure are 'locked down' to a limited set of owners only</t>
+          <t>Ensure a connection monitor is created from an on-premises resource to an Azure VMware Solution virtual machine to monitor end-2-end connectivity</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
       <c r="F587" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G587" t="inlineStr">
@@ -31744,7 +31724,7 @@
       <c r="K587" s="19" t="n"/>
       <c r="L587" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M587" s="20" t="n"/>
@@ -31761,7 +31741,7 @@
       </c>
       <c r="B588" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C588" s="18" t="inlineStr">
@@ -31771,7 +31751,7 @@
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t>Ensure all custom roles are scoped with CloudAdmin permitted authorizations</t>
+          <t>When route server is used, ensure no more then 1000 routes are propagated from route server to ExR gateway to on-premises (ARS limit).</t>
         </is>
       </c>
       <c r="E588" s="18" t="n"/>
@@ -31791,7 +31771,7 @@
       <c r="K588" s="19" t="n"/>
       <c r="L588" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M588" s="20" t="n"/>
@@ -31808,7 +31788,7 @@
       </c>
       <c r="B589" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C589" s="18" t="inlineStr">
@@ -31818,7 +31798,7 @@
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t>Is the correct Azure VMware Solution connectivity model selected for the customer use case at hand</t>
+          <t>Is Privileged Identity Management implemented for roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
         </is>
       </c>
       <c r="E589" s="18" t="n"/>
@@ -31833,16 +31813,12 @@
         </is>
       </c>
       <c r="H589" s="18" t="n"/>
-      <c r="I589" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I589" s="13" t="n"/>
       <c r="J589" s="13" t="n"/>
       <c r="K589" s="19" t="n"/>
       <c r="L589" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M589" s="20" t="n"/>
@@ -31859,7 +31835,7 @@
       </c>
       <c r="B590" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C590" s="18" t="inlineStr">
@@ -31869,7 +31845,7 @@
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>Ensure ExpressRoute or VPN connections from on-premises to Azure are monitored using 'connection monitor'</t>
+          <t>Privileged Identity Management audit reporting should be implemented for the Azure VMware Solution PIM roles</t>
         </is>
       </c>
       <c r="E590" s="18" t="n"/>
@@ -31889,7 +31865,7 @@
       <c r="K590" s="19" t="n"/>
       <c r="L590" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M590" s="20" t="n"/>
@@ -31906,7 +31882,7 @@
       </c>
       <c r="B591" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C591" s="18" t="inlineStr">
@@ -31916,7 +31892,7 @@
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>Ensure a connection monitor is created from an Azure native resource to an Azure VMware Solution virtual machine to monitor the Azure VMware Solution back-end ExpressRoute connection</t>
+          <t>If using Privileged Identity Management is being used, ensure that a valid Entra ID enabled account is created with a valid SMTP record for Azure VMware Solution Automatic Host replacement notifications. (standing permissions required)</t>
         </is>
       </c>
       <c r="E591" s="18" t="n"/>
@@ -31936,7 +31912,7 @@
       <c r="K591" s="19" t="n"/>
       <c r="L591" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M591" s="20" t="n"/>
@@ -31953,7 +31929,7 @@
       </c>
       <c r="B592" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C592" s="18" t="inlineStr">
@@ -31963,13 +31939,13 @@
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>Ensure a connection monitor is created from an on-premises resource to an Azure VMware Solution virtual machine to monitor end-2-end connectivity</t>
+          <t>Limit use of CloudAdmin account to emergency access only</t>
         </is>
       </c>
       <c r="E592" s="18" t="n"/>
       <c r="F592" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G592" t="inlineStr">
@@ -31983,7 +31959,7 @@
       <c r="K592" s="19" t="n"/>
       <c r="L592" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M592" s="20" t="n"/>
@@ -32000,7 +31976,7 @@
       </c>
       <c r="B593" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C593" s="18" t="inlineStr">
@@ -32010,13 +31986,13 @@
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>When route server is used, ensure no more then 1000 routes are propagated from route server to ExR gateway to on-premises (ARS limit).</t>
+          <t>Create custom RBAC roles in vCenter to implement a least-privilege model inside vCenter</t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>
       <c r="F593" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G593" t="inlineStr">
@@ -32030,7 +32006,7 @@
       <c r="K593" s="19" t="n"/>
       <c r="L593" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M593" s="20" t="n"/>
@@ -32057,13 +32033,13 @@
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>Is Privileged Identity Management implemented for roles managing the Azure VMware Solution resource in the Azure Portal (no standing permissions allowed)</t>
+          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
         </is>
       </c>
       <c r="E594" s="18" t="n"/>
       <c r="F594" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -32077,7 +32053,7 @@
       <c r="K594" s="19" t="n"/>
       <c r="L594" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M594" s="20" t="n"/>
@@ -32104,7 +32080,7 @@
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Privileged Identity Management audit reporting should be implemented for the Azure VMware Solution PIM roles</t>
+          <t>Use a centralized identity provider to be used for workloads (VM's) running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
@@ -32124,7 +32100,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -32151,7 +32127,7 @@
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>If using Privileged Identity Management is being used, ensure that a valid Entra ID enabled account is created with a valid SMTP record for Azure VMware Solution Automatic Host replacement notifications. (standing permissions required)</t>
+          <t>Is East-West traffic filtering implemented within NSX-T</t>
         </is>
       </c>
       <c r="E596" s="18" t="n"/>
@@ -32171,7 +32147,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -32198,7 +32174,7 @@
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Limit use of CloudAdmin account to emergency access only</t>
+          <t>Workloads on Azure VMware Solution are not directly exposed to the internet. Traffic is filtered and inspected by Azure Application Gateway, Azure Firewall or 3rd party solutions</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
@@ -32218,7 +32194,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -32245,13 +32221,13 @@
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Create custom RBAC roles in vCenter to implement a least-privilege model inside vCenter</t>
+          <t>Auditing and logging is implemented for inbound internet requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
       <c r="F598" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -32265,7 +32241,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -32292,7 +32268,7 @@
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Is a process defined to regularly rotate cloudadmin (vCenter) and admin (NSX) credentials</t>
+          <t>Session monitoring is implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
@@ -32312,7 +32288,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -32339,13 +32315,13 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Use a centralized identity provider to be used for workloads (VM's) running on Azure VMware Solution</t>
+          <t>Is DDoS standard protection enabled on ExR/VPN Gateway subnet in Azure</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
       <c r="F600" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G600" t="inlineStr">
@@ -32359,7 +32335,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -32386,7 +32362,7 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Is East-West traffic filtering implemented within NSX-T</t>
+          <t>Use a dedicated privileged access workstation (PAW) to manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32406,7 +32382,7 @@
       <c r="K601" s="19" t="n"/>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -32433,13 +32409,13 @@
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>Workloads on Azure VMware Solution are not directly exposed to the internet. Traffic is filtered and inspected by Azure Application Gateway, Azure Firewall or 3rd party solutions</t>
+          <t>Enable Advanced Threat Detection (Microsoft Defender for Cloud aka ASC) for workloads running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E602" s="18" t="n"/>
       <c r="F602" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G602" t="inlineStr">
@@ -32453,7 +32429,7 @@
       <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -32480,13 +32456,13 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>Auditing and logging is implemented for inbound internet requests to Azure VMware Solution and Azure VMware Solution based workloads</t>
+          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
       <c r="F603" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G603" t="inlineStr">
@@ -32500,7 +32476,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -32527,13 +32503,13 @@
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Session monitoring is implemented for outbound internet connections from Azure VMware Solution or Azure VMware Solution based workloads to identify suspicious/malicious activity</t>
+          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
       <c r="F604" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G604" t="inlineStr">
@@ -32547,7 +32523,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -32574,13 +32550,13 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Is DDoS standard protection enabled on ExR/VPN Gateway subnet in Azure</t>
+          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
       <c r="F605" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G605" t="inlineStr">
@@ -32594,7 +32570,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -32621,7 +32597,7 @@
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Use a dedicated privileged access workstation (PAW) to manage Azure VMware Solution, vCenter, NSX manager and HCX manager</t>
+          <t>Consider using extended security update support for workloads running on Azure VMware Solution (Azure VMware Solution is eligible for ESU)</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
@@ -32641,7 +32617,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -32658,7 +32634,7 @@
       </c>
       <c r="B607" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C607" s="18" t="inlineStr">
@@ -32668,13 +32644,13 @@
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Enable Advanced Threat Detection (Microsoft Defender for Cloud aka ASC) for workloads running on Azure VMware Solution</t>
+          <t>Ensure that the appropriate vSAN Data redundancy method is used (RAID specification)</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
       <c r="F607" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
@@ -32688,7 +32664,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -32705,7 +32681,7 @@
       </c>
       <c r="B608" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C608" s="18" t="inlineStr">
@@ -32715,13 +32691,13 @@
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>Use Azure ARC for Servers to properly govern workloads running on Azure VMware Solution using Azure native technologies (Azure ARC for Azure VMware Solution is not yet available)</t>
+          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
       <c r="F608" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
@@ -32735,7 +32711,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -32752,7 +32728,7 @@
       </c>
       <c r="B609" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C609" s="18" t="inlineStr">
@@ -32762,13 +32738,13 @@
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Ensure workloads on Azure VMware Solution use sufficient data encryption during run-time (like in-guest disk encryption and SQL TDE). (vSAN encryption at rest is default)</t>
+          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
         </is>
       </c>
       <c r="E609" s="18" t="n"/>
       <c r="F609" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
@@ -32782,7 +32758,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32799,7 +32775,7 @@
       </c>
       <c r="B610" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C610" s="18" t="inlineStr">
@@ -32809,13 +32785,13 @@
       </c>
       <c r="D610" s="18" t="inlineStr">
         <is>
-          <t>When in-guest encryption is used, store encryption keys in Azure Key vault when possible</t>
+          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
         </is>
       </c>
       <c r="E610" s="18" t="n"/>
       <c r="F610" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
@@ -32829,7 +32805,7 @@
       <c r="K610" s="19" t="n"/>
       <c r="L610" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M610" s="20" t="n"/>
@@ -32846,7 +32822,7 @@
       </c>
       <c r="B611" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C611" s="18" t="inlineStr">
@@ -32856,7 +32832,7 @@
       </c>
       <c r="D611" s="18" t="inlineStr">
         <is>
-          <t>Consider using extended security update support for workloads running on Azure VMware Solution (Azure VMware Solution is eligible for ESU)</t>
+          <t>Ensure that you have a policy around ESXi host density and efficiency, keeping in mind the lead time for requesting new nodes</t>
         </is>
       </c>
       <c r="E611" s="18" t="n"/>
@@ -32876,7 +32852,7 @@
       <c r="K611" s="19" t="n"/>
       <c r="L611" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M611" s="20" t="n"/>
@@ -32893,7 +32869,7 @@
       </c>
       <c r="B612" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C612" s="18" t="inlineStr">
@@ -32903,13 +32879,13 @@
       </c>
       <c r="D612" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the appropriate vSAN Data redundancy method is used (RAID specification)</t>
+          <t>Ensure a good cost management process is in place for Azure VMware Solution - Azure Cost Management can be used</t>
         </is>
       </c>
       <c r="E612" s="18" t="n"/>
       <c r="F612" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
@@ -32923,7 +32899,7 @@
       <c r="K612" s="19" t="n"/>
       <c r="L612" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M612" s="20" t="n"/>
@@ -32940,7 +32916,7 @@
       </c>
       <c r="B613" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C613" s="18" t="inlineStr">
@@ -32950,13 +32926,13 @@
       </c>
       <c r="D613" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the Failure-to-tolerate policy is in place to meet your vSAN storage needs</t>
+          <t>Are Azure reserved instances used to optimize cost for using Azure VMware Solution</t>
         </is>
       </c>
       <c r="E613" s="18" t="n"/>
       <c r="F613" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
@@ -32970,7 +32946,7 @@
       <c r="K613" s="19" t="n"/>
       <c r="L613" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M613" s="20" t="n"/>
@@ -32987,7 +32963,7 @@
       </c>
       <c r="B614" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C614" s="18" t="inlineStr">
@@ -32997,13 +32973,13 @@
       </c>
       <c r="D614" s="18" t="inlineStr">
         <is>
-          <t>Ensure that you have requested enough quota, ensuring you have considered growth and Disaster Recovery requirement</t>
+          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
         </is>
       </c>
       <c r="E614" s="18" t="n"/>
       <c r="F614" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
@@ -33017,7 +32993,7 @@
       <c r="K614" s="19" t="n"/>
       <c r="L614" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M614" s="20" t="n"/>
@@ -33034,7 +33010,7 @@
       </c>
       <c r="B615" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C615" s="18" t="inlineStr">
@@ -33044,13 +33020,13 @@
       </c>
       <c r="D615" s="18" t="inlineStr">
         <is>
-          <t>Ensure that access constraints to ESXi are understood, there are access limits which might affect 3rd party solutions.</t>
+          <t>Ensure all required resource reside within the same Azure availability zone(s)</t>
         </is>
       </c>
       <c r="E615" s="18" t="n"/>
       <c r="F615" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
@@ -33064,7 +33040,7 @@
       <c r="K615" s="19" t="n"/>
       <c r="L615" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M615" s="20" t="n"/>
@@ -33081,7 +33057,7 @@
       </c>
       <c r="B616" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C616" s="18" t="inlineStr">
@@ -33091,7 +33067,7 @@
       </c>
       <c r="D616" s="18" t="inlineStr">
         <is>
-          <t>Ensure that you have a policy around ESXi host density and efficiency, keeping in mind the lead time for requesting new nodes</t>
+          <t>Enable Microsoft Defender for Cloud for Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="E616" s="18" t="n"/>
@@ -33111,7 +33087,7 @@
       <c r="K616" s="19" t="n"/>
       <c r="L616" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M616" s="20" t="n"/>
@@ -33128,7 +33104,7 @@
       </c>
       <c r="B617" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C617" s="18" t="inlineStr">
@@ -33138,7 +33114,7 @@
       </c>
       <c r="D617" s="18" t="inlineStr">
         <is>
-          <t>Ensure a good cost management process is in place for Azure VMware Solution - Azure Cost Management can be used</t>
+          <t>Use Azure Arc enabled servers to manage your Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="E617" s="18" t="n"/>
@@ -33158,7 +33134,7 @@
       <c r="K617" s="19" t="n"/>
       <c r="L617" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M617" s="20" t="n"/>
@@ -33175,7 +33151,7 @@
       </c>
       <c r="B618" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C618" s="18" t="inlineStr">
@@ -33185,13 +33161,13 @@
       </c>
       <c r="D618" s="18" t="inlineStr">
         <is>
-          <t>Are Azure reserved instances used to optimize cost for using Azure VMware Solution</t>
+          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E618" s="18" t="n"/>
       <c r="F618" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
@@ -33205,7 +33181,7 @@
       <c r="K618" s="19" t="n"/>
       <c r="L618" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M618" s="20" t="n"/>
@@ -33222,7 +33198,7 @@
       </c>
       <c r="B619" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C619" s="18" t="inlineStr">
@@ -33232,7 +33208,7 @@
       </c>
       <c r="D619" s="18" t="inlineStr">
         <is>
-          <t>Consider the use of Azure Private-Link when using other Azure Native Services</t>
+          <t>Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
         </is>
       </c>
       <c r="E619" s="18" t="n"/>
@@ -33252,7 +33228,7 @@
       <c r="K619" s="19" t="n"/>
       <c r="L619" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M619" s="20" t="n"/>
@@ -33269,7 +33245,7 @@
       </c>
       <c r="B620" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C620" s="18" t="inlineStr">
@@ -33279,13 +33255,13 @@
       </c>
       <c r="D620" s="18" t="inlineStr">
         <is>
-          <t>Ensure all required resource reside within the same Azure availability zone(s)</t>
+          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
         </is>
       </c>
       <c r="E620" s="18" t="n"/>
       <c r="F620" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
@@ -33299,7 +33275,7 @@
       <c r="K620" s="19" t="n"/>
       <c r="L620" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M620" s="20" t="n"/>
@@ -33326,7 +33302,7 @@
       </c>
       <c r="D621" s="18" t="inlineStr">
         <is>
-          <t>Enable Microsoft Defender for Cloud for Azure VMware Solution guest VM workloads</t>
+          <t>Use Microsoft Defender for Cloud for compliance monitoring of workloads running on Azure VMware Solution</t>
         </is>
       </c>
       <c r="E621" s="18" t="n"/>
@@ -33346,7 +33322,7 @@
       <c r="K621" s="19" t="n"/>
       <c r="L621" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M621" s="20" t="n"/>
@@ -33373,7 +33349,7 @@
       </c>
       <c r="D622" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Arc enabled servers to manage your Azure VMware Solution guest VM workloads</t>
+          <t>Are the applicable compliance baselines added to Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E622" s="18" t="n"/>
@@ -33393,7 +33369,7 @@
       <c r="K622" s="19" t="n"/>
       <c r="L622" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M622" s="20" t="n"/>
@@ -33410,7 +33386,7 @@
       </c>
       <c r="B623" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C623" s="18" t="inlineStr">
@@ -33420,7 +33396,7 @@
       </c>
       <c r="D623" s="18" t="inlineStr">
         <is>
-          <t>Enable Diagnostic and metric logging on Azure VMware Solution</t>
+          <t>Was data residency evaluated when selecting Azure regions to use for Azure VMware Solution deployment</t>
         </is>
       </c>
       <c r="E623" s="18" t="n"/>
@@ -33440,7 +33416,7 @@
       <c r="K623" s="19" t="n"/>
       <c r="L623" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M623" s="20" t="n"/>
@@ -33457,7 +33433,7 @@
       </c>
       <c r="B624" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C624" s="18" t="inlineStr">
@@ -33467,13 +33443,13 @@
       </c>
       <c r="D624" s="18" t="inlineStr">
         <is>
-          <t>Deploy the Log Analytics Agents to Azure VMware Solution guest VM workloads</t>
+          <t>Are data processing implications (service provider / service consumer model) clear and documented</t>
         </is>
       </c>
       <c r="E624" s="18" t="n"/>
       <c r="F624" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -33487,7 +33463,7 @@
       <c r="K624" s="19" t="n"/>
       <c r="L624" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M624" s="20" t="n"/>
@@ -33504,7 +33480,7 @@
       </c>
       <c r="B625" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C625" s="18" t="inlineStr">
@@ -33514,7 +33490,7 @@
       </c>
       <c r="D625" s="18" t="inlineStr">
         <is>
-          <t>Ensure you have a documented and implemented backup policy and solution for Azure VMware Solution VM workloads</t>
+          <t>Consider using CMK (Customer Managed Key) for vSAN only if needed for compliance reason(s).</t>
         </is>
       </c>
       <c r="E625" s="18" t="n"/>
@@ -33534,7 +33510,7 @@
       <c r="K625" s="19" t="n"/>
       <c r="L625" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M625" s="20" t="n"/>
@@ -33551,7 +33527,7 @@
       </c>
       <c r="B626" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C626" s="18" t="inlineStr">
@@ -33561,13 +33537,13 @@
       </c>
       <c r="D626" s="18" t="inlineStr">
         <is>
-          <t>Use Microsoft Defender for Cloud for compliance monitoring of workloads running on Azure VMware Solution</t>
+          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
         </is>
       </c>
       <c r="E626" s="18" t="n"/>
       <c r="F626" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -33581,7 +33557,7 @@
       <c r="K626" s="19" t="n"/>
       <c r="L626" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M626" s="20" t="n"/>
@@ -33598,7 +33574,7 @@
       </c>
       <c r="B627" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C627" s="18" t="inlineStr">
@@ -33608,13 +33584,13 @@
       </c>
       <c r="D627" s="18" t="inlineStr">
         <is>
-          <t>Are the applicable compliance baselines added to Microsoft Defender for Cloud</t>
+          <t>Create warning alerts for critical thresholds for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
         </is>
       </c>
       <c r="E627" s="18" t="n"/>
       <c r="F627" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -33628,7 +33604,7 @@
       <c r="K627" s="19" t="n"/>
       <c r="L627" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M627" s="20" t="n"/>
@@ -33645,7 +33621,7 @@
       </c>
       <c r="B628" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C628" s="18" t="inlineStr">
@@ -33655,7 +33631,7 @@
       </c>
       <c r="D628" s="18" t="inlineStr">
         <is>
-          <t>Was data residency evaluated when selecting Azure regions to use for Azure VMware Solution deployment</t>
+          <t>Ensure critical alert is created to monitor if vSAN consumption is below 75% as this is a support threshold from VMware</t>
         </is>
       </c>
       <c r="E628" s="18" t="n"/>
@@ -33675,7 +33651,7 @@
       <c r="K628" s="19" t="n"/>
       <c r="L628" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M628" s="20" t="n"/>
@@ -33692,7 +33668,7 @@
       </c>
       <c r="B629" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C629" s="18" t="inlineStr">
@@ -33702,7 +33678,7 @@
       </c>
       <c r="D629" s="18" t="inlineStr">
         <is>
-          <t>Are data processing implications (service provider / service consumer model) clear and documented</t>
+          <t>Ensure alerts are configured for Azure Service Health alerts and notifications</t>
         </is>
       </c>
       <c r="E629" s="18" t="n"/>
@@ -33722,7 +33698,7 @@
       <c r="K629" s="19" t="n"/>
       <c r="L629" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M629" s="20" t="n"/>
@@ -33739,7 +33715,7 @@
       </c>
       <c r="B630" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C630" s="18" t="inlineStr">
@@ -33749,7 +33725,7 @@
       </c>
       <c r="D630" s="18" t="inlineStr">
         <is>
-          <t>Consider using CMK (Customer Managed Key) for vSAN only if needed for compliance reason(s).</t>
+          <t>Configure Azure VMware Solution logging to be send to an Azure Storage account or Azure EventHub for processing</t>
         </is>
       </c>
       <c r="E630" s="18" t="n"/>
@@ -33769,7 +33745,7 @@
       <c r="K630" s="19" t="n"/>
       <c r="L630" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M630" s="20" t="n"/>
@@ -33796,13 +33772,13 @@
       </c>
       <c r="D631" s="18" t="inlineStr">
         <is>
-          <t>Create dashboards to enable core Azure VMware Solution monitoring insights</t>
+          <t>If deep insight in VMware vSphere is required: Is vRealize Operations and/or vRealize Network Insights used in the solution?</t>
         </is>
       </c>
       <c r="E631" s="18" t="n"/>
       <c r="F631" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G631" t="inlineStr">
@@ -33816,7 +33792,7 @@
       <c r="K631" s="19" t="n"/>
       <c r="L631" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M631" s="20" t="n"/>
@@ -33843,7 +33819,7 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Create warning alerts for critical thresholds for automatic alerting on Azure VMware Solution performance (CPU &gt;80%, Avg Memory &gt;80%, vSAN &gt;70%)</t>
+          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning</t>
         </is>
       </c>
       <c r="E632" s="18" t="n"/>
@@ -33863,7 +33839,7 @@
       <c r="K632" s="19" t="n"/>
       <c r="L632" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M632" s="20" t="n"/>
@@ -33890,13 +33866,13 @@
       </c>
       <c r="D633" s="18" t="inlineStr">
         <is>
-          <t>Ensure critical alert is created to monitor if vSAN consumption is below 75% as this is a support threshold from VMware</t>
+          <t>Ensure vSphere content libraries are not placed on vSAN as vSAN is a finite resource</t>
         </is>
       </c>
       <c r="E633" s="18" t="n"/>
       <c r="F633" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
@@ -33910,7 +33886,7 @@
       <c r="K633" s="19" t="n"/>
       <c r="L633" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M633" s="20" t="n"/>
@@ -33937,13 +33913,13 @@
       </c>
       <c r="D634" s="18" t="inlineStr">
         <is>
-          <t>Ensure alerts are configured for Azure Service Health alerts and notifications</t>
+          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
         </is>
       </c>
       <c r="E634" s="18" t="n"/>
       <c r="F634" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -33957,7 +33933,7 @@
       <c r="K634" s="19" t="n"/>
       <c r="L634" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M634" s="20" t="n"/>
@@ -33984,7 +33960,7 @@
       </c>
       <c r="D635" s="18" t="inlineStr">
         <is>
-          <t>Configure Azure VMware Solution logging to be send to an Azure Storage account or Azure EventHub for processing</t>
+          <t>Ensure workloads running on Azure VMware Solution are hybrid managed using Azure Arc for Servers (Arc for Azure VMware Solution is in preview)</t>
         </is>
       </c>
       <c r="E635" s="18" t="n"/>
@@ -34004,7 +33980,7 @@
       <c r="K635" s="19" t="n"/>
       <c r="L635" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M635" s="20" t="n"/>
@@ -34031,13 +34007,13 @@
       </c>
       <c r="D636" s="18" t="inlineStr">
         <is>
-          <t>If deep insight in VMware vSphere is required: Is vRealize Operations and/or vRealize Network Insights used in the solution?</t>
+          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
         </is>
       </c>
       <c r="E636" s="18" t="n"/>
       <c r="F636" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
@@ -34051,7 +34027,7 @@
       <c r="K636" s="19" t="n"/>
       <c r="L636" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M636" s="20" t="n"/>
@@ -34078,13 +34054,13 @@
       </c>
       <c r="D637" s="18" t="inlineStr">
         <is>
-          <t>Ensure the vSAN storage policy for VM's is NOT the default storage policy as this policy applies thick provisioning</t>
+          <t>Include workloads running on Azure VMware Solution in existing update management tooling or in Azure Update Management</t>
         </is>
       </c>
       <c r="E637" s="18" t="n"/>
       <c r="F637" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G637" t="inlineStr">
@@ -34098,7 +34074,7 @@
       <c r="K637" s="19" t="n"/>
       <c r="L637" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M637" s="20" t="n"/>
@@ -34125,7 +34101,7 @@
       </c>
       <c r="D638" s="18" t="inlineStr">
         <is>
-          <t>Ensure vSphere content libraries are not placed on vSAN as vSAN is a finite resource</t>
+          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
         </is>
       </c>
       <c r="E638" s="18" t="n"/>
@@ -34145,7 +34121,7 @@
       <c r="K638" s="19" t="n"/>
       <c r="L638" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M638" s="20" t="n"/>
@@ -34162,7 +34138,7 @@
       </c>
       <c r="B639" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C639" s="18" t="inlineStr">
@@ -34172,7 +34148,7 @@
       </c>
       <c r="D639" s="18" t="inlineStr">
         <is>
-          <t>Ensure data repositories for the backup solution are stored outside of vSAN storage. Either in Azure native or on a disk pool-backed datastore</t>
+          <t>Ensure workloads running on Azure VMware Solution are onboarded to Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E639" s="18" t="n"/>
@@ -34192,7 +34168,7 @@
       <c r="K639" s="19" t="n"/>
       <c r="L639" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M639" s="20" t="n"/>
@@ -34209,7 +34185,7 @@
       </c>
       <c r="B640" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C640" s="18" t="inlineStr">
@@ -34219,7 +34195,7 @@
       </c>
       <c r="D640" s="18" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are hybrid managed using Azure Arc for Servers (Arc for Azure VMware Solution is in preview)</t>
+          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
         </is>
       </c>
       <c r="E640" s="18" t="n"/>
@@ -34239,7 +34215,7 @@
       <c r="K640" s="19" t="n"/>
       <c r="L640" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M640" s="20" t="n"/>
@@ -34256,7 +34232,7 @@
       </c>
       <c r="B641" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C641" s="18" t="inlineStr">
@@ -34266,7 +34242,7 @@
       </c>
       <c r="D641" s="18" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are monitored using Azure Log Analytics and Azure Monitor</t>
+          <t>Have all DR solutions been considered and a solution that is best for your business been decided upon? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E641" s="18" t="n"/>
@@ -34286,7 +34262,7 @@
       <c r="K641" s="19" t="n"/>
       <c r="L641" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M641" s="20" t="n"/>
@@ -34303,7 +34279,7 @@
       </c>
       <c r="B642" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C642" s="18" t="inlineStr">
@@ -34313,7 +34289,7 @@
       </c>
       <c r="D642" s="18" t="inlineStr">
         <is>
-          <t>Include workloads running on Azure VMware Solution in existing update management tooling or in Azure Update Management</t>
+          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
         </is>
       </c>
       <c r="E642" s="18" t="n"/>
@@ -34333,7 +34309,7 @@
       <c r="K642" s="19" t="n"/>
       <c r="L642" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M642" s="20" t="n"/>
@@ -34350,7 +34326,7 @@
       </c>
       <c r="B643" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C643" s="18" t="inlineStr">
@@ -34360,13 +34336,13 @@
       </c>
       <c r="D643" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy to onboard Azure VMware Solution workloads in the Azure Management, Monitoring and Security solutions</t>
+          <t>Use Automated recovery plans with either of the Disaster solutions, avoid manual tasks as much as possible</t>
         </is>
       </c>
       <c r="E643" s="18" t="n"/>
       <c r="F643" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
@@ -34380,7 +34356,7 @@
       <c r="K643" s="19" t="n"/>
       <c r="L643" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M643" s="20" t="n"/>
@@ -34397,7 +34373,7 @@
       </c>
       <c r="B644" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C644" s="18" t="inlineStr">
@@ -34407,7 +34383,7 @@
       </c>
       <c r="D644" s="18" t="inlineStr">
         <is>
-          <t>Ensure workloads running on Azure VMware Solution are onboarded to Microsoft Defender for Cloud</t>
+          <t>Use the geopolitical region pair as the secondary disaster recovery environment</t>
         </is>
       </c>
       <c r="E644" s="18" t="n"/>
@@ -34427,7 +34403,7 @@
       <c r="K644" s="19" t="n"/>
       <c r="L644" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M644" s="20" t="n"/>
@@ -34454,13 +34430,13 @@
       </c>
       <c r="D645" s="18" t="inlineStr">
         <is>
-          <t>Ensure backups are not stored on vSAN as vSAN is a finite resource</t>
+          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
         </is>
       </c>
       <c r="E645" s="18" t="n"/>
       <c r="F645" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -34474,7 +34450,7 @@
       <c r="K645" s="19" t="n"/>
       <c r="L645" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M645" s="20" t="n"/>
@@ -34501,7 +34477,7 @@
       </c>
       <c r="D646" s="18" t="inlineStr">
         <is>
-          <t>Have all DR solutions been considered and a solution that is best for your business been decided upon? [SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>Will ExpressRoute Global Reach be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or is routing done through network virtual appliances?</t>
         </is>
       </c>
       <c r="E646" s="18" t="n"/>
@@ -34521,7 +34497,7 @@
       <c r="K646" s="19" t="n"/>
       <c r="L646" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M646" s="20" t="n"/>
@@ -34548,7 +34524,7 @@
       </c>
       <c r="D647" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery when the Disaster Recovery technology is native Azure IaaS</t>
+          <t>Have all Backup solutions been considered and a solution that is best for your business been decided upon? [ MABS/CommVault/Metallic.io/Veeam/�. ]</t>
         </is>
       </c>
       <c r="E647" s="18" t="n"/>
@@ -34568,7 +34544,7 @@
       <c r="K647" s="19" t="n"/>
       <c r="L647" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M647" s="20" t="n"/>
@@ -34595,13 +34571,13 @@
       </c>
       <c r="D648" s="18" t="inlineStr">
         <is>
-          <t>Use Automated recovery plans with either of the Disaster solutions, avoid manual tasks as much as possible</t>
+          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
         </is>
       </c>
       <c r="E648" s="18" t="n"/>
       <c r="F648" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G648" t="inlineStr">
@@ -34615,7 +34591,7 @@
       <c r="K648" s="19" t="n"/>
       <c r="L648" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M648" s="20" t="n"/>
@@ -34642,7 +34618,7 @@
       </c>
       <c r="D649" s="18" t="inlineStr">
         <is>
-          <t>Use the geopolitical region pair as the secondary disaster recovery environment</t>
+          <t>Deploy your backup solution outside of vSan, on Azure native components</t>
         </is>
       </c>
       <c r="E649" s="18" t="n"/>
@@ -34662,7 +34638,7 @@
       <c r="K649" s="19" t="n"/>
       <c r="L649" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M649" s="20" t="n"/>
@@ -34689,13 +34665,13 @@
       </c>
       <c r="D650" s="18" t="inlineStr">
         <is>
-          <t>Use 2 different address spaces between the regions, for example: 10.0.0.0/16 and 192.168.0.0/16 for the different regions</t>
+          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
         </is>
       </c>
       <c r="E650" s="18" t="n"/>
       <c r="F650" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -34709,7 +34685,7 @@
       <c r="K650" s="19" t="n"/>
       <c r="L650" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M650" s="20" t="n"/>
@@ -34726,7 +34702,7 @@
       </c>
       <c r="B651" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C651" s="18" t="inlineStr">
@@ -34736,13 +34712,13 @@
       </c>
       <c r="D651" s="18" t="inlineStr">
         <is>
-          <t>Will ExpressRoute Global Reach be used for connectivity between the primary and secondary Azure VMware Solution Private Clouds or is routing done through network virtual appliances?</t>
+          <t>For manual deployments, all configuration and deployments must be documented</t>
         </is>
       </c>
       <c r="E651" s="18" t="n"/>
       <c r="F651" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -34756,7 +34732,7 @@
       <c r="K651" s="19" t="n"/>
       <c r="L651" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M651" s="20" t="n"/>
@@ -34773,7 +34749,7 @@
       </c>
       <c r="B652" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C652" s="18" t="inlineStr">
@@ -34783,13 +34759,13 @@
       </c>
       <c r="D652" s="18" t="inlineStr">
         <is>
-          <t>Have all Backup solutions been considered and a solution that is best for your business been decided upon? [ MABS/CommVault/Metallic.io/Veeam/�. ]</t>
+          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
         </is>
       </c>
       <c r="E652" s="18" t="n"/>
       <c r="F652" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G652" t="inlineStr">
@@ -34803,7 +34779,7 @@
       <c r="K652" s="19" t="n"/>
       <c r="L652" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M652" s="20" t="n"/>
@@ -34820,7 +34796,7 @@
       </c>
       <c r="B653" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C653" s="18" t="inlineStr">
@@ -34830,13 +34806,13 @@
       </c>
       <c r="D653" s="18" t="inlineStr">
         <is>
-          <t>Deploy your backup solution in the same region as your Azure VMware Solution private cloud</t>
+          <t>For automated deployments, deploy a minimal private cloud and scale as needed</t>
         </is>
       </c>
       <c r="E653" s="18" t="n"/>
       <c r="F653" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G653" t="inlineStr">
@@ -34850,7 +34826,7 @@
       <c r="K653" s="19" t="n"/>
       <c r="L653" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M653" s="20" t="n"/>
@@ -34867,7 +34843,7 @@
       </c>
       <c r="B654" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C654" s="18" t="inlineStr">
@@ -34877,13 +34853,13 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Deploy your backup solution outside of vSan, on Azure native components</t>
+          <t>For automated deployments,  request or reserve quota prior to starting the deployment</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
       <c r="F654" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G654" t="inlineStr">
@@ -34897,7 +34873,7 @@
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34914,7 +34890,7 @@
       </c>
       <c r="B655" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C655" s="18" t="inlineStr">
@@ -34924,7 +34900,7 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>Is a process in place to request a restore of the VMware components managed by the Azure Platform?</t>
+          <t>For automated deployment, ensure that relevant resource locks are created through the automation or through Azure Policy for proper governance</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
@@ -34944,7 +34920,7 @@
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34971,7 +34947,7 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>For manual deployments, all configuration and deployments must be documented</t>
+          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
@@ -34991,7 +34967,7 @@
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -35018,7 +34994,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>For manual deployments, consider implementing resource locks to prevent accidental actions on your Azure VMware Solution Private Cloud</t>
+          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -35038,7 +35014,7 @@
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -35065,7 +35041,7 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>For automated deployments, deploy a minimal private cloud and scale as needed</t>
+          <t>Define resource dependencies for serializing actions in IaC when many resources need to be deployed in/on Azure VMware Solution as Azure VMware Solution only supports a limited number of parallel operations.</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
@@ -35085,7 +35061,7 @@
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -35112,7 +35088,7 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>For automated deployments,  request or reserve quota prior to starting the deployment</t>
+          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
@@ -35132,7 +35108,7 @@
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -35149,7 +35125,7 @@
       </c>
       <c r="B660" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C660" s="18" t="inlineStr">
@@ -35159,13 +35135,13 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>For automated deployment, ensure that relevant resource locks are created through the automation or through Azure Policy for proper governance</t>
+          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -35179,7 +35155,7 @@
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -35196,7 +35172,7 @@
       </c>
       <c r="B661" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C661" s="18" t="inlineStr">
@@ -35206,13 +35182,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Implement human understandable names for ExR authorization keys to allow for easy identification of the keys purpose/use</t>
+          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -35226,7 +35202,7 @@
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35243,7 +35219,7 @@
       </c>
       <c r="B662" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C662" s="18" t="inlineStr">
@@ -35253,13 +35229,13 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Use Key vault to store secrets and authorization keys when separate Service Principles are used for deploying Azure VMware Solution and ExpressRoute</t>
+          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -35273,7 +35249,7 @@
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35290,7 +35266,7 @@
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
@@ -35300,13 +35276,13 @@
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Define resource dependencies for serializing actions in IaC when many resources need to be deployed in/on Azure VMware Solution as Azure VMware Solution only supports a limited number of parallel operations.</t>
+          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -35320,7 +35296,7 @@
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35337,7 +35313,7 @@
       </c>
       <c r="B664" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C664" s="18" t="inlineStr">
@@ -35347,13 +35323,13 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>When performing automated configuration of NSX-T segments with a single Tier-1 gateway, use Azure Portal APIs instead of NSX-Manager APIs</t>
+          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
       <c r="F664" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
@@ -35367,7 +35343,7 @@
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35384,7 +35360,7 @@
       </c>
       <c r="B665" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C665" s="18" t="inlineStr">
@@ -35394,7 +35370,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>When intending to use automated scale-out, be sure to apply for sufficient Azure VMware Solution quota for the subscriptions running Azure VMware Solution</t>
+          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35414,7 +35390,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35431,7 +35407,7 @@
       </c>
       <c r="B666" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C666" s="18" t="inlineStr">
@@ -35441,13 +35417,13 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>When intending to use automated scale-in, be sure to take storage policy requirements into account before performing such action</t>
+          <t>When using MON, be aware of the limits of simulataneously configured VMs (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
       <c r="F666" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -35456,12 +35432,20 @@
         </is>
       </c>
       <c r="H666" s="18" t="n"/>
-      <c r="I666" s="13" t="n"/>
-      <c r="J666" s="13" t="n"/>
+      <c r="I666" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J666" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35478,7 +35462,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35488,13 +35472,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Scaling operations always need to be serialized within a single SDDC as only one scale operation can be performed at a time (even when multiple clusters are used)</t>
+          <t>When using MON, you cannot enable MON on more than 100 Network extensions</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35503,12 +35487,20 @@
         </is>
       </c>
       <c r="H667" s="18" t="n"/>
-      <c r="I667" s="13" t="n"/>
-      <c r="J667" s="13" t="n"/>
+      <c r="I667" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J667" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35535,7 +35527,7 @@
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Consider and validate scaling operations on 3rd party solutions used in the architecture (supported or not)</t>
+          <t>If using a VPN connection for migrations, adjust your MTU size accordingly.</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
@@ -35555,7 +35547,7 @@
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35582,7 +35574,7 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Define and enforce scale in/out maximum limits for your environment in the automations</t>
+          <t>For low connectivity regions connecting into Azure (500Mbps or less), considering deploying the HCX WAN optimization appliance</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
@@ -35602,7 +35594,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35619,7 +35611,7 @@
       </c>
       <c r="B670" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C670" s="18" t="inlineStr">
@@ -35629,7 +35621,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Implement monitoring rules to monitor automated scaling operations and monitor success and failure to enable appropriate (automated) responses</t>
+          <t>Ensure that migrations are started from the on-premises appliance and NOT from the Cloud appliance (do NOT perform a reverse migration)</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35649,7 +35641,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35676,13 +35668,13 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>When using MON, be aware of the limits of simulataneously configured VMs (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
+          <t>When Azure Netapp Files is used to extend storage for Azure VMware Solution,consider using this as a VMware datastore instead of attaching directly to a VM.</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
       <c r="F671" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -35696,15 +35688,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J671" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="J671" s="13" t="n"/>
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35731,13 +35719,13 @@
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>When using MON, you cannot enable MON on more than 100 Network extensions</t>
+          <t>Ensure that a dedicated ExpressRoute Gateway is being used for external data storage solutions</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35751,15 +35739,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J672" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="J672" s="13" t="n"/>
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35776,7 +35760,7 @@
       </c>
       <c r="B673" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C673" s="18" t="inlineStr">
@@ -35786,7 +35770,7 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>If using a VPN connection for migrations, adjust your MTU size accordingly.</t>
+          <t>Ensure that FastPath is enabled on the ExpressRoute Gateway that is being used for external data storage solutions</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
@@ -35801,12 +35785,16 @@
         </is>
       </c>
       <c r="H673" s="18" t="n"/>
-      <c r="I673" s="13" t="n"/>
+      <c r="I673" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J673" s="13" t="n"/>
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35823,7 +35811,7 @@
       </c>
       <c r="B674" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C674" s="18" t="inlineStr">
@@ -35833,13 +35821,13 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>For low connectivity regions connecting into Azure (500Mbps or less), considering deploying the HCX WAN optimization appliance</t>
+          <t>If using stretched cluster, ensure that your selected Disaster Recovery solution is supported by the vendor</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
       <c r="F674" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -35848,12 +35836,16 @@
         </is>
       </c>
       <c r="H674" s="18" t="n"/>
-      <c r="I674" s="13" t="n"/>
+      <c r="I674" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J674" s="13" t="n"/>
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35880,13 +35872,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Ensure that migrations are started from the on-premises appliance and NOT from the Cloud appliance (do NOT perform a reverse migration)</t>
+          <t>If using stretched cluster, ensure that the SLA provided will meet your requirements</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35895,12 +35887,16 @@
         </is>
       </c>
       <c r="H675" s="18" t="n"/>
-      <c r="I675" s="13" t="n"/>
+      <c r="I675" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J675" s="13" t="n"/>
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35927,13 +35923,13 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>When Azure Netapp Files is used to extend storage for Azure VMware Solution,consider using this as a VMware datastore instead of attaching directly to a VM.</t>
+          <t>If using stretched cluster, ensure that both ExpressRoute circuits are connected to your connectivity hub.</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35951,7 +35947,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35978,13 +35974,13 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Ensure that a dedicated ExpressRoute Gateway is being used for external data storage solutions</t>
+          <t>If using stretched cluster, ensure that both ExpressRoute circuits have GlobalReach enabled.</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
       <c r="F677" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -36002,7 +35998,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -36029,13 +36025,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Ensure that FastPath is enabled on the ExpressRoute Gateway that is being used for external data storage solutions</t>
+          <t>Have site disaster tolerance settings been properly considered and changed for your business if needed.</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -36053,7 +36049,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -36065,7 +36061,7 @@
     <row r="679">
       <c r="A679" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B679" s="18" t="inlineStr">
@@ -36075,12 +36071,12 @@
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>If using stretched cluster, ensure that your selected Disaster Recovery solution is supported by the vendor</t>
+          <t>Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
@@ -36104,7 +36100,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36116,7 +36112,7 @@
     <row r="680">
       <c r="A680" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B680" s="18" t="inlineStr">
@@ -36126,12 +36122,12 @@
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>If using stretched cluster, ensure that the SLA provided will meet your requirements</t>
+          <t>Protect logic apps from region failures with zone redundancy and availability zones</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
@@ -36155,7 +36151,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36167,7 +36163,7 @@
     <row r="681">
       <c r="A681" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B681" s="18" t="inlineStr">
@@ -36177,12 +36173,12 @@
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>If using stretched cluster, ensure that both ExpressRoute circuits are connected to your connectivity hub.</t>
+          <t>Consider a Cross-Region DR strategy for critical workloads</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36206,7 +36202,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36218,7 +36214,7 @@
     <row r="682">
       <c r="A682" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B682" s="18" t="inlineStr">
@@ -36228,12 +36224,12 @@
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>If using stretched cluster, ensure that both ExpressRoute circuits have GlobalReach enabled.</t>
+          <t>If deploying to an Isolated environment, use or migrate to App Service Environment (ASE) v3</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36257,7 +36253,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36269,28 +36265,28 @@
     <row r="683">
       <c r="A683" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Have site disaster tolerance settings been properly considered and changed for your business if needed.</t>
+          <t>Leverage Azure DevOps or GitHub to streamline CI/CD and safeguard your Logic App code</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36308,7 +36304,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36320,28 +36316,28 @@
     <row r="684">
       <c r="A684" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Select the right Logic App hosting plan based on your business &amp; SLO requirements</t>
+          <t>Implement an error handling policy at the global level</t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36359,7 +36355,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36371,28 +36367,28 @@
     <row r="685">
       <c r="A685" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Protect logic apps from region failures with zone redundancy and availability zones</t>
+          <t>Ensure all APIs policies include a &lt;base/&gt; element.</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
       <c r="F685" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
@@ -36410,7 +36406,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36422,28 +36418,28 @@
     <row r="686">
       <c r="A686" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Consider a Cross-Region DR strategy for critical workloads</t>
+          <t>Use Policy Fragments to avoid repeating same policies definitions across multiple APIs</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
@@ -36461,7 +36457,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36473,28 +36469,28 @@
     <row r="687">
       <c r="A687" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B687" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>If deploying to an Isolated environment, use or migrate to App Service Environment (ASE) v3</t>
+          <t>If you are planning to monetize your APIs, review the 'monetization support' article for best practices</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36512,7 +36508,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36524,7 +36520,7 @@
     <row r="688">
       <c r="A688" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure API Management Review</t>
         </is>
       </c>
       <c r="B688" s="18" t="inlineStr">
@@ -36534,18 +36530,18 @@
       </c>
       <c r="C688" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>APIM</t>
         </is>
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Leverage Azure DevOps or GitHub to streamline CI/CD and safeguard your Logic App code</t>
+          <t>Enable Diagnostics Settings to export logs to Azure Monitor</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
       <c r="F688" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
@@ -36563,7 +36559,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36590,7 +36586,7 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Implement an error handling policy at the global level</t>
+          <t>Enable Application Insights for more detailed telemetry</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
@@ -36614,7 +36610,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>d7941d4a-7b6f-458f-8714-2f8f8c059ad4</t>
+          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36641,13 +36637,13 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Ensure all APIs policies include a &lt;base/&gt; element.</t>
+          <t>Configure alerts on the most critical metrics</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36665,7 +36661,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>0b0c0765-ff37-4369-90bd-3eb23ce71b08</t>
+          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36682,7 +36678,7 @@
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
@@ -36692,13 +36688,13 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Use Policy Fragments to avoid repeating same policies definitions across multiple APIs</t>
+          <t>Be aware of APIM's limits</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
       <c r="F691" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -36716,7 +36712,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>a5c45b03-93b6-42fe-b16b-8fccb6a79902</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36733,7 +36729,7 @@
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
@@ -36743,13 +36739,13 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>If you are planning to monetize your APIs, review the 'monetization support' article for best practices</t>
+          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
       <c r="F692" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -36767,7 +36763,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>c3818a95-6ff3-4474-88dc-e809b46dad6a</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36784,7 +36780,7 @@
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
@@ -36794,7 +36790,7 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Enable Diagnostics Settings to export logs to Azure Monitor</t>
+          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
@@ -36818,7 +36814,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>a7d0840a-c8c4-4e83-adec-5ca578eb4049</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36835,7 +36831,7 @@
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
@@ -36845,7 +36841,7 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Enable Application Insights for more detailed telemetry</t>
+          <t>Use Azure AD to authenticate users in the Developer Portal</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
@@ -36869,7 +36865,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>8691fa38-45ed-4299-a247-fecd98d35deb</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36886,7 +36882,7 @@
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
@@ -36896,13 +36892,13 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics</t>
+          <t>Create appropriate groups to control the visibility of the products</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -36920,7 +36916,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>55fd27bb-76ac-4a91-bc37-049e885be6b7</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36937,7 +36933,7 @@
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
@@ -36947,13 +36943,13 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Be aware of APIM's limits</t>
+          <t>Use Backends feature to eliminate redundant API backend configurations</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
       <c r="F696" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
@@ -36971,7 +36967,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36988,7 +36984,7 @@
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
@@ -36998,13 +36994,13 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
+          <t>Use Named Values to store common values that can be used in policies</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -37022,7 +37018,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -37039,7 +37035,7 @@
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
@@ -37049,13 +37045,13 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
+          <t>Use the premium tier for production workloads.</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -37073,7 +37069,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37090,7 +37086,7 @@
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
@@ -37100,7 +37096,7 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Use Azure AD to authenticate users in the Developer Portal</t>
+          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -37124,7 +37120,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37141,7 +37137,7 @@
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
@@ -37151,7 +37147,7 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Create appropriate groups to control the visibility of the products</t>
+          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -37175,7 +37171,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37192,7 +37188,7 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
@@ -37202,7 +37198,7 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Use Backends feature to eliminate redundant API backend configurations</t>
+          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
@@ -37226,7 +37222,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37243,7 +37239,7 @@
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
@@ -37253,13 +37249,13 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Use Named Values to store common values that can be used in policies</t>
+          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37277,7 +37273,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37304,13 +37300,13 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Use the premium tier for production workloads.</t>
+          <t>Ensure there is an automated backup routine</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37328,7 +37324,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37345,7 +37341,7 @@
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
@@ -37355,13 +37351,13 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
+          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37379,7 +37375,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37396,7 +37392,7 @@
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37406,7 +37402,7 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
+          <t>Apply throttling policies to control the number of requests per second</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37426,11 +37422,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J705" s="13" t="n"/>
+      <c r="J705" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37447,7 +37447,7 @@
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
@@ -37457,7 +37457,7 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
+          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37481,7 +37481,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37498,7 +37498,7 @@
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
@@ -37508,13 +37508,13 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
+          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37532,7 +37532,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37559,13 +37559,13 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Ensure there is an automated backup routine</t>
+          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
       <c r="F708" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
@@ -37583,7 +37583,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37600,7 +37600,7 @@
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
@@ -37610,13 +37610,13 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
+          <t>Use Azure Front Door in front of APIM for multi-region deployment</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
       <c r="F709" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
@@ -37634,7 +37634,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37651,7 +37651,7 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
@@ -37661,7 +37661,7 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Apply throttling policies to control the number of requests per second</t>
+          <t>Deploy the service within a Virtual Network (VNet)</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
@@ -37681,15 +37681,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J710" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J710" s="13" t="n"/>
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37706,7 +37702,7 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
@@ -37716,7 +37712,7 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
+          <t>Deploy network security groups (NSG) to your subnets to restrict or monitor traffic to/from APIM.</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37740,7 +37736,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37757,7 +37753,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37767,7 +37763,7 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
+          <t>Deploy Private Endpoints to filter incoming traffic when APIM is not deployed to a VNet.</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
@@ -37791,7 +37787,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37808,7 +37804,7 @@
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
@@ -37818,13 +37814,13 @@
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
+          <t>Disable Public Network Access</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37842,7 +37838,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
+          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37859,7 +37855,7 @@
       </c>
       <c r="B714" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C714" s="18" t="inlineStr">
@@ -37869,7 +37865,7 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Front Door in front of APIM for multi-region deployment</t>
+          <t>Simplify management with PowerShell automation scripts</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -37893,7 +37889,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>7519e385-a88b-4d34-966b-6269d686e890</t>
+          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37910,7 +37906,7 @@
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
@@ -37920,7 +37916,7 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Deploy the service within a Virtual Network (VNet)</t>
+          <t>Configure APIM via Infrastructure-as-code. Review DevOps best practices from the Cloud Adaption Framework APIM Landing Zone Accelerator</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37944,7 +37940,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
+          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37961,7 +37957,7 @@
       </c>
       <c r="B716" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C716" s="18" t="inlineStr">
@@ -37971,7 +37967,7 @@
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Deploy network security groups (NSG) to your subnets to restrict or monitor traffic to/from APIM.</t>
+          <t>Promote usage of Visual Studio Code APIM extension for faster API development</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37995,7 +37991,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>02661582-b3d1-48d1-9d7b-c6a918a0ca33</t>
+          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -38012,7 +38008,7 @@
       </c>
       <c r="B717" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C717" s="18" t="inlineStr">
@@ -38022,7 +38018,7 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Deploy Private Endpoints to filter incoming traffic when APIM is not deployed to a VNet.</t>
+          <t>Implement DevOps and CI/CD in your workflow</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
@@ -38046,7 +38042,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
+          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -38073,13 +38069,13 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Disable Public Network Access</t>
+          <t>Secure APIs using client certificate authentication</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
       <c r="F718" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
@@ -38097,7 +38093,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
+          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38114,7 +38110,7 @@
       </c>
       <c r="B719" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C719" s="18" t="inlineStr">
@@ -38124,7 +38120,7 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Simplify management with PowerShell automation scripts</t>
+          <t>Secure backend services using client certificate authentication</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
@@ -38148,7 +38144,7 @@
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>0674d750-0c6f-4ac0-8717-ceec04d0bdbd</t>
+          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38165,7 +38161,7 @@
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
@@ -38175,7 +38171,7 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Configure APIM via Infrastructure-as-code. Review DevOps best practices from the Cloud Adaption Framework APIM Landing Zone Accelerator</t>
+          <t>Review 'Recommendations to mitigate OWASP API Security Top 10 threats' article and check what is applicable to your APIs</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
@@ -38199,7 +38195,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>c385bfcd-49fd-4786-81ba-cedbb4c57345</t>
+          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38216,7 +38212,7 @@
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
@@ -38226,7 +38222,7 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Promote usage of Visual Studio Code APIM extension for faster API development</t>
+          <t>Use Authorizations feature to simplify management of OAuth 2.0 token for your backend APIs</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38250,7 +38246,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>6c3a27c0-197f-426c-9ffa-86fed51d9ab6</t>
+          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38267,7 +38263,7 @@
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
@@ -38277,13 +38273,13 @@
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Implement DevOps and CI/CD in your workflow</t>
+          <t>Use the latest TLS version when encrypting information in transit. Disable outdated and unnecessary protocols and ciphers when possible.</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
       <c r="F722" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -38301,7 +38297,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>354f1c03-8112-4965-85ad-c0074bddf231</t>
+          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38328,13 +38324,13 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Secure APIs using client certificate authentication</t>
+          <t>Ensure that secrets (Named values) are stored an Azure Key Vault so they can be securely accessed and updated</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
       <c r="F723" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -38352,7 +38348,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>b6439493-426a-45f3-9697-cf65baee208d</t>
+          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38379,7 +38375,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Secure backend services using client certificate authentication</t>
+          <t>Use managed identities to authenticate to other Azure resources whenever possible</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38403,7 +38399,7 @@
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>2a67d143-1033-4c0a-8732-680896478f08</t>
+          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38430,13 +38426,13 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Review 'Recommendations to mitigate OWASP API Security Top 10 threats' article and check what is applicable to your APIs</t>
+          <t>Use web application firewall (WAF) by deploying Application Gateway in front of APIM</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
       <c r="F725" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
@@ -38454,7 +38450,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>074435f5-4a46-41ac-b521-d6114cb5d845</t>
+          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38466,7 +38462,7 @@
     <row r="726">
       <c r="A726" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B726" s="18" t="inlineStr">
@@ -38476,18 +38472,22 @@
       </c>
       <c r="C726" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Use Authorizations feature to simplify management of OAuth 2.0 token for your backend APIs</t>
-        </is>
-      </c>
-      <c r="E726" s="18" t="n"/>
+          <t>Use customer-managed key option in data at rest encryption when required</t>
+        </is>
+      </c>
+      <c r="E726" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azure Event Hub provides encryption of data at rest. If you use your own key, the data is still encrypted using the Microsoft-managed key, but in addition the Microsoft-managed key will be encrypted using the customer-managed key. </t>
+        </is>
+      </c>
       <c r="F726" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
@@ -38501,11 +38501,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J726" s="13" t="n"/>
+      <c r="J726" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>5507c4b8-a7f8-41d6-9661-418c987100c9</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38517,7 +38521,7 @@
     <row r="727">
       <c r="A727" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B727" s="18" t="inlineStr">
@@ -38527,18 +38531,22 @@
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Use the latest TLS version when encrypting information in transit. Disable outdated and unnecessary protocols and ciphers when possible.</t>
-        </is>
-      </c>
-      <c r="E727" s="18" t="n"/>
+          <t xml:space="preserve">Enforce a minimum required version of Transport Layer Security (TLS) for requests </t>
+        </is>
+      </c>
+      <c r="E727" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azure Event Hubs namespaces permit clients to send and receive data with TLS 1.0 and above. To enforce stricter security measures, you can configure your Event Hubs namespace to require that clients send and receive data with a newer version of TLS. If an Event Hubs namespace requires a minimum version of TLS, then any requests made with an older version will fail. </t>
+        </is>
+      </c>
       <c r="F727" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -38552,11 +38560,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J727" s="13" t="n"/>
+      <c r="J727" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>2deee033-b906-4bc2-9f26-c8d3699fe091</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38568,7 +38580,7 @@
     <row r="728">
       <c r="A728" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B728" s="18" t="inlineStr">
@@ -38578,18 +38590,22 @@
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Ensure that secrets (Named values) are stored an Azure Key Vault so they can be securely accessed and updated</t>
-        </is>
-      </c>
-      <c r="E728" s="18" t="n"/>
+          <t>Avoid using root account when it is not necessary</t>
+        </is>
+      </c>
+      <c r="E728" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">When you create an Event Hubs namespace, a policy rule named RootManageSharedAccessKey is automatically created for the namespace. This policy has manage permissions for the entire namespace. It�s recommended that you treat this rule like an administrative root account and don�t use it in your application. Using AAD as an authentication provider with RBAC is recommended. </t>
+        </is>
+      </c>
       <c r="F728" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
@@ -38603,11 +38619,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J728" s="13" t="n"/>
+      <c r="J728" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>f8af3d94-1d2b-4070-846f-849197524258</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38619,7 +38639,7 @@
     <row r="729">
       <c r="A729" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B729" s="18" t="inlineStr">
@@ -38629,15 +38649,19 @@
       </c>
       <c r="C729" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>Use managed identities to authenticate to other Azure resources whenever possible</t>
-        </is>
-      </c>
-      <c r="E729" s="18" t="n"/>
+          <t>When possible, your application should be using a managed identity to authenticate to Azure Event Hub. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
+        </is>
+      </c>
+      <c r="E729" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Managed identities for Azure resources can authorize access to Event Hubs resources using Azure AD credentials from applications running in Azure Virtual Machines (VMs), Function apps, Virtual Machine Scale Sets, and other services. By using managed identities for Azure resources together with Azure AD authentication, you can avoid storing credentials with your applications that run in the cloud. </t>
+        </is>
+      </c>
       <c r="F729" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -38654,11 +38678,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J729" s="13" t="n"/>
+      <c r="J729" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K729" s="19" t="n"/>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>791abd8b-7706-4e31-9569-afefde724be3</t>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38670,7 +38698,7 @@
     <row r="730">
       <c r="A730" s="18" t="inlineStr">
         <is>
-          <t>Azure API Management Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B730" s="18" t="inlineStr">
@@ -38680,15 +38708,19 @@
       </c>
       <c r="C730" s="18" t="inlineStr">
         <is>
-          <t>APIM</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Use web application firewall (WAF) by deploying Application Gateway in front of APIM</t>
-        </is>
-      </c>
-      <c r="E730" s="18" t="n"/>
+          <t>Use least privilege data plane RBAC</t>
+        </is>
+      </c>
+      <c r="E730" s="18" t="inlineStr">
+        <is>
+          <t>When creating permissions, provide fine-grained control over a client's access to Azure Event Hub. Permissions in Azure Event Hub can and should be scoped to the individual resource level e.g. consumer group, event hub entity, event hub namespaces, etc.</t>
+        </is>
+      </c>
       <c r="F730" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -38705,11 +38737,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J730" s="13" t="n"/>
+      <c r="J730" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>220c4ca6-6688-476b-b2b5-425a78e6fb87</t>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38736,17 +38772,17 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Use customer-managed key option in data at rest encryption when required</t>
+          <t>Enable logging for security investigation. Use Azure Monitor to captured metrics and logs such as resource logs, runtime audit logs and Kafka logs</t>
         </is>
       </c>
       <c r="E731" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Event Hub provides encryption of data at rest. If you use your own key, the data is still encrypted using the Microsoft-managed key, but in addition the Microsoft-managed key will be encrypted using the customer-managed key. </t>
+          <t>Azure Event Hub resource logs include operational logs, virtual network and Kafka logs. Runtime audit logs capture aggregated diagnostic information for all data plane access operations (such as send or receive events) in Event Hubs.</t>
         </is>
       </c>
       <c r="F731" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -38762,13 +38798,13 @@
       </c>
       <c r="J731" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38795,12 +38831,12 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enforce a minimum required version of Transport Layer Security (TLS) for requests </t>
+          <t>Consider using private endpoints to access Azure Event Hub and disable public network access when applicable.</t>
         </is>
       </c>
       <c r="E732" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Event Hubs namespaces permit clients to send and receive data with TLS 1.0 and above. To enforce stricter security measures, you can configure your Event Hubs namespace to require that clients send and receive data with a newer version of TLS. If an Event Hubs namespace requires a minimum version of TLS, then any requests made with an older version will fail. </t>
+          <t xml:space="preserve">Azure Event Hub by default has a public IP address and is Internet-reachable. Private endpoints allow traffic between your virtual network and Azure Event Hub traverses over the Microsoft backbone network. In addition to that, you should disable public endpoints if those are not used. </t>
         </is>
       </c>
       <c r="F732" s="18" t="inlineStr">
@@ -38821,13 +38857,13 @@
       </c>
       <c r="J732" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38854,12 +38890,12 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>Avoid using root account when it is not necessary</t>
+          <t>Consider only allowing access to Azure Event Hub namespace from specific IP addresses or ranges</t>
         </is>
       </c>
       <c r="E733" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you create an Event Hubs namespace, a policy rule named RootManageSharedAccessKey is automatically created for the namespace. This policy has manage permissions for the entire namespace. It�s recommended that you treat this rule like an administrative root account and don�t use it in your application. Using AAD as an authentication provider with RBAC is recommended. </t>
+          <t xml:space="preserve">With IP firewall, you can restrict public endpoint further to only a set of IPv4 addresses or IPv4 address ranges in CIDR (Classless Inter-Domain Routing) notation. </t>
         </is>
       </c>
       <c r="F733" s="18" t="inlineStr">
@@ -38880,13 +38916,13 @@
       </c>
       <c r="J733" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38898,29 +38934,25 @@
     <row r="734">
       <c r="A734" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>When possible, your application should be using a managed identity to authenticate to Azure Event Hub. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
-        </is>
-      </c>
-      <c r="E734" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Managed identities for Azure resources can authorize access to Event Hubs resources using Azure AD credentials from applications running in Azure Virtual Machines (VMs), Function apps, Virtual Machine Scale Sets, and other services. By using managed identities for Azure resources together with Azure AD authentication, you can avoid storing credentials with your applications that run in the cloud. </t>
-        </is>
-      </c>
+          <t>Azure Spring Apps permits two deployments for every app, only one of which receives production traffic. You can achieve zero downtime with blue green deployment strategies. Blue green deployment is only available in Standard and Enterprise tiers. You could automate deployment using CI/CD with ADO/GitHub actions</t>
+        </is>
+      </c>
+      <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -38937,15 +38969,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J734" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J734" s="13" t="n"/>
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38957,32 +38985,28 @@
     <row r="735">
       <c r="A735" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Use least privilege data plane RBAC</t>
-        </is>
-      </c>
-      <c r="E735" s="18" t="inlineStr">
-        <is>
-          <t>When creating permissions, provide fine-grained control over a client's access to Azure Event Hub. Permissions in Azure Event Hub can and should be scoped to the individual resource level e.g. consumer group, event hub entity, event hub namespaces, etc.</t>
-        </is>
-      </c>
+          <t>Azure Spring Apps instances could be created in multiple regions for your applications and traffic could be routed by Traffic Manager/Front Door.</t>
+        </is>
+      </c>
+      <c r="E735" s="18" t="n"/>
       <c r="F735" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -38996,15 +39020,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J735" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J735" s="13" t="n"/>
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -39016,29 +39036,25 @@
     <row r="736">
       <c r="A736" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Enable logging for security investigation. Use Azure Monitor to captured metrics and logs such as resource logs, runtime audit logs and Kafka logs</t>
-        </is>
-      </c>
-      <c r="E736" s="18" t="inlineStr">
-        <is>
-          <t>Azure Event Hub resource logs include operational logs, virtual network and Kafka logs. Runtime audit logs capture aggregated diagnostic information for all data plane access operations (such as send or receive events) in Event Hubs.</t>
-        </is>
-      </c>
+          <t>In supported region, Azure Spring Apps can be deployed as zone redundant, which means that instances are automatically distributed across availability zones. This feature is only available in Standard and Enterprise tiers.</t>
+        </is>
+      </c>
+      <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -39055,15 +39071,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J736" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -39075,29 +39087,25 @@
     <row r="737">
       <c r="A737" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>Consider using private endpoints to access Azure Event Hub and disable public network access when applicable.</t>
-        </is>
-      </c>
-      <c r="E737" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azure Event Hub by default has a public IP address and is Internet-reachable. Private endpoints allow traffic between your virtual network and Azure Event Hub traverses over the Microsoft backbone network. In addition to that, you should disable public endpoints if those are not used. </t>
-        </is>
-      </c>
+          <t>Use more than 1 app instance for your apps</t>
+        </is>
+      </c>
+      <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -39114,15 +39122,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J737" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J737" s="13" t="n"/>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -39134,29 +39138,25 @@
     <row r="738">
       <c r="A738" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Spring Apps Review</t>
         </is>
       </c>
       <c r="B738" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C738" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Spring Apps</t>
         </is>
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Consider only allowing access to Azure Event Hub namespace from specific IP addresses or ranges</t>
-        </is>
-      </c>
-      <c r="E738" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">With IP firewall, you can restrict public endpoint further to only a set of IPv4 addresses or IPv4 address ranges in CIDR (Classless Inter-Domain Routing) notation. </t>
-        </is>
-      </c>
+          <t>Monitor Azure Spring Apps with logs, metrics and tracing. Integrate ASA with application insights and track failures and create workbooks.</t>
+        </is>
+      </c>
+      <c r="E738" s="18" t="n"/>
       <c r="F738" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -39173,15 +39173,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J738" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J738" s="13" t="n"/>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>7504c230-6035-4183-95a5-85762acc6075</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -39208,7 +39204,7 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps permits two deployments for every app, only one of which receives production traffic. You can achieve zero downtime with blue green deployment strategies. Blue green deployment is only available in Standard and Enterprise tiers. You could automate deployment using CI/CD with ADO/GitHub actions</t>
+          <t>Set up autoscaling in Spring Cloud Gateway</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -39232,7 +39228,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>6d8e32a8-3892-479d-a40b-10f6b4f6f298</t>
+          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39259,13 +39255,13 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps instances could be created in multiple regions for your applications and traffic could be routed by Traffic Manager/Front Door.</t>
+          <t>Enable autoscale for the apps with Standard consumption &amp; dedicated plan.</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39283,7 +39279,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>fbcb40ac-9480-4a6d-bcf4-8081252a6716</t>
+          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39310,7 +39306,7 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>In supported region, Azure Spring Apps can be deployed as zone redundant, which means that instances are automatically distributed across availability zones. This feature is only available in Standard and Enterprise tiers.</t>
+          <t>Use Enterprise plan for commercial support of spring boot for mission critical apps. With other tiers you get OSS support.</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
@@ -39334,7 +39330,7 @@
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>ff1ae6a7-9301-4feb-9d11-56cd72f1d4ef</t>
+          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39346,28 +39342,32 @@
     <row r="742">
       <c r="A742" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B742" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C742" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Use more than 1 app instance for your apps</t>
-        </is>
-      </c>
-      <c r="E742" s="18" t="n"/>
+          <t>Disable Azure Container Registry image export</t>
+        </is>
+      </c>
+      <c r="E742" s="18" t="inlineStr">
+        <is>
+          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
+        </is>
+      </c>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39385,7 +39385,7 @@
       <c r="K742" s="19" t="n"/>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>ffc735ad-fbb1-4802-b43f-ad6387c4c066</t>
+          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39397,28 +39397,32 @@
     <row r="743">
       <c r="A743" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B743" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C743" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Monitor Azure Spring Apps with logs, metrics and tracing. Integrate ASA with application insights and track failures and create workbooks.</t>
-        </is>
-      </c>
-      <c r="E743" s="18" t="n"/>
+          <t>Enable Azure Policies for Azure Container Registry</t>
+        </is>
+      </c>
+      <c r="E743" s="18" t="inlineStr">
+        <is>
+          <t>Enable audit compliance visibility by enabling Azure Policy for Azure Container Registry</t>
+        </is>
+      </c>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39436,7 +39440,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>7504c230-6035-4183-95a5-85762acc6075</t>
+          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39448,28 +39452,32 @@
     <row r="744">
       <c r="A744" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Set up autoscaling in Spring Cloud Gateway</t>
-        </is>
-      </c>
-      <c r="E744" s="18" t="n"/>
+          <t>Sign and Verify containers with notation (Notary v2)</t>
+        </is>
+      </c>
+      <c r="E744" s="18" t="inlineStr">
+        <is>
+          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by?notation?with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the?az?or?oras?CLI commands.</t>
+        </is>
+      </c>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39487,7 +39495,7 @@
       <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>1eb48d58-3eec-4ef5-80b0-d2b0dde3f0c6</t>
+          <t>d345293c-7639-4637-a551-c5c04e401955</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39499,28 +39507,32 @@
     <row r="745">
       <c r="A745" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B745" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Enable autoscale for the apps with Standard consumption &amp; dedicated plan.</t>
-        </is>
-      </c>
-      <c r="E745" s="18" t="n"/>
+          <t>Encrypt registry with a customer managed key</t>
+        </is>
+      </c>
+      <c r="E745" s="18" t="inlineStr">
+        <is>
+          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
+        </is>
+      </c>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39538,7 +39550,7 @@
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>97411607-b6fd-4335-99d1-9885faf4e392</t>
+          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39550,28 +39562,32 @@
     <row r="746">
       <c r="A746" s="18" t="inlineStr">
         <is>
-          <t>Azure Spring Apps Review</t>
+          <t>Azure Container Registry Security Review</t>
         </is>
       </c>
       <c r="B746" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C746" s="18" t="inlineStr">
         <is>
-          <t>Spring Apps</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>Use Enterprise plan for commercial support of spring boot for mission critical apps. With other tiers you get OSS support.</t>
-        </is>
-      </c>
-      <c r="E746" s="18" t="n"/>
+          <t>Use Managed Identities to connect instead of Service Principals</t>
+        </is>
+      </c>
+      <c r="E746" s="18" t="inlineStr">
+        <is>
+          <t>Use managed identities to secure ACRPull/Push RBAC access from client applications</t>
+        </is>
+      </c>
       <c r="F746" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -39589,7 +39605,7 @@
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>dfcaffd1-d27c-4ef2-998d-64c1df3a7ac3</t>
+          <t>8f42d78e-79dc-47b3-9bd2-a1a27e7a8e90</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39616,12 +39632,12 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Disable Azure Container Registry image export</t>
+          <t>Disable local authentication for management plane access</t>
         </is>
       </c>
       <c r="E747" s="18" t="inlineStr">
         <is>
-          <t>Disable image export to prevent data exfiltration. Note that this will prevent image import of images into another ACR instance.</t>
+          <t>The local Administrator account is disabled by default and should not be enabled. Use either Token or RBAC-based access methods instead</t>
         </is>
       </c>
       <c r="F747" s="18" t="inlineStr">
@@ -39644,7 +39660,7 @@
       <c r="K747" s="19" t="n"/>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a880-37f5e6bfcb9e</t>
+          <t>be0e38ce-e297-411b-b363-caaab79b198d</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39671,12 +39687,12 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Enable Azure Policies for Azure Container Registry</t>
+          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
         </is>
       </c>
       <c r="E748" s="18" t="inlineStr">
         <is>
-          <t>Enable audit compliance visibility by enabling Azure Policy for Azure Container Registry</t>
+          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
         </is>
       </c>
       <c r="F748" s="18" t="inlineStr">
@@ -39699,7 +39715,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>d503547c-d447-4e82-9128-a7100f1cac6d</t>
+          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39726,17 +39742,17 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Sign and Verify containers with notation (Notary v2)</t>
+          <t>Disable Anonymous pull access</t>
         </is>
       </c>
       <c r="E749" s="18" t="inlineStr">
         <is>
-          <t>The Azure Key Vault (AKV) is used to store a signing key that can be utilized by?notation?with the notation AKV plugin (azure-kv) to sign and verify container images and other artifacts. The Azure Container Registry (ACR) allows you to attach these signatures using the?az?or?oras?CLI commands.</t>
+          <t>Disable anonymous pull/push access</t>
         </is>
       </c>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39754,7 +39770,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>d345293c-7639-4637-a551-c5c04e401955</t>
+          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39781,17 +39797,17 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Encrypt registry with a customer managed key</t>
+          <t>Disable repository-scoped access tokens</t>
         </is>
       </c>
       <c r="E750" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry automatically encrypts images and other artifacts that you store. By default, Azure automatically encrypts the registry content at rest by using service-managed keys. By using a customer-managed key, you can supplement default encryption with an additional encryption layer.</t>
+          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
         </is>
       </c>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39809,7 +39825,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>0bd05dc2-efd5-4d76-8d41-d2500cc47b49</t>
+          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39836,12 +39852,12 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Use Managed Identities to connect instead of Service Principals</t>
+          <t>Deploy images from a trusted environment</t>
         </is>
       </c>
       <c r="E751" s="18" t="inlineStr">
         <is>
-          <t>Use managed identities to secure ACRPull/Push RBAC access from client applications</t>
+          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
         </is>
       </c>
       <c r="F751" s="18" t="inlineStr">
@@ -39855,16 +39871,12 @@
         </is>
       </c>
       <c r="H751" s="18" t="n"/>
-      <c r="I751" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I751" s="13" t="n"/>
       <c r="J751" s="13" t="n"/>
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>8f42d78e-79dc-47b3-9bd2-a1a27e7a8e90</t>
+          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39891,17 +39903,17 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Disable local authentication for management plane access</t>
+          <t>Disable Azure ARM audience tokens for authentication</t>
         </is>
       </c>
       <c r="E752" s="18" t="inlineStr">
         <is>
-          <t>The local Administrator account is disabled by default and should not be enabled. Use either Token or RBAC-based access methods instead</t>
+          <t>Only tokens with an ACR audience can be used for authentication. Used when enabling Conditional access policies for ACR</t>
         </is>
       </c>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39919,7 +39931,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>be0e38ce-e297-411b-b363-caaab79b198d</t>
+          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39946,17 +39958,17 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Assign AcrPull &amp; AcrPush RBAC roles rather than granting Administrative access to identity principals</t>
+          <t>Enable diagnostics logging</t>
         </is>
       </c>
       <c r="E753" s="18" t="inlineStr">
         <is>
-          <t>Disable Administrator account and assign RBAC roles to principals for ACR Pull/Push operations</t>
+          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
         </is>
       </c>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -39974,7 +39986,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>387e5ced-126c-4d13-8af5-b20c6998a646</t>
+          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -40001,12 +40013,12 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Disable Anonymous pull access</t>
+          <t>Control inbound network access with Private Link</t>
         </is>
       </c>
       <c r="E754" s="18" t="inlineStr">
         <is>
-          <t>Disable anonymous pull/push access</t>
+          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
         </is>
       </c>
       <c r="F754" s="18" t="inlineStr">
@@ -40029,7 +40041,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>e338997e-41c7-47d7-acf6-a62a1194956d</t>
+          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -40056,17 +40068,17 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Disable repository-scoped access tokens</t>
+          <t>Disable Public Network access</t>
         </is>
       </c>
       <c r="E755" s="18" t="inlineStr">
         <is>
-          <t>Token authentication doesn't support assignment to an AAD principal. Any tokens provided are able to be used by anyone who can access the token</t>
+          <t>Disable public network access if inbound network access is secured using Private Link</t>
         </is>
       </c>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -40084,7 +40096,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>698dc3a2-fd27-4b2e-8870-1a1252beedf6</t>
+          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -40111,17 +40123,17 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Deploy images from a trusted environment</t>
+          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
         </is>
       </c>
       <c r="E756" s="18" t="inlineStr">
         <is>
-          <t>Deploy container images to an ACR behind a Private endpoint within a trusted network</t>
+          <t>Only the ACR Premium SKU supports Private Link access</t>
         </is>
       </c>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -40130,12 +40142,16 @@
         </is>
       </c>
       <c r="H756" s="18" t="n"/>
-      <c r="I756" s="13" t="n"/>
+      <c r="I756" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J756" s="13" t="n"/>
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>b3bec3d4-f343-47c1-936d-b55f27a71eee</t>
+          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -40162,17 +40178,17 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>Disable Azure ARM audience tokens for authentication</t>
+          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
         </is>
       </c>
       <c r="E757" s="18" t="inlineStr">
         <is>
-          <t>Only tokens with an ACR audience can be used for authentication. Used when enabling Conditional access policies for ACR</t>
+          <t>Azure Defender for containers or equivalent service should be used to scan container images for vulnerabilities</t>
         </is>
       </c>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -40190,7 +40206,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>3a041fd3-2947-498b-8288-b3c6a56ceb54</t>
+          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -40217,12 +40233,12 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Enable diagnostics logging</t>
+          <t>Deploy validated container images</t>
         </is>
       </c>
       <c r="E758" s="18" t="inlineStr">
         <is>
-          <t>Set up a diagnostic setting to send 'repositoryEvents' &amp; 'LoginEvents' to Log Analytics as the central destination for logging and monitoring. This allows you to monitor control plane activity on the ACR resource itself.</t>
+          <t>Deploy trusted code that was validated and scanned for vulnerabilities according to DevSecOps practices.</t>
         </is>
       </c>
       <c r="F758" s="18" t="inlineStr">
@@ -40236,16 +40252,12 @@
         </is>
       </c>
       <c r="H758" s="18" t="n"/>
-      <c r="I758" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I758" s="13" t="n"/>
       <c r="J758" s="13" t="n"/>
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>8a488cde-c486-42bc-9bd2-1be77f26e5e6</t>
+          <t>4451e1a2-d345-4293-a763-9637a551c5c0</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40272,17 +40284,17 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Control inbound network access with Private Link</t>
+          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
         </is>
       </c>
       <c r="E759" s="18" t="inlineStr">
         <is>
-          <t>Service supports disabling public network access either through using service-level IP ACL filtering rule (not NSG or Azure Firewall) or using a 'Disable Public Network Access' toggle switch</t>
+          <t>Use the latest versions of supported platforms, programming languages, protocols, and frameworks.</t>
         </is>
       </c>
       <c r="F759" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -40291,16 +40303,12 @@
         </is>
       </c>
       <c r="H759" s="18" t="n"/>
-      <c r="I759" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I759" s="13" t="n"/>
       <c r="J759" s="13" t="n"/>
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>21d41d25-00b7-407a-b9ea-b40fd3290798</t>
+          <t>4e401955-387e-45ce-b126-cd132af5b20c</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40312,32 +40320,28 @@
     <row r="760">
       <c r="A760" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B760" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Disable Public Network access</t>
-        </is>
-      </c>
-      <c r="E760" s="18" t="inlineStr">
-        <is>
-          <t>Disable public network access if inbound network access is secured using Private Link</t>
-        </is>
-      </c>
+          <t>Enable zone redundancy for Azure Cache for Redis. Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
+        </is>
+      </c>
+      <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
@@ -40355,7 +40359,7 @@
       <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-62f2aee4553a</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40367,29 +40371,25 @@
     <row r="761">
       <c r="A761" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>Use an Azure Container Registry SKU that supports Private Link (Premium SKU)</t>
-        </is>
-      </c>
-      <c r="E761" s="18" t="inlineStr">
-        <is>
-          <t>Only the ACR Premium SKU supports Private Link access</t>
-        </is>
-      </c>
+          <t>Configure data persistence for an Azure Cache for Redis instance. Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
+        </is>
+      </c>
+      <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -40410,7 +40410,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>fc833934-8b26-42d6-ac5f-512925498f6d</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40422,32 +40422,28 @@
     <row r="762">
       <c r="A762" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>Enable Defender for Containers to scan Azure Container Registry for vulnerabilities</t>
-        </is>
-      </c>
-      <c r="E762" s="18" t="inlineStr">
-        <is>
-          <t>Azure Defender for containers or equivalent service should be used to scan container images for vulnerabilities</t>
-        </is>
-      </c>
+          <t>Use Geo-redundant storage account to persist Azure Cache for Redis data, or zonally redundant where geo-redundancy is not available</t>
+        </is>
+      </c>
+      <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40465,7 +40461,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>bad37dac-43bc-46ce-8d7a-a9b24604489a</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40477,29 +40473,25 @@
     <row r="763">
       <c r="A763" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B763" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C763" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Deploy validated container images</t>
-        </is>
-      </c>
-      <c r="E763" s="18" t="inlineStr">
-        <is>
-          <t>Deploy trusted code that was validated and scanned for vulnerabilities according to DevSecOps practices.</t>
-        </is>
-      </c>
+          <t>Configure passive geo-replication for Premium Azure Cache for Redis instances. Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
+        </is>
+      </c>
+      <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -40511,12 +40503,16 @@
         </is>
       </c>
       <c r="H763" s="18" t="n"/>
-      <c r="I763" s="13" t="n"/>
+      <c r="I763" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J763" s="13" t="n"/>
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>4451e1a2-d345-4293-a763-9637a551c5c0</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40528,32 +40524,32 @@
     <row r="764">
       <c r="A764" s="18" t="inlineStr">
         <is>
-          <t>Azure Container Registry Security Review</t>
+          <t>Resiliency Review</t>
         </is>
       </c>
       <c r="B764" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C764" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>VMSS</t>
         </is>
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Use up-to-date platforms, languages, protocols and frameworks</t>
+          <t>Enable automatic instance repairs for enhanced VM Scale Sets resiliency</t>
         </is>
       </c>
       <c r="E764" s="18" t="inlineStr">
         <is>
-          <t>Use the latest versions of supported platforms, programming languages, protocols, and frameworks.</t>
+          <t>Automatic instance repairs ensure that unhealthy instances are promptly identified and replaced, maintaining a set of healthy instances within your scale set.</t>
         </is>
       </c>
       <c r="F764" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -40562,12 +40558,16 @@
         </is>
       </c>
       <c r="H764" s="18" t="n"/>
-      <c r="I764" s="13" t="n"/>
+      <c r="I764" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J764" s="13" t="n"/>
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>4e401955-387e-45ce-b126-cd132af5b20c</t>
+          <t>7e13c105-675c-41e9-95b4-59837ff7ae7c</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40579,7 +40579,7 @@
     <row r="765">
       <c r="A765" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Resiliency Review</t>
         </is>
       </c>
       <c r="B765" s="18" t="inlineStr">
@@ -40589,15 +40589,19 @@
       </c>
       <c r="C765" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>Enable zone redundancy for Azure Cache for Redis. Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
-        </is>
-      </c>
-      <c r="E765" s="18" t="n"/>
+          <t>Consider Azure Backup to meet your resiliency requirements for Azure VMs</t>
+        </is>
+      </c>
+      <c r="E765" s="18" t="inlineStr">
+        <is>
+          <t>Ensure that Azure Backup is utilized appropriately to meet your organization's resiliency requirements for Azure virtual machines (VMs).</t>
+        </is>
+      </c>
       <c r="F765" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -40618,7 +40622,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>4d874a74-8b66-42d6-b150-512a66498f6d</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40630,7 +40634,7 @@
     <row r="766">
       <c r="A766" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Resiliency Review</t>
         </is>
       </c>
       <c r="B766" s="18" t="inlineStr">
@@ -40640,18 +40644,22 @@
       </c>
       <c r="C766" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Configure data persistence for an Azure Cache for Redis instance. Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
-        </is>
-      </c>
-      <c r="E766" s="18" t="n"/>
+          <t>Use Premium or Ultra disks for production VMs</t>
+        </is>
+      </c>
+      <c r="E766" s="18" t="inlineStr">
+        <is>
+          <t>Single Instance VMs using Premium SSD or Ultra Disk for all Operating System Disks and Data Disks are guaranteed to have Virtual Machine Connectivity of at least 99.9%</t>
+        </is>
+      </c>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40669,7 +40677,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>8052d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40681,7 +40689,7 @@
     <row r="767">
       <c r="A767" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Resiliency Review</t>
         </is>
       </c>
       <c r="B767" s="18" t="inlineStr">
@@ -40691,18 +40699,22 @@
       </c>
       <c r="C767" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Use Geo-redundant storage account to persist Azure Cache for Redis data, or zonally redundant where geo-redundancy is not available</t>
-        </is>
-      </c>
-      <c r="E767" s="18" t="n"/>
+          <t>Ensure Managed Disks are used for all VMs</t>
+        </is>
+      </c>
+      <c r="E767" s="18" t="inlineStr">
+        <is>
+          <t>Azure automatically replicates managed disks within a region to ensure data durability and protect against single-point failures.</t>
+        </is>
+      </c>
       <c r="F767" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -40720,7 +40732,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>b31e38c3-f298-412b-8363-cffe179b599d</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40732,7 +40744,7 @@
     <row r="768">
       <c r="A768" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Resiliency Review</t>
         </is>
       </c>
       <c r="B768" s="18" t="inlineStr">
@@ -40742,15 +40754,19 @@
       </c>
       <c r="C768" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Configure passive geo-replication for Premium Azure Cache for Redis instances. Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
-        </is>
-      </c>
-      <c r="E768" s="18" t="n"/>
+          <t>Do not use the Temp disk for anything that is not acceptable to be lost</t>
+        </is>
+      </c>
+      <c r="E768" s="18" t="inlineStr">
+        <is>
+          <t>Temporary disks are intended for short-term storage of non-persistent data such as page files, swap files, or SQL Server tempdb. Storing persistent data on temporary disks can lead to data loss during maintenance events or VM redeployment.</t>
+        </is>
+      </c>
       <c r="F768" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -40771,7 +40787,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>e0d5973c-d4ce-432c-8881-37f6f7c4c0d4</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40793,22 +40809,22 @@
       </c>
       <c r="C769" s="18" t="inlineStr">
         <is>
-          <t>VMSS</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Enable automatic instance repairs for enhanced VM Scale Sets resiliency</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported</t>
         </is>
       </c>
       <c r="E769" s="18" t="inlineStr">
         <is>
-          <t>Automatic instance repairs ensure that unhealthy instances are promptly identified and replaced, maintaining a set of healthy instances within your scale set.</t>
+          <t>Co-locate your compute, storage, networking, and data resources across an availability zone, and replicate this arrangement in other availability zones.</t>
         </is>
       </c>
       <c r="F769" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -40826,7 +40842,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>7e13c105-675c-41e9-95b4-59837ff7ae7c</t>
+          <t>e514548d-2447-4ec6-9138-b8200f1ce16e</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40853,17 +40869,17 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Consider Azure Backup to meet your resiliency requirements for Azure VMs</t>
+          <t>For regions that do not support Availability Zones deploy VMs into Availability Sets</t>
         </is>
       </c>
       <c r="E770" s="18" t="inlineStr">
         <is>
-          <t>Ensure that Azure Backup is utilized appropriately to meet your organization's resiliency requirements for Azure virtual machines (VMs).</t>
+          <t>Use at least two VMs in Availability Sets to isolate VMs on different fault and update domains.</t>
         </is>
       </c>
       <c r="F770" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
@@ -40881,7 +40897,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>4d874a74-8b66-42d6-b150-512a66498f6d</t>
+          <t>5a785d6f-e96c-496a-b884-4cf3b2b38c88</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40908,12 +40924,12 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Use Premium or Ultra disks for production VMs</t>
+          <t>Avoid running a production workload on a single VM</t>
         </is>
       </c>
       <c r="E771" s="18" t="inlineStr">
         <is>
-          <t>Single Instance VMs using Premium SSD or Ultra Disk for all Operating System Disks and Data Disks are guaranteed to have Virtual Machine Connectivity of at least 99.9%</t>
+          <t>Azure provides multiple options for VM redundancy to meet different requirements (Availability Zones, Virtual Machine Scale Sets, Availability Sets, Azure Site Recovery)</t>
         </is>
       </c>
       <c r="F771" s="18" t="inlineStr">
@@ -40936,7 +40952,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>8052d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>6ba2c021-4991-414a-9d3c-e574dccbd979</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40963,12 +40979,12 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Ensure Managed Disks are used for all VMs</t>
+          <t>For Azure and on-premises VMs (Hyper-V/Phyiscal/VMware) with low RTO requirements use Azure Site Recovery</t>
         </is>
       </c>
       <c r="E772" s="18" t="inlineStr">
         <is>
-          <t>Azure automatically replicates managed disks within a region to ensure data durability and protect against single-point failures.</t>
+          <t>Azure Site Recovery enables you to achieve low RTO (Recovery Time Objective) for your Azure and hybrid VMs by providing continuous replication and failover capabilities.</t>
         </is>
       </c>
       <c r="F772" s="18" t="inlineStr">
@@ -40991,7 +41007,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>b31e38c3-f298-412b-8363-cffe179b599d</t>
+          <t>2a6bcca2-b5fe-4a1e-af3d-d95d48c7c891</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -41018,17 +41034,17 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Do not use the Temp disk for anything that is not acceptable to be lost</t>
+          <t>Use Capacity Reservations for critical workloads that require guaranteed capacity</t>
         </is>
       </c>
       <c r="E773" s="18" t="inlineStr">
         <is>
-          <t>Temporary disks are intended for short-term storage of non-persistent data such as page files, swap files, or SQL Server tempdb. Storing persistent data on temporary disks can lead to data loss during maintenance events or VM redeployment.</t>
+          <t>By using Capacity Reservations, you can effectively manage capacity for critical workloads, ensuring resource availability in specified regions.</t>
         </is>
       </c>
       <c r="F773" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
@@ -41046,7 +41062,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4ce-432c-8881-37f6f7c4c0d4</t>
+          <t>bd7bb012-f7b9-45e0-9e15-8e3ea3992c2d</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -41073,12 +41089,12 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported</t>
+          <t>Increase quotas in DR region before testing failover with ASR</t>
         </is>
       </c>
       <c r="E774" s="18" t="inlineStr">
         <is>
-          <t>Co-locate your compute, storage, networking, and data resources across an availability zone, and replicate this arrangement in other availability zones.</t>
+          <t>By ensuring that the necessary quotas are increased in your DR region before testing failover with ASR, you can avoid any potential resource constraints during the recovery process for failed over VMs.</t>
         </is>
       </c>
       <c r="F774" s="18" t="inlineStr">
@@ -41101,7 +41117,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>e514548d-2447-4ec6-9138-b8200f1ce16e</t>
+          <t>e6e2065b-3a76-4af4-a691-e8939ada4666</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -41128,17 +41144,17 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>For regions that do not support Availability Zones deploy VMs into Availability Sets</t>
+          <t>Utilize Scheduled Events to prepare for VM maintenance</t>
         </is>
       </c>
       <c r="E775" s="18" t="inlineStr">
         <is>
-          <t>Use at least two VMs in Availability Sets to isolate VMs on different fault and update domains.</t>
+          <t>Scheduled Events is an Azure Metadata Service that provides information about upcoming maintenance events for virtual machines (VMs). By leveraging Scheduled Events, you can proactively prepare your applications for VM maintenance, minimizing disruption and improving the availability of your VMs.</t>
         </is>
       </c>
       <c r="F775" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -41156,7 +41172,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>5a785d6f-e96c-496a-b884-4cf3b2b38c88</t>
+          <t>6d3b475a-5c7a-4cbe-99bb-e64dd8902e87</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -41178,22 +41194,22 @@
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM</t>
+          <t>Choose the most appropriate data redundancy option for Azure Storage based on your requirements</t>
         </is>
       </c>
       <c r="E776" s="18" t="inlineStr">
         <is>
-          <t>Azure provides multiple options for VM redundancy to meet different requirements (Availability Zones, Virtual Machine Scale Sets, Availability Sets, Azure Site Recovery)</t>
+          <t>Use Zone-redundant Storage (ZRS) in the primary region for scenarios that require high availability and for restricting replication to a particular country or region. For protection against regional disasters, use Geo-zone-redundant Storage (GZRS), which combines ZRS in the primary region with geo-replication to a secondary region?.</t>
         </is>
       </c>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -41211,7 +41227,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>6ba2c021-4991-414a-9d3c-e574dccbd979</t>
+          <t>48c7c891-dcb1-4f7d-9769-ae568ba38d4a</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -41233,22 +41249,22 @@
       </c>
       <c r="C777" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>For Azure and on-premises VMs (Hyper-V/Phyiscal/VMware) with low RTO requirements use Azure Site Recovery</t>
+          <t>Apply a Delete lock to prevent accidental or malicious deletion of storage accounts</t>
         </is>
       </c>
       <c r="E777" s="18" t="inlineStr">
         <is>
-          <t>Azure Site Recovery enables you to achieve low RTO (Recovery Time Objective) for your Azure and hybrid VMs by providing continuous replication and failover capabilities.</t>
+          <t>Assigning a Delete lock to your storage account helps protect the availability of your data, minimizing the risk of disruptions to your business operations.</t>
         </is>
       </c>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -41266,7 +41282,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>2a6bcca2-b5fe-4a1e-af3d-d95d48c7c891</t>
+          <t>85e2213d-bd7b-4b01-8f7b-95e06e158e3e</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41288,17 +41304,17 @@
       </c>
       <c r="C778" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Use Capacity Reservations for critical workloads that require guaranteed capacity</t>
+          <t>Enable soft delete for Storage Account Containers</t>
         </is>
       </c>
       <c r="E778" s="18" t="inlineStr">
         <is>
-          <t>By using Capacity Reservations, you can effectively manage capacity for critical workloads, ensuring resource availability in specified regions.</t>
+          <t>Container soft delete protects your data from being accidentally deleted by maintaining the deleted data in the system for a specified period of time.</t>
         </is>
       </c>
       <c r="F778" s="18" t="inlineStr">
@@ -41321,7 +41337,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>bd7bb012-f7b9-45e0-9e15-8e3ea3992c2d</t>
+          <t>a3992c2d-e6e2-4065-a3a7-6af4a691e893</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41343,22 +41359,22 @@
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Storage</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Increase quotas in DR region before testing failover with ASR</t>
+          <t>Enable soft delete for blobs</t>
         </is>
       </c>
       <c r="E779" s="18" t="inlineStr">
         <is>
-          <t>By ensuring that the necessary quotas are increased in your DR region before testing failover with ASR, you can avoid any potential resource constraints during the recovery process for failed over VMs.</t>
+          <t>Blob soft delete protects an individual blob and its versions, snapshots, and metadata from accidental deletes or overwrites by maintaining the deleted data in the system for a specified period of time.</t>
         </is>
       </c>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41376,7 +41392,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>e6e2065b-3a76-4af4-a691-e8939ada4666</t>
+          <t>9ada4666-7e13-4c10-96b9-153d89f89dc7</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41398,22 +41414,22 @@
       </c>
       <c r="C780" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Utilize Scheduled Events to prepare for VM maintenance</t>
+          <t>Enable Azure Backup enhanced soft delete for improved data protection and recovery</t>
         </is>
       </c>
       <c r="E780" s="18" t="inlineStr">
         <is>
-          <t>Scheduled Events is an Azure Metadata Service that provides information about upcoming maintenance events for virtual machines (VMs). By leveraging Scheduled Events, you can proactively prepare your applications for VM maintenance, minimizing disruption and improving the availability of your VMs.</t>
+          <t>Azure Backup enhanced soft delete provides critical protection against ransomware attacks by retaining deleted backups, enabling recovery from potential ransomware encryption or deletion.</t>
         </is>
       </c>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41431,7 +41447,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>6d3b475a-5c7a-4cbe-99bb-e64dd8902e87</t>
+          <t>b44be3b1-a27f-48b9-b91b-e1038df03a82</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41453,22 +41469,22 @@
       </c>
       <c r="C781" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Choose the most appropriate data redundancy option for Azure Storage based on your requirements</t>
+          <t>Implement multi-user authorization for Azure Backup to ensure secure and controlled access to backup resources</t>
         </is>
       </c>
       <c r="E781" s="18" t="inlineStr">
         <is>
-          <t>Use Zone-redundant Storage (ZRS) in the primary region for scenarios that require high availability and for restricting replication to a particular country or region. For protection against regional disasters, use Geo-zone-redundant Storage (GZRS), which combines ZRS in the primary region with geo-replication to a secondary region?.</t>
+          <t>Azure Backup's multi-user authorization enables fine-grained control over user access to backup resources, allowing you to restrict privileges and ensure proper authentication and authorization for backup operations.</t>
         </is>
       </c>
       <c r="F781" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -41486,7 +41502,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>48c7c891-dcb1-4f7d-9769-ae568ba38d4a</t>
+          <t>2cd463cb-bbc8-4ac2-a9eb-c92a43da1dae</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41508,17 +41524,17 @@
       </c>
       <c r="C782" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>Apply a Delete lock to prevent accidental or malicious deletion of storage accounts</t>
+          <t>Implement Immutable Storage for your vaults to protect against ransomware and prevent unauthorized modifications to backups</t>
         </is>
       </c>
       <c r="E782" s="18" t="inlineStr">
         <is>
-          <t>Assigning a Delete lock to your storage account helps protect the availability of your data, minimizing the risk of disruptions to your business operations.</t>
+          <t>Azure Immutable Storage provides an additional layer of security by ensuring that backup data stored in the vault cannot be modified or deleted for a specified retention period. This helps safeguard your backups from ransomware attacks that may attempt to compromise or manipulate your backup data.</t>
         </is>
       </c>
       <c r="F782" s="18" t="inlineStr">
@@ -41541,7 +41557,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>85e2213d-bd7b-4b01-8f7b-95e06e158e3e</t>
+          <t>2cc88147-0607-4c1c-aa0e-614658dd458e</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41563,17 +41579,17 @@
       </c>
       <c r="C783" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Enable soft delete for Storage Account Containers</t>
+          <t>Implement DNS Failover using Azure DNS Private Resolvers</t>
         </is>
       </c>
       <c r="E783" s="18" t="inlineStr">
         <is>
-          <t>Container soft delete protects your data from being accidentally deleted by maintaining the deleted data in the system for a specified period of time.</t>
+          <t>To eliminate a single point of failure in your on-premises DNS services and ensure reliable DNS resolution during business continuity and disaster recovery scenarios, it is recommended to utilize Azure DNS Private Resolvers in multiple regions. By deploying two or more Azure DNS private resolvers across different regions, you can enable DNS failover and achieve resiliency in your DNS infrastructure.</t>
         </is>
       </c>
       <c r="F783" s="18" t="inlineStr">
@@ -41596,7 +41612,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>a3992c2d-e6e2-4065-a3a7-6af4a691e893</t>
+          <t>43da1dae-2cc8-4814-9060-7c1cca0e6146</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41618,22 +41634,22 @@
       </c>
       <c r="C784" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Data Gateways</t>
         </is>
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>Enable soft delete for blobs</t>
+          <t>Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
         </is>
       </c>
       <c r="E784" s="18" t="inlineStr">
         <is>
-          <t>Blob soft delete protects an individual blob and its versions, snapshots, and metadata from accidental deletes or overwrites by maintaining the deleted data in the system for a specified period of time.</t>
+          <t>Use an on-premises data gateway cluster to avoid single points of failure and to load balance traffic across gateways.</t>
         </is>
       </c>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41651,7 +41667,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>9ada4666-7e13-4c10-96b9-153d89f89dc7</t>
+          <t>89f89dc7-b44b-4e3b-8a27-f8b9e91be103</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41673,22 +41689,22 @@
       </c>
       <c r="C785" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Network Virtual Appliances</t>
         </is>
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>Enable Azure Backup enhanced soft delete for improved data protection and recovery</t>
+          <t>Deploy Network Virtual Appliances (NVAs) in a vendor supported configuration for High Availability</t>
         </is>
       </c>
       <c r="E785" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup enhanced soft delete provides critical protection against ransomware attacks by retaining deleted backups, enabling recovery from potential ransomware encryption or deletion.</t>
+          <t>When choosing the best option for deploying NVAs in Azure, it is crucial to consider the vendor's recommendations and validate that the specific design has been vetted and validated by the NVA vendor. The vendor should also provide the necessary NVA configuration for seamless integration in Azure.</t>
         </is>
       </c>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41706,7 +41722,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>b44be3b1-a27f-48b9-b91b-e1038df03a82</t>
+          <t>8b1188b3-c6a4-46ce-a544-451e192d3442</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41718,7 +41734,7 @@
     <row r="786">
       <c r="A786" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B786" s="18" t="inlineStr">
@@ -41728,22 +41744,18 @@
       </c>
       <c r="C786" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>Implement multi-user authorization for Azure Backup to ensure secure and controlled access to backup resources</t>
-        </is>
-      </c>
-      <c r="E786" s="18" t="inlineStr">
-        <is>
-          <t>Azure Backup's multi-user authorization enables fine-grained control over user access to backup resources, allowing you to restrict privileges and ensure proper authentication and authorization for backup operations.</t>
-        </is>
-      </c>
+          <t>Leverage  Availability Zones if regionally applicable (this is automatically enabled)</t>
+        </is>
+      </c>
+      <c r="E786" s="18" t="n"/>
       <c r="F786" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
@@ -41761,7 +41773,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>2cd463cb-bbc8-4ac2-a9eb-c92a43da1dae</t>
+          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41773,7 +41785,7 @@
     <row r="787">
       <c r="A787" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B787" s="18" t="inlineStr">
@@ -41783,22 +41795,18 @@
       </c>
       <c r="C787" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Implement Immutable Storage for your vaults to protect against ransomware and prevent unauthorized modifications to backups</t>
-        </is>
-      </c>
-      <c r="E787" s="18" t="inlineStr">
-        <is>
-          <t>Azure Immutable Storage provides an additional layer of security by ensuring that backup data stored in the vault cannot be modified or deleted for a specified retention period. This helps safeguard your backups from ransomware attacks that may attempt to compromise or manipulate your backup data.</t>
-        </is>
-      </c>
+          <t>Be aware of Microsoft-initiated failovers. These are exercised by Microsoft in rare situations to fail over all the IoT hubs from an affected region to the corresponding geo-paired region.</t>
+        </is>
+      </c>
+      <c r="E787" s="18" t="n"/>
       <c r="F787" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
@@ -41816,7 +41824,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>2cc88147-0607-4c1c-aa0e-614658dd458e</t>
+          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41828,7 +41836,7 @@
     <row r="788">
       <c r="A788" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B788" s="18" t="inlineStr">
@@ -41838,22 +41846,18 @@
       </c>
       <c r="C788" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Implement DNS Failover using Azure DNS Private Resolvers</t>
-        </is>
-      </c>
-      <c r="E788" s="18" t="inlineStr">
-        <is>
-          <t>To eliminate a single point of failure in your on-premises DNS services and ensure reliable DNS resolution during business continuity and disaster recovery scenarios, it is recommended to utilize Azure DNS Private Resolvers in multiple regions. By deploying two or more Azure DNS private resolvers across different regions, you can enable DNS failover and achieve resiliency in your DNS infrastructure.</t>
-        </is>
-      </c>
+          <t>Consider a Cross-Region DR strategy for critical workloads</t>
+        </is>
+      </c>
+      <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41871,7 +41875,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>43da1dae-2cc8-4814-9060-7c1cca0e6146</t>
+          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41883,7 +41887,7 @@
     <row r="789">
       <c r="A789" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B789" s="18" t="inlineStr">
@@ -41893,22 +41897,18 @@
       </c>
       <c r="C789" s="18" t="inlineStr">
         <is>
-          <t>Data Gateways</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Use on-premises data gateway clusters to ensure high availability for business-critical data</t>
-        </is>
-      </c>
-      <c r="E789" s="18" t="inlineStr">
-        <is>
-          <t>Use an on-premises data gateway cluster to avoid single points of failure and to load balance traffic across gateways.</t>
-        </is>
-      </c>
+          <t>Learn how to trigger a manual failover.</t>
+        </is>
+      </c>
+      <c r="E789" s="18" t="n"/>
       <c r="F789" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -41926,7 +41926,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>89f89dc7-b44b-4e3b-8a27-f8b9e91be103</t>
+          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41938,7 +41938,7 @@
     <row r="790">
       <c r="A790" s="18" t="inlineStr">
         <is>
-          <t>Resiliency Review</t>
+          <t>IoT Hub Review</t>
         </is>
       </c>
       <c r="B790" s="18" t="inlineStr">
@@ -41948,19 +41948,15 @@
       </c>
       <c r="C790" s="18" t="inlineStr">
         <is>
-          <t>Network Virtual Appliances</t>
+          <t>IoT</t>
         </is>
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Deploy Network Virtual Appliances (NVAs) in a vendor supported configuration for High Availability</t>
-        </is>
-      </c>
-      <c r="E790" s="18" t="inlineStr">
-        <is>
-          <t>When choosing the best option for deploying NVAs in Azure, it is crucial to consider the vendor's recommendations and validate that the specific design has been vetted and validated by the NVA vendor. The vendor should also provide the necessary NVA configuration for seamless integration in Azure.</t>
-        </is>
-      </c>
+          <t>Learn how to fail back after a failover.</t>
+        </is>
+      </c>
+      <c r="E790" s="18" t="n"/>
       <c r="F790" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -41981,7 +41977,7 @@
       <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>8b1188b3-c6a4-46ce-a544-451e192d3442</t>
+          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41991,50 +41987,17 @@
       <c r="Q790" s="20" t="n"/>
     </row>
     <row r="791">
-      <c r="A791" s="18" t="inlineStr">
-        <is>
-          <t>IoT Hub Review</t>
-        </is>
-      </c>
-      <c r="B791" s="18" t="inlineStr">
-        <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="C791" s="18" t="inlineStr">
-        <is>
-          <t>IoT</t>
-        </is>
-      </c>
-      <c r="D791" s="18" t="inlineStr">
-        <is>
-          <t>Leverage  Availability Zones if regionally applicable (this is automatically enabled)</t>
-        </is>
-      </c>
+      <c r="A791" s="18" t="n"/>
+      <c r="B791" s="18" t="n"/>
+      <c r="C791" s="18" t="n"/>
+      <c r="D791" s="18" t="n"/>
       <c r="E791" s="18" t="n"/>
-      <c r="F791" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="F791" s="18" t="n"/>
       <c r="H791" s="18" t="n"/>
-      <c r="I791" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I791" s="13" t="n"/>
       <c r="J791" s="13" t="n"/>
       <c r="K791" s="19" t="n"/>
-      <c r="L791" s="19" t="inlineStr">
-        <is>
-          <t>ac1d6380-f866-4bbd-a9b4-b1ee5d7908b8</t>
-        </is>
-      </c>
+      <c r="L791" s="19" t="n"/>
       <c r="M791" s="20" t="n"/>
       <c r="N791" s="20" t="n"/>
       <c r="O791" s="20" t="n"/>
@@ -42042,50 +42005,17 @@
       <c r="Q791" s="20" t="n"/>
     </row>
     <row r="792">
-      <c r="A792" s="18" t="inlineStr">
-        <is>
-          <t>IoT Hub Review</t>
-        </is>
-      </c>
-      <c r="B792" s="18" t="inlineStr">
-        <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="C792" s="18" t="inlineStr">
-        <is>
-          <t>IoT</t>
-        </is>
-      </c>
-      <c r="D792" s="18" t="inlineStr">
-        <is>
-          <t>Be aware of Microsoft-initiated failovers. These are exercised by Microsoft in rare situations to fail over all the IoT hubs from an affected region to the corresponding geo-paired region.</t>
-        </is>
-      </c>
+      <c r="A792" s="18" t="n"/>
+      <c r="B792" s="18" t="n"/>
+      <c r="C792" s="18" t="n"/>
+      <c r="D792" s="18" t="n"/>
       <c r="E792" s="18" t="n"/>
-      <c r="F792" s="18" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="F792" s="18" t="n"/>
       <c r="H792" s="18" t="n"/>
-      <c r="I792" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I792" s="13" t="n"/>
       <c r="J792" s="13" t="n"/>
       <c r="K792" s="19" t="n"/>
-      <c r="L792" s="19" t="inlineStr">
-        <is>
-          <t>35f651e8-0124-4ef7-8c57-658e38609e6e</t>
-        </is>
-      </c>
+      <c r="L792" s="19" t="n"/>
       <c r="M792" s="20" t="n"/>
       <c r="N792" s="20" t="n"/>
       <c r="O792" s="20" t="n"/>
@@ -42093,50 +42023,17 @@
       <c r="Q792" s="20" t="n"/>
     </row>
     <row r="793">
-      <c r="A793" s="18" t="inlineStr">
-        <is>
-          <t>IoT Hub Review</t>
-        </is>
-      </c>
-      <c r="B793" s="18" t="inlineStr">
-        <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="C793" s="18" t="inlineStr">
-        <is>
-          <t>IoT</t>
-        </is>
-      </c>
-      <c r="D793" s="18" t="inlineStr">
-        <is>
-          <t>Consider a Cross-Region DR strategy for critical workloads</t>
-        </is>
-      </c>
+      <c r="A793" s="18" t="n"/>
+      <c r="B793" s="18" t="n"/>
+      <c r="C793" s="18" t="n"/>
+      <c r="D793" s="18" t="n"/>
       <c r="E793" s="18" t="n"/>
-      <c r="F793" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="F793" s="18" t="n"/>
       <c r="H793" s="18" t="n"/>
-      <c r="I793" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I793" s="13" t="n"/>
       <c r="J793" s="13" t="n"/>
       <c r="K793" s="19" t="n"/>
-      <c r="L793" s="19" t="inlineStr">
-        <is>
-          <t>4ed3e490-dc06-4a1e-b467-5d0239d85540</t>
-        </is>
-      </c>
+      <c r="L793" s="19" t="n"/>
       <c r="M793" s="20" t="n"/>
       <c r="N793" s="20" t="n"/>
       <c r="O793" s="20" t="n"/>
@@ -42144,50 +42041,17 @@
       <c r="Q793" s="20" t="n"/>
     </row>
     <row r="794">
-      <c r="A794" s="18" t="inlineStr">
-        <is>
-          <t>IoT Hub Review</t>
-        </is>
-      </c>
-      <c r="B794" s="18" t="inlineStr">
-        <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="C794" s="18" t="inlineStr">
-        <is>
-          <t>IoT</t>
-        </is>
-      </c>
-      <c r="D794" s="18" t="inlineStr">
-        <is>
-          <t>Learn how to trigger a manual failover.</t>
-        </is>
-      </c>
+      <c r="A794" s="18" t="n"/>
+      <c r="B794" s="18" t="n"/>
+      <c r="C794" s="18" t="n"/>
+      <c r="D794" s="18" t="n"/>
       <c r="E794" s="18" t="n"/>
-      <c r="F794" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="F794" s="18" t="n"/>
       <c r="H794" s="18" t="n"/>
-      <c r="I794" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I794" s="13" t="n"/>
       <c r="J794" s="13" t="n"/>
       <c r="K794" s="19" t="n"/>
-      <c r="L794" s="19" t="inlineStr">
-        <is>
-          <t>a11ecab0-db47-46f7-9aa7-17764e7e45a1</t>
-        </is>
-      </c>
+      <c r="L794" s="19" t="n"/>
       <c r="M794" s="20" t="n"/>
       <c r="N794" s="20" t="n"/>
       <c r="O794" s="20" t="n"/>
@@ -42195,50 +42059,17 @@
       <c r="Q794" s="20" t="n"/>
     </row>
     <row r="795">
-      <c r="A795" s="18" t="inlineStr">
-        <is>
-          <t>IoT Hub Review</t>
-        </is>
-      </c>
-      <c r="B795" s="18" t="inlineStr">
-        <is>
-          <t>Reliability</t>
-        </is>
-      </c>
-      <c r="C795" s="18" t="inlineStr">
-        <is>
-          <t>IoT</t>
-        </is>
-      </c>
-      <c r="D795" s="18" t="inlineStr">
-        <is>
-          <t>Learn how to fail back after a failover.</t>
-        </is>
-      </c>
+      <c r="A795" s="18" t="n"/>
+      <c r="B795" s="18" t="n"/>
+      <c r="C795" s="18" t="n"/>
+      <c r="D795" s="18" t="n"/>
       <c r="E795" s="18" t="n"/>
-      <c r="F795" s="18" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>Not verified</t>
-        </is>
-      </c>
+      <c r="F795" s="18" t="n"/>
       <c r="H795" s="18" t="n"/>
-      <c r="I795" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I795" s="13" t="n"/>
       <c r="J795" s="13" t="n"/>
       <c r="K795" s="19" t="n"/>
-      <c r="L795" s="19" t="inlineStr">
-        <is>
-          <t>f9db8dfb-1194-460b-aedd-34dd6a69db22</t>
-        </is>
-      </c>
+      <c r="L795" s="19" t="n"/>
       <c r="M795" s="20" t="n"/>
       <c r="N795" s="20" t="n"/>
       <c r="O795" s="20" t="n"/>
@@ -49770,7 +49601,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G796" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G791" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -50288,7 +50119,7 @@
     <hyperlink ref="I527" r:id="rId511"/>
     <hyperlink ref="I528" r:id="rId512"/>
     <hyperlink ref="I529" r:id="rId513"/>
-    <hyperlink ref="I530" r:id="rId514"/>
+    <hyperlink ref="I531" r:id="rId514"/>
     <hyperlink ref="I532" r:id="rId515"/>
     <hyperlink ref="I533" r:id="rId516"/>
     <hyperlink ref="I534" r:id="rId517"/>
@@ -50331,14 +50162,14 @@
     <hyperlink ref="I571" r:id="rId554"/>
     <hyperlink ref="I572" r:id="rId555"/>
     <hyperlink ref="I573" r:id="rId556"/>
-    <hyperlink ref="I574" r:id="rId557"/>
-    <hyperlink ref="I575" r:id="rId558"/>
-    <hyperlink ref="I576" r:id="rId559"/>
-    <hyperlink ref="I577" r:id="rId560"/>
-    <hyperlink ref="I578" r:id="rId561"/>
-    <hyperlink ref="I589" r:id="rId562"/>
-    <hyperlink ref="I671" r:id="rId563"/>
-    <hyperlink ref="I672" r:id="rId564"/>
+    <hyperlink ref="I584" r:id="rId557"/>
+    <hyperlink ref="I666" r:id="rId558"/>
+    <hyperlink ref="I667" r:id="rId559"/>
+    <hyperlink ref="I671" r:id="rId560"/>
+    <hyperlink ref="I672" r:id="rId561"/>
+    <hyperlink ref="I673" r:id="rId562"/>
+    <hyperlink ref="I674" r:id="rId563"/>
+    <hyperlink ref="I675" r:id="rId564"/>
     <hyperlink ref="I676" r:id="rId565"/>
     <hyperlink ref="I677" r:id="rId566"/>
     <hyperlink ref="I678" r:id="rId567"/>
@@ -50414,17 +50245,17 @@
     <hyperlink ref="I748" r:id="rId637"/>
     <hyperlink ref="I749" r:id="rId638"/>
     <hyperlink ref="I750" r:id="rId639"/>
-    <hyperlink ref="I751" r:id="rId640"/>
-    <hyperlink ref="I752" r:id="rId641"/>
-    <hyperlink ref="I753" r:id="rId642"/>
-    <hyperlink ref="I754" r:id="rId643"/>
-    <hyperlink ref="I755" r:id="rId644"/>
+    <hyperlink ref="I752" r:id="rId640"/>
+    <hyperlink ref="I753" r:id="rId641"/>
+    <hyperlink ref="I754" r:id="rId642"/>
+    <hyperlink ref="I755" r:id="rId643"/>
+    <hyperlink ref="I756" r:id="rId644"/>
     <hyperlink ref="I757" r:id="rId645"/>
-    <hyperlink ref="I758" r:id="rId646"/>
-    <hyperlink ref="I759" r:id="rId647"/>
-    <hyperlink ref="I760" r:id="rId648"/>
-    <hyperlink ref="I761" r:id="rId649"/>
-    <hyperlink ref="I762" r:id="rId650"/>
+    <hyperlink ref="I760" r:id="rId646"/>
+    <hyperlink ref="I761" r:id="rId647"/>
+    <hyperlink ref="I762" r:id="rId648"/>
+    <hyperlink ref="I763" r:id="rId649"/>
+    <hyperlink ref="I764" r:id="rId650"/>
     <hyperlink ref="I765" r:id="rId651"/>
     <hyperlink ref="I766" r:id="rId652"/>
     <hyperlink ref="I767" r:id="rId653"/>
@@ -50451,11 +50282,6 @@
     <hyperlink ref="I788" r:id="rId674"/>
     <hyperlink ref="I789" r:id="rId675"/>
     <hyperlink ref="I790" r:id="rId676"/>
-    <hyperlink ref="I791" r:id="rId677"/>
-    <hyperlink ref="I792" r:id="rId678"/>
-    <hyperlink ref="I793" r:id="rId679"/>
-    <hyperlink ref="I794" r:id="rId680"/>
-    <hyperlink ref="I795" r:id="rId681"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -36989,7 +36989,7 @@
     <row r="695">
       <c r="A695" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B695" s="18" t="inlineStr">
@@ -36999,18 +36999,18 @@
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Select the right Function hosting plan based on your business &amp; SLO requirements</t>
+          <t>Leverage FTA Resillency HandBook</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
       <c r="F695" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
@@ -37028,7 +37028,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -37040,7 +37040,7 @@
     <row r="696">
       <c r="A696" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B696" s="18" t="inlineStr">
@@ -37050,15 +37050,19 @@
       </c>
       <c r="C696" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones where regionally applicable (not available for Consumption tier)</t>
-        </is>
-      </c>
-      <c r="E696" s="18" t="n"/>
+          <t>Leverage Availability Zones if regionally applicable</t>
+        </is>
+      </c>
+      <c r="E696" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> This will be turned on automatically for a new EH namespace created from the portal with Premium, Dedicated, or Standard SKUs in a zone-enabled region. Both the EH metadata and the event data itself are replicated across zones</t>
+        </is>
+      </c>
       <c r="F696" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -37079,7 +37083,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -37091,7 +37095,7 @@
     <row r="697">
       <c r="A697" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B697" s="18" t="inlineStr">
@@ -37101,12 +37105,12 @@
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Consider a Cross-Region DR strategy for critical workloads</t>
+          <t>Use the Premium or Dedicated SKUs   for predicable performance</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
@@ -37130,7 +37134,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -37142,7 +37146,7 @@
     <row r="698">
       <c r="A698" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B698" s="18" t="inlineStr">
@@ -37152,15 +37156,19 @@
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>If deploying to an Isolated environment, use or migrate to App Service Environment (ASE) v3</t>
-        </is>
-      </c>
-      <c r="E698" s="18" t="n"/>
+          <t>Plan for Geo Disaster Recovery using Active Passive configuration</t>
+        </is>
+      </c>
+      <c r="E698" s="18" t="inlineStr">
+        <is>
+          <t>The built-in geo-disaster recovery feature, when enabled, ensures that the entire configuration of anamespace (Event Hubs, Consumer Groups and settings) is continuously replicated from a primary namespace to a secondary namespace, and it allows a once-only failover move from the primary to the secondary at any time. Active/Passive feature is designed to make it easier to recover from and abandon a failed Azure region without having to change application configurations</t>
+        </is>
+      </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -37181,7 +37189,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37193,7 +37201,7 @@
     <row r="699">
       <c r="A699" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B699" s="18" t="inlineStr">
@@ -37203,18 +37211,22 @@
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Ensure 'Always On' is enabled for all Function Apps running on App Service Plan</t>
-        </is>
-      </c>
-      <c r="E699" s="18" t="n"/>
+          <t>For Business Critical Applications, use Active Active configuration</t>
+        </is>
+      </c>
+      <c r="E699" s="18" t="inlineStr">
+        <is>
+          <t>Should be used for DR configurations where an outage or loss of event data in the downed region cannot be tolerated. For these cases, follow the replication guidance and do not use the built-in geo-disaster recovery capability (active/passive). With Active/Active, Maintain multiple Event Hubs in different regions and namespaces, and events will be replicated between the hubs</t>
+        </is>
+      </c>
       <c r="F699" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
@@ -37232,7 +37244,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37244,7 +37256,7 @@
     <row r="700">
       <c r="A700" s="18" t="inlineStr">
         <is>
-          <t>Azure Function Review</t>
+          <t>Azure Event Hub Review</t>
         </is>
       </c>
       <c r="B700" s="18" t="inlineStr">
@@ -37254,12 +37266,12 @@
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Pair a Function App to its own storage account. Try not to re-use storage accounts for Function Apps unless they are tightly coupled</t>
+          <t>Design Resilient Event Hubs</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -37283,7 +37295,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37300,7 +37312,7 @@
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
@@ -37310,13 +37322,13 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Leverage Azure DevOps or GitHub to streamline CI/CD and safeguard your Function App code</t>
+          <t>Select the right Function hosting plan based on your business &amp; SLO requirements</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37334,7 +37346,7 @@
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
+          <t>4238f409-2ea0-43be-a06b-2a993c98aa7b</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37346,7 +37358,7 @@
     <row r="702">
       <c r="A702" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B702" s="18" t="inlineStr">
@@ -37356,18 +37368,18 @@
       </c>
       <c r="C702" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>If required for AKS Windows workloads HostProcess containers can be used</t>
+          <t>Leverage Availability Zones where regionally applicable (not available for Consumption tier)</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37385,7 +37397,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>a9808100-d640-4f77-ac56-1ec0600f6752</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37397,28 +37409,28 @@
     <row r="703">
       <c r="A703" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Use KEDA if running event-driven workloads</t>
+          <t>Consider a Cross-Region DR strategy for critical workloads</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
       <c r="F703" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -37436,7 +37448,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>5969d03e-eacf-4042-b127-73c55e3575fa</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37448,28 +37460,28 @@
     <row r="704">
       <c r="A704" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Use Dapr to ease microservice development</t>
+          <t>If deploying to an Isolated environment, use or migrate to App Service Environment (ASE) v3</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
       <c r="F704" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
@@ -37487,7 +37499,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>47a0aae0-d8a0-43b1-9791-e934dee3754c</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37499,7 +37511,7 @@
     <row r="705">
       <c r="A705" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B705" s="18" t="inlineStr">
@@ -37509,12 +37521,12 @@
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Use the SLA-backed AKS offering</t>
+          <t>Ensure 'Always On' is enabled for all Function Apps running on App Service Plan</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37535,14 +37547,10 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>17232891-f89f-4eaa-90f1-3b34bf798ed5</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37554,7 +37562,7 @@
     <row r="706">
       <c r="A706" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B706" s="18" t="inlineStr">
@@ -37564,18 +37572,18 @@
       </c>
       <c r="C706" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Use Disruption Budgets in your pod and deployment definitions</t>
+          <t>Pair a Function App to its own storage account. Try not to re-use storage accounts for Function Apps unless they are tightly coupled</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
       <c r="F706" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
@@ -37593,7 +37601,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>40a325c2-7c0e-49e6-86d8-c273b4dc21ba</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37605,28 +37613,28 @@
     <row r="707">
       <c r="A707" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Function Review</t>
         </is>
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>If using a private registry, configure region replication to store images in multiple regions</t>
+          <t>Leverage Azure DevOps or GitHub to streamline CI/CD and safeguard your Function App code</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
       <c r="F707" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
@@ -37644,7 +37652,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>bb42650c-257d-4cb0-822a-131138b8e6f0</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37661,7 +37669,7 @@
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
@@ -37671,7 +37679,7 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Use an external application such as kubecost to allocate costs to different users</t>
+          <t>If required for AKS Windows workloads HostProcess containers can be used</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37695,7 +37703,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37712,7 +37720,7 @@
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
@@ -37722,7 +37730,7 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Use scale down mode to delete/deallocate nodes</t>
+          <t>Use KEDA if running event-driven workloads</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37746,7 +37754,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37763,7 +37771,7 @@
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
@@ -37773,13 +37781,13 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>When required use multi-instance partitioning GPU on AKS Clusters</t>
+          <t>Use Dapr to ease microservice development</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37797,7 +37805,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37814,7 +37822,7 @@
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
@@ -37824,13 +37832,13 @@
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
+          <t>Use the SLA-backed AKS offering</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
       <c r="F711" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -37845,10 +37853,14 @@
         </is>
       </c>
       <c r="J711" s="13" t="n"/>
-      <c r="K711" s="19" t="n"/>
+      <c r="K711" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37865,7 +37877,7 @@
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
@@ -37875,13 +37887,13 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
+          <t>Use Disruption Budgets in your pod and deployment definitions</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
       <c r="F712" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G712" t="inlineStr">
@@ -37896,14 +37908,10 @@
         </is>
       </c>
       <c r="J712" s="13" t="n"/>
-      <c r="K712" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37920,23 +37928,23 @@
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Separate applications from the control plane with user/system node pools</t>
+          <t>If using a private registry, configure region replication to store images in multiple regions</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
       <c r="F713" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G713" t="inlineStr">
@@ -37951,14 +37959,10 @@
         </is>
       </c>
       <c r="J713" s="13" t="n"/>
-      <c r="K713" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37975,7 +37979,7 @@
       </c>
       <c r="B714" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C714" s="18" t="inlineStr">
@@ -37985,7 +37989,7 @@
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Add taint to your system nodepool to make it dedicated</t>
+          <t>Use an external application such as kubecost to allocate costs to different users</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -38009,7 +38013,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -38026,7 +38030,7 @@
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
@@ -38036,13 +38040,13 @@
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Use a private registry for your images, such as ACR</t>
+          <t>Use scale down mode to delete/deallocate nodes</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
       <c r="F715" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G715" t="inlineStr">
@@ -38060,7 +38064,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -38077,17 +38081,17 @@
       </c>
       <c r="B716" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C716" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Scan your images for vulnerabilities</t>
+          <t>When required use multi-instance partitioning GPU on AKS Clusters</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -38111,7 +38115,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -38128,7 +38132,7 @@
       </c>
       <c r="B717" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C717" s="18" t="inlineStr">
@@ -38138,13 +38142,13 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
+          <t>If running a Dev/Test cluster use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
       <c r="F717" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G717" t="inlineStr">
@@ -38162,7 +38166,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -38189,7 +38193,7 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
+          <t>Use Azure Policy for Kubernetes to ensure cluster compliance</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
@@ -38210,10 +38214,14 @@
         </is>
       </c>
       <c r="J718" s="13" t="n"/>
-      <c r="K718" s="19" t="n"/>
+      <c r="K718" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38240,13 +38248,13 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>If using Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
+          <t>Separate applications from the control plane with user/system node pools</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
       <c r="F719" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -38261,10 +38269,14 @@
         </is>
       </c>
       <c r="J719" s="13" t="n"/>
-      <c r="K719" s="19" t="n"/>
+      <c r="K719" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38291,13 +38303,13 @@
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>If required add Key Management Service etcd encryption</t>
+          <t>Add taint to your system nodepool to make it dedicated</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
       <c r="F720" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -38315,7 +38327,7 @@
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38342,13 +38354,13 @@
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>If required consider using Confidential Compute for AKS</t>
+          <t>Use a private registry for your images, such as ACR</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
       <c r="F721" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -38366,7 +38378,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38388,12 +38400,12 @@
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Consider using Defender for Containers</t>
+          <t>Scan your images for vulnerabilities</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38417,7 +38429,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38444,7 +38456,7 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Use managed identities instead of Service Principals</t>
+          <t>Define app separation requirements (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38465,14 +38477,10 @@
         </is>
       </c>
       <c r="J723" s="13" t="n"/>
-      <c r="K723" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38499,7 +38507,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Integrate authentication with AAD (using the managed integration)</t>
+          <t>Store your secrets in Azure Key Vault with the CSI Secrets Store driver</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38520,14 +38528,10 @@
         </is>
       </c>
       <c r="J724" s="13" t="n"/>
-      <c r="K724" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38554,13 +38558,13 @@
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
+          <t>If using Service Principals for the cluster, refresh credentials periodically (like quarterly)</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
       <c r="F725" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
@@ -38578,7 +38582,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38605,7 +38609,7 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Integrate authorization with AAD RBAC</t>
+          <t>If required add Key Management Service etcd encryption</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
@@ -38629,7 +38633,7 @@
       <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38656,13 +38660,13 @@
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
+          <t>If required consider using Confidential Compute for AKS</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
       <c r="F727" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -38680,7 +38684,7 @@
       <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38707,7 +38711,7 @@
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>For Pod Identity Access Management use Azure AD Workload Identity (preview)</t>
+          <t>Consider using Defender for Containers</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38731,7 +38735,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38758,13 +38762,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>For AKS non-interactive logins use kubelogin (preview)</t>
+          <t>Use managed identities instead of Service Principals</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38779,10 +38783,14 @@
         </is>
       </c>
       <c r="J729" s="13" t="n"/>
-      <c r="K729" s="19" t="n"/>
+      <c r="K729" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38809,7 +38817,7 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Disable AKS local accounts</t>
+          <t>Integrate authentication with AAD (using the managed integration)</t>
         </is>
       </c>
       <c r="E730" s="18" t="n"/>
@@ -38832,12 +38840,12 @@
       <c r="J730" s="13" t="n"/>
       <c r="K730" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38864,13 +38872,13 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Configure if required Just-in-time cluster access</t>
+          <t>Limit access to admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
       <c r="F731" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -38888,7 +38896,7 @@
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38915,13 +38923,13 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Configure if required AAD conditional access for AKS</t>
+          <t>Integrate authorization with AAD RBAC</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
       <c r="F732" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -38939,7 +38947,7 @@
       <c r="K732" s="19" t="n"/>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38966,13 +38974,13 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
+          <t>Use namespaces for restricting RBAC privilege in Kubernetes</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38990,7 +38998,7 @@
       <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -39017,7 +39025,7 @@
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>For finer control consider using a managed Kubelet Identity</t>
+          <t>For Pod Identity Access Management use Azure AD Workload Identity (preview)</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
@@ -39041,7 +39049,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -39058,7 +39066,7 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
@@ -39068,7 +39076,7 @@
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>If using AGIC, do not share an AppGW across clusters</t>
+          <t>For AKS non-interactive logins use kubelogin (preview)</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -39092,7 +39100,7 @@
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -39109,7 +39117,7 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
@@ -39119,13 +39127,13 @@
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Do not use AKS HTTP Routing Add-On, use instead the managed NGINX ingress with the application routing add-on.</t>
+          <t>Disable AKS local accounts</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -39142,12 +39150,12 @@
       <c r="J736" s="13" t="n"/>
       <c r="K736" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -39164,7 +39172,7 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
@@ -39174,13 +39182,13 @@
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>For Windows workloads use Accelerated Networking</t>
+          <t>Configure if required Just-in-time cluster access</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -39198,7 +39206,7 @@
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -39215,7 +39223,7 @@
       </c>
       <c r="B738" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C738" s="18" t="inlineStr">
@@ -39225,13 +39233,13 @@
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Use the standard ALB (as opposed to the basic one)</t>
+          <t>Configure if required AAD conditional access for AKS</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
       <c r="F738" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
@@ -39246,14 +39254,10 @@
         </is>
       </c>
       <c r="J738" s="13" t="n"/>
-      <c r="K738" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -39280,13 +39284,13 @@
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
+          <t xml:space="preserve">If required for Windows AKS workloads configure gMSA </t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
       <c r="F739" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -39304,7 +39308,7 @@
       <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39331,7 +39335,7 @@
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
+          <t>For finer control consider using a managed Kubelet Identity</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
@@ -39355,7 +39359,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39382,13 +39386,13 @@
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
+          <t>If using AGIC, do not share an AppGW across clusters</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
       <c r="F741" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -39403,14 +39407,10 @@
         </is>
       </c>
       <c r="J741" s="13" t="n"/>
-      <c r="K741" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39427,7 +39427,7 @@
       </c>
       <c r="B742" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C742" s="18" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
+          <t>Do not use AKS HTTP Routing Add-On, use instead the managed NGINX ingress with the application routing add-on.</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
@@ -39458,10 +39458,14 @@
         </is>
       </c>
       <c r="J742" s="13" t="n"/>
-      <c r="K742" s="19" t="n"/>
+      <c r="K742" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39488,13 +39492,13 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
+          <t>For Windows workloads use Accelerated Networking</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39512,7 +39516,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39529,7 +39533,7 @@
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
@@ -39539,17 +39543,13 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
-        </is>
-      </c>
-      <c r="E744" s="18" t="inlineStr">
-        <is>
-          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
-        </is>
-      </c>
+          <t>Use the standard ALB (as opposed to the basic one)</t>
+        </is>
+      </c>
+      <c r="E744" s="18" t="n"/>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39564,10 +39564,14 @@
         </is>
       </c>
       <c r="J744" s="13" t="n"/>
-      <c r="K744" s="19" t="n"/>
+      <c r="K744" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39584,7 +39588,7 @@
       </c>
       <c r="B745" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C745" s="18" t="inlineStr">
@@ -39594,13 +39598,13 @@
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
+          <t>If using Azure CNI, consider using different Subnets for NodePools</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39618,7 +39622,7 @@
       <c r="K745" s="19" t="n"/>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39645,13 +39649,13 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>If required add your own CNI plugin</t>
+          <t>Use Private Endpoints (preferred) or Virtual Network Service Endpoints to access PaaS services from the cluster</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -39669,7 +39673,7 @@
       <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39686,7 +39690,7 @@
       </c>
       <c r="B747" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C747" s="18" t="inlineStr">
@@ -39696,13 +39700,13 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>If required configure Public IP per node in AKS</t>
+          <t>Choose the best CNI network plugin for your requirements (Azure CNI recommended)</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39717,10 +39721,14 @@
         </is>
       </c>
       <c r="J747" s="13" t="n"/>
-      <c r="K747" s="19" t="n"/>
+      <c r="K747" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39737,7 +39745,7 @@
       </c>
       <c r="B748" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C748" s="18" t="inlineStr">
@@ -39747,13 +39755,13 @@
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
+          <t>If using Azure CNI, size your subnet accordingly considering the maximum number of pods per node</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
       <c r="F748" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G748" t="inlineStr">
@@ -39771,7 +39779,7 @@
       <c r="K748" s="19" t="n"/>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39788,7 +39796,7 @@
       </c>
       <c r="B749" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C749" s="18" t="inlineStr">
@@ -39798,13 +39806,13 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway as outboundType for scaling egress traffic</t>
+          <t>If using Azure CNI, check the maximum pods/node (default 30)</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39822,7 +39830,7 @@
       <c r="K749" s="19" t="n"/>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39839,7 +39847,7 @@
       </c>
       <c r="B750" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C750" s="18" t="inlineStr">
@@ -39849,13 +39857,17 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
-        </is>
-      </c>
-      <c r="E750" s="18" t="n"/>
+          <t>If using private-IP LoadBalancer services, use a dedicated subnet (not the AKS subnet)</t>
+        </is>
+      </c>
+      <c r="E750" s="18" t="inlineStr">
+        <is>
+          <t>For internal apps organizations often open the whole AKS subnet in their firewalls. This opens network access to the nodes too, and potentially to the pods as well (if using Azure CNI). If LoadBalancer IPs are in a different subnet, only this one needs to be available to the app clients. Another reason is that if the IP addresses in the AKS subnet are a scarce resource, consuming its IP addresses for services will reduce the maximum scalability of the cluster .</t>
+        </is>
+      </c>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39873,7 +39885,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39890,7 +39902,7 @@
       </c>
       <c r="B751" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C751" s="18" t="inlineStr">
@@ -39900,7 +39912,7 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
+          <t>Size the service IP address range accordingly (it is going to limit the cluster scalability)</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39921,14 +39933,10 @@
         </is>
       </c>
       <c r="J751" s="13" t="n"/>
-      <c r="K751" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39955,13 +39963,13 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
+          <t>If required add your own CNI plugin</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39976,14 +39984,10 @@
         </is>
       </c>
       <c r="J752" s="13" t="n"/>
-      <c r="K752" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -40000,7 +40004,7 @@
       </c>
       <c r="B753" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C753" s="18" t="inlineStr">
@@ -40010,13 +40014,13 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Use private clusters if your requirements mandate it</t>
+          <t>If required configure Public IP per node in AKS</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
       <c r="F753" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G753" t="inlineStr">
@@ -40031,14 +40035,10 @@
         </is>
       </c>
       <c r="J753" s="13" t="n"/>
-      <c r="K753" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -40055,7 +40055,7 @@
       </c>
       <c r="B754" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C754" s="18" t="inlineStr">
@@ -40065,7 +40065,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
+          <t>Use an ingress controller to expose web-based apps instead of exposing them with LoadBalancer-type services</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -40086,14 +40086,10 @@
         </is>
       </c>
       <c r="J754" s="13" t="n"/>
-      <c r="K754" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -40110,7 +40106,7 @@
       </c>
       <c r="B755" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C755" s="18" t="inlineStr">
@@ -40120,13 +40116,13 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
+          <t>Use Azure NAT Gateway as outboundType for scaling egress traffic</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -40141,14 +40137,10 @@
         </is>
       </c>
       <c r="J755" s="13" t="n"/>
-      <c r="K755" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -40165,7 +40157,7 @@
       </c>
       <c r="B756" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C756" s="18" t="inlineStr">
@@ -40175,13 +40167,13 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Use Kubernetes network policies to increase intra-cluster security</t>
+          <t>Use Dynamic allocations of IPs in order to avoid Azure CNI IP exhaustion</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -40199,7 +40191,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -40226,7 +40218,7 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t>Use a WAF for web workloads (UIs or APIs)</t>
+          <t>Filter egress traffic with AzFW/NVA if your security requirements mandate it</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
@@ -40247,10 +40239,14 @@
         </is>
       </c>
       <c r="J757" s="13" t="n"/>
-      <c r="K757" s="19" t="n"/>
+      <c r="K757" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -40277,7 +40273,7 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Use DDoS Standard in the AKS Virtual Network</t>
+          <t>If using a public API endpoint, restrict the IP addresses that can access it</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
@@ -40300,12 +40296,12 @@
       <c r="J758" s="13" t="n"/>
       <c r="K758" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40332,13 +40328,13 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>If required add company HTTP Proxy</t>
+          <t>Use private clusters if your requirements mandate it</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
       <c r="F759" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G759" t="inlineStr">
@@ -40355,12 +40351,12 @@
       <c r="J759" s="13" t="n"/>
       <c r="K759" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40387,7 +40383,7 @@
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Consider using a service mesh for advanced microservice communication management</t>
+          <t xml:space="preserve">For Windows 2019 and 2022 AKS nodes Calico Network Policies can be used </t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
@@ -40408,10 +40404,14 @@
         </is>
       </c>
       <c r="J760" s="13" t="n"/>
-      <c r="K760" s="19" t="n"/>
+      <c r="K760" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40428,7 +40428,7 @@
       </c>
       <c r="B761" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C761" s="18" t="inlineStr">
@@ -40438,7 +40438,7 @@
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
+          <t>Enable a Kubernetes Network Policy option (Calico/Azure)</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
@@ -40459,10 +40459,14 @@
         </is>
       </c>
       <c r="J761" s="13" t="n"/>
-      <c r="K761" s="19" t="n"/>
+      <c r="K761" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40479,7 +40483,7 @@
       </c>
       <c r="B762" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C762" s="18" t="inlineStr">
@@ -40489,13 +40493,13 @@
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
+          <t>Use Kubernetes network policies to increase intra-cluster security</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40513,7 +40517,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40530,7 +40534,7 @@
       </c>
       <c r="B763" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C763" s="18" t="inlineStr">
@@ -40540,13 +40544,13 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Enable AKS auto-certificate rotation</t>
+          <t>Use a WAF for web workloads (UIs or APIs)</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
       <c r="F763" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
@@ -40564,7 +40568,7 @@
       <c r="K763" s="19" t="n"/>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40581,7 +40585,7 @@
       </c>
       <c r="B764" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C764" s="18" t="inlineStr">
@@ -40591,13 +40595,13 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
+          <t>Use DDoS Standard in the AKS Virtual Network</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
       <c r="F764" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -40612,10 +40616,14 @@
         </is>
       </c>
       <c r="J764" s="13" t="n"/>
-      <c r="K764" s="19" t="n"/>
+      <c r="K764" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40632,7 +40640,7 @@
       </c>
       <c r="B765" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C765" s="18" t="inlineStr">
@@ -40642,13 +40650,13 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
+          <t>If required add company HTTP Proxy</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
       <c r="F765" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -40663,10 +40671,14 @@
         </is>
       </c>
       <c r="J765" s="13" t="n"/>
-      <c r="K765" s="19" t="n"/>
+      <c r="K765" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40683,7 +40695,7 @@
       </c>
       <c r="B766" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C766" s="18" t="inlineStr">
@@ -40693,13 +40705,13 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
+          <t>Consider using a service mesh for advanced microservice communication management</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40717,7 +40729,7 @@
       <c r="K766" s="19" t="n"/>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40744,13 +40756,13 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
+          <t>Configure alerts on the most critical metrics (see Container Insights for recommendations)</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
       <c r="F767" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
@@ -40768,7 +40780,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40795,7 +40807,7 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Consider using AKS command invoke on private clusters</t>
+          <t>Check regularly Azure Advisor for recommendations on your cluster</t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
@@ -40819,7 +40831,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40846,7 +40858,7 @@
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>For planned events consider using Node Auto Drain</t>
+          <t>Enable AKS auto-certificate rotation</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
@@ -40870,7 +40882,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40897,7 +40909,7 @@
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Develop own governance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
+          <t>Have a regular process to upgrade your kubernetes version periodically (quarterly, for example), or use the AKS autoupgrade feature</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40921,7 +40933,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40948,13 +40960,13 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Use custom Node RG (aka 'Infra RG') name</t>
+          <t>Use kured for Linux node upgrades in case you are not using node-image upgrade</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
       <c r="F771" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
@@ -40969,14 +40981,10 @@
         </is>
       </c>
       <c r="J771" s="13" t="n"/>
-      <c r="K771" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -41003,13 +41011,13 @@
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
+          <t>Have a regular process to upgrade the cluster node images periodically (weekly, for example)</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
       <c r="F772" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
@@ -41027,7 +41035,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -41054,7 +41062,7 @@
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Taint Windows nodes</t>
+          <t>Consider gitops to deploy applications or cluster configuration to multiple clusters</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
@@ -41078,7 +41086,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -41105,7 +41113,7 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Keep windows containers patch level in sync with host patch level</t>
+          <t>Consider using AKS command invoke on private clusters</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -41129,7 +41137,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -41156,14 +41164,10 @@
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
-        </is>
-      </c>
-      <c r="E775" s="18" t="inlineStr">
-        <is>
-          <t>Via Diagnostic Settings at the cluster level</t>
-        </is>
-      </c>
+          <t>For planned events consider using Node Auto Drain</t>
+        </is>
+      </c>
+      <c r="E775" s="18" t="n"/>
       <c r="F775" s="18" t="inlineStr">
         <is>
           <t>Low</t>
@@ -41184,7 +41188,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -41201,7 +41205,7 @@
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
@@ -41211,13 +41215,13 @@
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>If required use nodePool snapshots</t>
+          <t>Develop own governance practices to make sure no changes are performed by operators in the node RG (aka 'infra RG')</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
       <c r="F776" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -41235,7 +41239,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -41262,7 +41266,7 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Consider spot node pools for non time-sensitive workloads</t>
+          <t>Use custom Node RG (aka 'Infra RG') name</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
@@ -41283,10 +41287,14 @@
         </is>
       </c>
       <c r="J777" s="13" t="n"/>
-      <c r="K777" s="19" t="n"/>
+      <c r="K777" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41313,13 +41321,13 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Consider AKS virtual node for quick bursting</t>
+          <t>Do not use deprecated Kubernetes APIs in your YAML manifests</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -41334,14 +41342,10 @@
         </is>
       </c>
       <c r="J778" s="13" t="n"/>
-      <c r="K778" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41368,13 +41372,13 @@
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
+          <t>Taint Windows nodes</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
       <c r="F779" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -41392,7 +41396,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41419,13 +41423,13 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
+          <t>Keep windows containers patch level in sync with host patch level</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41440,14 +41444,10 @@
         </is>
       </c>
       <c r="J780" s="13" t="n"/>
-      <c r="K780" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41474,13 +41474,17 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Monitor CPU and memory utilization of the nodes</t>
-        </is>
-      </c>
-      <c r="E781" s="18" t="n"/>
+          <t>Send master logs (aka API logs) to Azure Monitor or your preferred log management solution</t>
+        </is>
+      </c>
+      <c r="E781" s="18" t="inlineStr">
+        <is>
+          <t>Via Diagnostic Settings at the cluster level</t>
+        </is>
+      </c>
       <c r="F781" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G781" t="inlineStr">
@@ -41498,7 +41502,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41515,7 +41519,7 @@
       </c>
       <c r="B782" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C782" s="18" t="inlineStr">
@@ -41525,13 +41529,13 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
+          <t>If required use nodePool snapshots</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41549,7 +41553,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41576,17 +41580,13 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Monitor OS disk queue depth in nodes</t>
-        </is>
-      </c>
-      <c r="E783" s="18" t="inlineStr">
-        <is>
-          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
-        </is>
-      </c>
+          <t>Consider spot node pools for non time-sensitive workloads</t>
+        </is>
+      </c>
+      <c r="E783" s="18" t="n"/>
       <c r="F783" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G783" t="inlineStr">
@@ -41604,7 +41604,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41631,13 +41631,13 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
+          <t>Consider AKS virtual node for quick bursting</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41652,10 +41652,14 @@
         </is>
       </c>
       <c r="J784" s="13" t="n"/>
-      <c r="K784" s="19" t="n"/>
+      <c r="K784" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41682,13 +41686,13 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>Subscribe to resource health notifications for your AKS cluster</t>
+          <t>Monitor your cluster metrics with Container Insights (or other tools like Prometheus)</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41706,7 +41710,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41733,7 +41737,7 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>Configure requests and limits in your pod specs</t>
+          <t>Store and analyze your cluster logs with Container Insights (or other tools like Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41754,10 +41758,14 @@
         </is>
       </c>
       <c r="J786" s="13" t="n"/>
-      <c r="K786" s="19" t="n"/>
+      <c r="K786" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41784,7 +41792,7 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Enforce resource quotas for namespaces</t>
+          <t>Monitor CPU and memory utilization of the nodes</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
@@ -41808,7 +41816,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41835,13 +41843,13 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
+          <t>If using Azure CNI, monitor % of pod IPs consumed per node</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41859,7 +41867,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41886,13 +41894,17 @@
       </c>
       <c r="D789" s="18" t="inlineStr">
         <is>
-          <t>Configure Liveness and Readiness probes for all deployments</t>
-        </is>
-      </c>
-      <c r="E789" s="18" t="n"/>
+          <t>Monitor OS disk queue depth in nodes</t>
+        </is>
+      </c>
+      <c r="E789" s="18" t="inlineStr">
+        <is>
+          <t>I/O in the OS disk is a critical resource. If the OS in the nodes gets throttled on I/O, this could lead to unpredictable behavior, typically ending up in node being declared NotReady</t>
+        </is>
+      </c>
       <c r="F789" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
@@ -41910,7 +41922,7 @@
       <c r="K789" s="19" t="n"/>
       <c r="L789" s="19" t="inlineStr">
         <is>
-          <t>f4fd0602-7ab5-46f1-b66a-e9dea9654a65</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M789" s="20" t="n"/>
@@ -41927,7 +41939,7 @@
       </c>
       <c r="B790" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C790" s="18" t="inlineStr">
@@ -41937,7 +41949,7 @@
       </c>
       <c r="D790" s="18" t="inlineStr">
         <is>
-          <t>Use the Cluster Autoscaler</t>
+          <t>If not using egress filtering with AzFW/NVA, monitor standard ALB allocated SNAT ports</t>
         </is>
       </c>
       <c r="E790" s="18" t="n"/>
@@ -41958,14 +41970,10 @@
         </is>
       </c>
       <c r="J790" s="13" t="n"/>
-      <c r="K790" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K790" s="19" t="n"/>
       <c r="L790" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M790" s="20" t="n"/>
@@ -41982,7 +41990,7 @@
       </c>
       <c r="B791" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C791" s="18" t="inlineStr">
@@ -41992,13 +42000,13 @@
       </c>
       <c r="D791" s="18" t="inlineStr">
         <is>
-          <t>Customize node configuration for AKS node pools</t>
+          <t>Subscribe to resource health notifications for your AKS cluster</t>
         </is>
       </c>
       <c r="E791" s="18" t="n"/>
       <c r="F791" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G791" t="inlineStr">
@@ -42013,14 +42021,10 @@
         </is>
       </c>
       <c r="J791" s="13" t="n"/>
-      <c r="K791" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K791" s="19" t="n"/>
       <c r="L791" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M791" s="20" t="n"/>
@@ -42037,7 +42041,7 @@
       </c>
       <c r="B792" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C792" s="18" t="inlineStr">
@@ -42047,13 +42051,13 @@
       </c>
       <c r="D792" s="18" t="inlineStr">
         <is>
-          <t>Use the Horizontal Pod Autoscaler when required</t>
+          <t>Configure requests and limits in your pod specs</t>
         </is>
       </c>
       <c r="E792" s="18" t="n"/>
       <c r="F792" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G792" t="inlineStr">
@@ -42071,7 +42075,7 @@
       <c r="K792" s="19" t="n"/>
       <c r="L792" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M792" s="20" t="n"/>
@@ -42088,7 +42092,7 @@
       </c>
       <c r="B793" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C793" s="18" t="inlineStr">
@@ -42098,17 +42102,13 @@
       </c>
       <c r="D793" s="18" t="inlineStr">
         <is>
-          <t>Consider an appropriate node size, not too large or too small</t>
-        </is>
-      </c>
-      <c r="E793" s="18" t="inlineStr">
-        <is>
-          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
-        </is>
-      </c>
+          <t>Enforce resource quotas for namespaces</t>
+        </is>
+      </c>
+      <c r="E793" s="18" t="n"/>
       <c r="F793" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
@@ -42126,7 +42126,7 @@
       <c r="K793" s="19" t="n"/>
       <c r="L793" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M793" s="20" t="n"/>
@@ -42143,7 +42143,7 @@
       </c>
       <c r="B794" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C794" s="18" t="inlineStr">
@@ -42153,13 +42153,13 @@
       </c>
       <c r="D794" s="18" t="inlineStr">
         <is>
-          <t>If more than 5000 nodes are required for scalability then consider using an additional AKS cluster</t>
+          <t>Ensure your subscription has enough quota to scale out your nodepools</t>
         </is>
       </c>
       <c r="E794" s="18" t="n"/>
       <c r="F794" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -42177,7 +42177,7 @@
       <c r="K794" s="19" t="n"/>
       <c r="L794" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M794" s="20" t="n"/>
@@ -42194,7 +42194,7 @@
       </c>
       <c r="B795" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C795" s="18" t="inlineStr">
@@ -42204,13 +42204,13 @@
       </c>
       <c r="D795" s="18" t="inlineStr">
         <is>
-          <t>Consider subscribing to EventGrid Events for AKS automation</t>
+          <t>Configure Liveness and Readiness probes for all deployments</t>
         </is>
       </c>
       <c r="E795" s="18" t="n"/>
       <c r="F795" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
@@ -42228,7 +42228,7 @@
       <c r="K795" s="19" t="n"/>
       <c r="L795" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>f4fd0602-7ab5-46f1-b66a-e9dea9654a65</t>
         </is>
       </c>
       <c r="M795" s="20" t="n"/>
@@ -42255,13 +42255,13 @@
       </c>
       <c r="D796" s="18" t="inlineStr">
         <is>
-          <t>For long running operation on an AKS cluster consider event termination</t>
+          <t>Use the Cluster Autoscaler</t>
         </is>
       </c>
       <c r="E796" s="18" t="n"/>
       <c r="F796" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
@@ -42276,10 +42276,14 @@
         </is>
       </c>
       <c r="J796" s="13" t="n"/>
-      <c r="K796" s="19" t="n"/>
+      <c r="K796" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L796" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M796" s="20" t="n"/>
@@ -42306,7 +42310,7 @@
       </c>
       <c r="D797" s="18" t="inlineStr">
         <is>
-          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
+          <t>Customize node configuration for AKS node pools</t>
         </is>
       </c>
       <c r="E797" s="18" t="n"/>
@@ -42327,10 +42331,14 @@
         </is>
       </c>
       <c r="J797" s="13" t="n"/>
-      <c r="K797" s="19" t="n"/>
+      <c r="K797" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L797" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M797" s="20" t="n"/>
@@ -42357,13 +42365,13 @@
       </c>
       <c r="D798" s="18" t="inlineStr">
         <is>
-          <t>Use ephemeral OS disks</t>
+          <t>Use the Horizontal Pod Autoscaler when required</t>
         </is>
       </c>
       <c r="E798" s="18" t="n"/>
       <c r="F798" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -42378,14 +42386,10 @@
         </is>
       </c>
       <c r="J798" s="13" t="n"/>
-      <c r="K798" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K798" s="19" t="n"/>
       <c r="L798" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M798" s="20" t="n"/>
@@ -42412,10 +42416,14 @@
       </c>
       <c r="D799" s="18" t="inlineStr">
         <is>
-          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it requires high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
-        </is>
-      </c>
-      <c r="E799" s="18" t="n"/>
+          <t>Consider an appropriate node size, not too large or too small</t>
+        </is>
+      </c>
+      <c r="E799" s="18" t="inlineStr">
+        <is>
+          <t>Larger nodes will bring higher performance and features such as ephemeral disks and accelerated networking, but they will increase the blast radius and decrease the scaling granularity</t>
+        </is>
+      </c>
       <c r="F799" s="18" t="inlineStr">
         <is>
           <t>High</t>
@@ -42436,7 +42444,7 @@
       <c r="K799" s="19" t="n"/>
       <c r="L799" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M799" s="20" t="n"/>
@@ -42463,7 +42471,7 @@
       </c>
       <c r="D800" s="18" t="inlineStr">
         <is>
-          <t>For hyper performance storage option use Ultra Disks on AKS</t>
+          <t>If more than 5000 nodes are required for scalability then consider using an additional AKS cluster</t>
         </is>
       </c>
       <c r="E800" s="18" t="n"/>
@@ -42487,7 +42495,7 @@
       <c r="K800" s="19" t="n"/>
       <c r="L800" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M800" s="20" t="n"/>
@@ -42514,13 +42522,13 @@
       </c>
       <c r="D801" s="18" t="inlineStr">
         <is>
-          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>Consider subscribing to EventGrid Events for AKS automation</t>
         </is>
       </c>
       <c r="E801" s="18" t="n"/>
       <c r="F801" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
@@ -42538,7 +42546,7 @@
       <c r="K801" s="19" t="n"/>
       <c r="L801" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M801" s="20" t="n"/>
@@ -42565,13 +42573,13 @@
       </c>
       <c r="D802" s="18" t="inlineStr">
         <is>
-          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+          <t>For long running operation on an AKS cluster consider event termination</t>
         </is>
       </c>
       <c r="E802" s="18" t="n"/>
       <c r="F802" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G802" t="inlineStr">
@@ -42589,7 +42597,7 @@
       <c r="K802" s="19" t="n"/>
       <c r="L802" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M802" s="20" t="n"/>
@@ -42616,13 +42624,13 @@
       </c>
       <c r="D803" s="18" t="inlineStr">
         <is>
-          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
+          <t>If required consider using Azure Dedicated Hosts for AKS nodes</t>
         </is>
       </c>
       <c r="E803" s="18" t="n"/>
       <c r="F803" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G803" t="inlineStr">
@@ -42640,7 +42648,7 @@
       <c r="K803" s="19" t="n"/>
       <c r="L803" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M803" s="20" t="n"/>
@@ -42650,17 +42658,54 @@
       <c r="Q803" s="20" t="n"/>
     </row>
     <row r="804">
-      <c r="A804" s="18" t="n"/>
-      <c r="B804" s="18" t="n"/>
-      <c r="C804" s="18" t="n"/>
-      <c r="D804" s="18" t="n"/>
+      <c r="A804" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B804" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C804" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D804" s="18" t="inlineStr">
+        <is>
+          <t>Use ephemeral OS disks</t>
+        </is>
+      </c>
       <c r="E804" s="18" t="n"/>
-      <c r="F804" s="18" t="n"/>
+      <c r="F804" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H804" s="18" t="n"/>
-      <c r="I804" s="13" t="n"/>
+      <c r="I804" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J804" s="13" t="n"/>
-      <c r="K804" s="19" t="n"/>
-      <c r="L804" s="19" t="n"/>
+      <c r="K804" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
+      <c r="L804" s="19" t="inlineStr">
+        <is>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+        </is>
+      </c>
       <c r="M804" s="20" t="n"/>
       <c r="N804" s="20" t="n"/>
       <c r="O804" s="20" t="n"/>
@@ -42668,17 +42713,50 @@
       <c r="Q804" s="20" t="n"/>
     </row>
     <row r="805">
-      <c r="A805" s="18" t="n"/>
-      <c r="B805" s="18" t="n"/>
-      <c r="C805" s="18" t="n"/>
-      <c r="D805" s="18" t="n"/>
+      <c r="A805" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B805" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C805" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D805" s="18" t="inlineStr">
+        <is>
+          <t>For non-ephemeral disks, use high IOPS and larger OS disks for the nodes when running many pods/node since it requires high performance for running multiple pods and will generate huge logs with default AKS log rotation thresholds</t>
+        </is>
+      </c>
       <c r="E805" s="18" t="n"/>
-      <c r="F805" s="18" t="n"/>
+      <c r="F805" s="18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H805" s="18" t="n"/>
-      <c r="I805" s="13" t="n"/>
+      <c r="I805" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J805" s="13" t="n"/>
       <c r="K805" s="19" t="n"/>
-      <c r="L805" s="19" t="n"/>
+      <c r="L805" s="19" t="inlineStr">
+        <is>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+        </is>
+      </c>
       <c r="M805" s="20" t="n"/>
       <c r="N805" s="20" t="n"/>
       <c r="O805" s="20" t="n"/>
@@ -42686,17 +42764,50 @@
       <c r="Q805" s="20" t="n"/>
     </row>
     <row r="806">
-      <c r="A806" s="18" t="n"/>
-      <c r="B806" s="18" t="n"/>
-      <c r="C806" s="18" t="n"/>
-      <c r="D806" s="18" t="n"/>
+      <c r="A806" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B806" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C806" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D806" s="18" t="inlineStr">
+        <is>
+          <t>For hyper performance storage option use Ultra Disks on AKS</t>
+        </is>
+      </c>
       <c r="E806" s="18" t="n"/>
-      <c r="F806" s="18" t="n"/>
+      <c r="F806" s="18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H806" s="18" t="n"/>
-      <c r="I806" s="13" t="n"/>
+      <c r="I806" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J806" s="13" t="n"/>
       <c r="K806" s="19" t="n"/>
-      <c r="L806" s="19" t="n"/>
+      <c r="L806" s="19" t="inlineStr">
+        <is>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+        </is>
+      </c>
       <c r="M806" s="20" t="n"/>
       <c r="N806" s="20" t="n"/>
       <c r="O806" s="20" t="n"/>
@@ -42704,17 +42815,50 @@
       <c r="Q806" s="20" t="n"/>
     </row>
     <row r="807">
-      <c r="A807" s="18" t="n"/>
-      <c r="B807" s="18" t="n"/>
-      <c r="C807" s="18" t="n"/>
-      <c r="D807" s="18" t="n"/>
+      <c r="A807" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B807" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C807" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D807" s="18" t="inlineStr">
+        <is>
+          <t>Avoid keeping state in the cluster, and store data outside (AzStorage, AzSQL, Cosmos, etc)</t>
+        </is>
+      </c>
       <c r="E807" s="18" t="n"/>
-      <c r="F807" s="18" t="n"/>
+      <c r="F807" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H807" s="18" t="n"/>
-      <c r="I807" s="13" t="n"/>
+      <c r="I807" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J807" s="13" t="n"/>
       <c r="K807" s="19" t="n"/>
-      <c r="L807" s="19" t="n"/>
+      <c r="L807" s="19" t="inlineStr">
+        <is>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+        </is>
+      </c>
       <c r="M807" s="20" t="n"/>
       <c r="N807" s="20" t="n"/>
       <c r="O807" s="20" t="n"/>
@@ -42722,17 +42866,50 @@
       <c r="Q807" s="20" t="n"/>
     </row>
     <row r="808">
-      <c r="A808" s="18" t="n"/>
-      <c r="B808" s="18" t="n"/>
-      <c r="C808" s="18" t="n"/>
-      <c r="D808" s="18" t="n"/>
+      <c r="A808" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B808" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C808" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D808" s="18" t="inlineStr">
+        <is>
+          <t>If using AzFiles Standard, consider AzFiles Premium and/or ANF for performance reasons</t>
+        </is>
+      </c>
       <c r="E808" s="18" t="n"/>
-      <c r="F808" s="18" t="n"/>
+      <c r="F808" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H808" s="18" t="n"/>
-      <c r="I808" s="13" t="n"/>
+      <c r="I808" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J808" s="13" t="n"/>
       <c r="K808" s="19" t="n"/>
-      <c r="L808" s="19" t="n"/>
+      <c r="L808" s="19" t="inlineStr">
+        <is>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+        </is>
+      </c>
       <c r="M808" s="20" t="n"/>
       <c r="N808" s="20" t="n"/>
       <c r="O808" s="20" t="n"/>
@@ -42740,17 +42917,50 @@
       <c r="Q808" s="20" t="n"/>
     </row>
     <row r="809">
-      <c r="A809" s="18" t="n"/>
-      <c r="B809" s="18" t="n"/>
-      <c r="C809" s="18" t="n"/>
-      <c r="D809" s="18" t="n"/>
+      <c r="A809" s="18" t="inlineStr">
+        <is>
+          <t>Azure AKS Review</t>
+        </is>
+      </c>
+      <c r="B809" s="18" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="C809" s="18" t="inlineStr">
+        <is>
+          <t>AKS</t>
+        </is>
+      </c>
+      <c r="D809" s="18" t="inlineStr">
+        <is>
+          <t>If using Azure Disks and AZs, consider having nodepools within a zone for LRS disk with VolumeBindingMode:WaitForFirstConsumer for provisioning storage in right zone or use ZRS disk for nodepools spanning multiple zones</t>
+        </is>
+      </c>
       <c r="E809" s="18" t="n"/>
-      <c r="F809" s="18" t="n"/>
+      <c r="F809" s="18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="H809" s="18" t="n"/>
-      <c r="I809" s="13" t="n"/>
+      <c r="I809" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J809" s="13" t="n"/>
       <c r="K809" s="19" t="n"/>
-      <c r="L809" s="19" t="n"/>
+      <c r="L809" s="19" t="inlineStr">
+        <is>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+        </is>
+      </c>
       <c r="M809" s="20" t="n"/>
       <c r="N809" s="20" t="n"/>
       <c r="O809" s="20" t="n"/>
@@ -50030,7 +50240,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G804" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G810" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -50724,6 +50934,12 @@
     <hyperlink ref="I801" r:id="rId687"/>
     <hyperlink ref="I802" r:id="rId688"/>
     <hyperlink ref="I803" r:id="rId689"/>
+    <hyperlink ref="I804" r:id="rId690"/>
+    <hyperlink ref="I805" r:id="rId691"/>
+    <hyperlink ref="I806" r:id="rId692"/>
+    <hyperlink ref="I807" r:id="rId693"/>
+    <hyperlink ref="I808" r:id="rId694"/>
+    <hyperlink ref="I809" r:id="rId695"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -17275,7 +17275,7 @@
       </c>
       <c r="D316" s="18" t="inlineStr">
         <is>
-          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
+          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="E316" s="18" t="n"/>
@@ -17297,13 +17297,13 @@
       </c>
       <c r="J316" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K316" s="19" t="n"/>
       <c r="L316" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M316" s="20" t="n"/>
@@ -17330,13 +17330,13 @@
       </c>
       <c r="D317" s="18" t="inlineStr">
         <is>
-          <t>Integrate Microsoft Entra ID logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="E317" s="18" t="n"/>
       <c r="F317" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17350,11 +17350,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J317" s="13" t="n"/>
+      <c r="J317" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K317" s="19" t="n"/>
       <c r="L317" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M317" s="20" t="n"/>
@@ -17381,13 +17385,13 @@
       </c>
       <c r="D318" s="18" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Entra ID only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="E318" s="18" t="n"/>
       <c r="F318" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -17403,13 +17407,13 @@
       </c>
       <c r="J318" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K318" s="19" t="n"/>
       <c r="L318" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M318" s="20" t="n"/>
@@ -17601,13 +17605,13 @@
       </c>
       <c r="D322" s="18" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>If planning to switch from Active Directory Domain Serivces to Entra domain services, evaluate the compatibility of all workloads</t>
         </is>
       </c>
       <c r="E322" s="18" t="n"/>
       <c r="F322" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -17623,13 +17627,13 @@
       </c>
       <c r="J322" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K322" s="19" t="n"/>
       <c r="L322" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M322" s="20" t="n"/>
@@ -17656,7 +17660,7 @@
       </c>
       <c r="D323" s="18" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Entra ID only group if a group management system is already in place.</t>
+          <t>Integrate Microsoft Entra ID logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
         </is>
       </c>
       <c r="E323" s="18" t="n"/>
@@ -17676,15 +17680,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J323" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J323" s="13" t="n"/>
       <c r="K323" s="19" t="n"/>
       <c r="L323" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M323" s="20" t="n"/>
@@ -17711,13 +17711,13 @@
       </c>
       <c r="D324" s="18" t="inlineStr">
         <is>
-          <t>If planning to switch from Active Directory Domain Serivces to Entra domain services, evaluate the compatibility of all workloads</t>
+          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout</t>
         </is>
       </c>
       <c r="E324" s="18" t="n"/>
       <c r="F324" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17733,13 +17733,13 @@
       </c>
       <c r="J324" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K324" s="19" t="n"/>
       <c r="L324" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M324" s="20" t="n"/>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="D325" s="18" t="inlineStr">
         <is>
-          <t>Where required, use Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
+          <t>Avoid using on-premises synced accounts for Microsoft Entra ID role assignments.</t>
         </is>
       </c>
       <c r="E325" s="18" t="n"/>
@@ -17788,13 +17788,13 @@
       </c>
       <c r="J325" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K325" s="19" t="n"/>
       <c r="L325" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M325" s="20" t="n"/>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="D326" s="18" t="inlineStr">
         <is>
-          <t>Avoid using on-premises synced accounts for Microsoft Entra ID role assignments.</t>
+          <t>Where required, use Microsoft Entra ID Application Proxy to give remote users secure and authenticated access to internal applications (hosted in the cloud or on-premises).</t>
         </is>
       </c>
       <c r="E326" s="18" t="n"/>
@@ -17843,13 +17843,13 @@
       </c>
       <c r="J326" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K326" s="19" t="n"/>
       <c r="L326" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M326" s="20" t="n"/>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
+          <t>Leverage a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
@@ -17898,13 +17898,13 @@
       </c>
       <c r="J327" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17921,23 +17921,23 @@
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17955,7 +17955,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17977,18 +17977,18 @@
       </c>
       <c r="C329" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -18004,13 +18004,13 @@
       </c>
       <c r="J329" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -18027,17 +18027,17 @@
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>Leverage a network design based on the traditional hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
@@ -18057,15 +18057,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J330" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J330" s="13" t="n"/>
       <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -18082,23 +18078,23 @@
       </c>
       <c r="B331" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C331" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Ensure that shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS servers.</t>
+          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
       <c r="F331" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -18116,7 +18112,7 @@
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -18133,23 +18129,23 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -18164,10 +18160,14 @@
         </is>
       </c>
       <c r="J332" s="13" t="n"/>
-      <c r="K332" s="19" t="n"/>
+      <c r="K332" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -18184,23 +18184,23 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways in hub and spoke scenarios, use Azure Route Server.</t>
+          <t>For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other.</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
       <c r="F333" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -18214,11 +18214,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J333" s="13" t="n"/>
+      <c r="J333" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18235,23 +18239,23 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>If using Route Server, use a /27 prefix for the Route Server subnet.</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -18265,15 +18269,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J334" s="13" t="n"/>
-      <c r="K334" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J334" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K334" s="19" t="n"/>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18290,7 +18294,7 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
@@ -18300,7 +18304,7 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>For network architectures with multiple hub-and-spoke topologies across Azure regions, use global virtual network peerings between the hub VNets to connect the regions to each other.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
@@ -18320,15 +18324,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J335" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K335" s="19" t="n"/>
+      <c r="J335" s="13" t="n"/>
+      <c r="K335" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18345,7 +18349,7 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
@@ -18355,7 +18359,7 @@
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t>Consider the limit of routes per route table (400).</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
@@ -18375,15 +18379,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J336" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K336" s="19" t="n"/>
+      <c r="J336" s="13" t="n"/>
+      <c r="K336" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18410,13 +18414,13 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits (500), the maximum number of prefixes that can be advertised via ExpressRoute (1000)</t>
+          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -18433,12 +18437,12 @@
       <c r="J337" s="13" t="n"/>
       <c r="K337" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18455,17 +18459,17 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Consider the limit of routes per route table (400).</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
@@ -18486,14 +18490,10 @@
         </is>
       </c>
       <c r="J338" s="13" t="n"/>
-      <c r="K338" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18510,23 +18510,23 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Use the setting 'Allow traffic to remote virtual network' when configuring VNet peerings</t>
+          <t>For scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a VPN gateway to establish IPsec tunnels over ExpressRoute private peering.</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
       <c r="F339" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -18540,15 +18540,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J339" s="13" t="n"/>
-      <c r="K339" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J339" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
@@ -18575,13 +18575,13 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18597,13 +18597,13 @@
       </c>
       <c r="J340" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18620,27 +18620,23 @@
       </c>
       <c r="B341" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
-        </is>
-      </c>
-      <c r="E341" s="18" t="inlineStr">
-        <is>
-          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
-        </is>
-      </c>
+          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+        </is>
+      </c>
+      <c r="E341" s="18" t="n"/>
       <c r="F341" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -18656,13 +18652,17 @@
       </c>
       <c r="J341" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K341" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K341" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18684,18 +18684,18 @@
       </c>
       <c r="C342" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16)</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
       <c r="F342" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -18711,17 +18711,17 @@
       </c>
       <c r="J342" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K342" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18738,17 +18738,17 @@
       </c>
       <c r="B343" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C343" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
@@ -18768,15 +18768,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J343" s="13" t="n"/>
-      <c r="K343" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J343" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18793,23 +18793,23 @@
       </c>
       <c r="B344" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C344" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
       <c r="F344" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -18823,15 +18823,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J344" s="13" t="n"/>
-      <c r="K344" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J344" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18848,17 +18848,17 @@
       </c>
       <c r="B345" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C345" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18880,17 +18880,13 @@
       </c>
       <c r="J345" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K345" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18907,23 +18903,23 @@
       </c>
       <c r="B346" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C346" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
       <c r="F346" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -18937,15 +18933,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J346" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J346" s="13" t="n"/>
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18962,23 +18954,23 @@
       </c>
       <c r="B347" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C347" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
       <c r="F347" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -18994,13 +18986,13 @@
       </c>
       <c r="J347" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -19017,17 +19009,17 @@
       </c>
       <c r="B348" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C348" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>Use zone-redundant VPN gateways to connect branches or remote locations to Azure (where available).</t>
+          <t>Consider using Azure Bastion to securely connect to your network.</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -19047,19 +19039,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J348" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K348" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J348" s="13" t="n"/>
+      <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -19076,17 +19060,17 @@
       </c>
       <c r="B349" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C349" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Use redundant VPN appliances on-premises (active/active or active/passive).</t>
+          <t>Use Azure Bastion in a subnet /26 or larger.</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -19106,15 +19090,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J349" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K349" s="19" t="n"/>
+      <c r="J349" s="13" t="n"/>
+      <c r="K349" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -19131,23 +19115,23 @@
       </c>
       <c r="B350" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C350" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -19163,13 +19147,13 @@
       </c>
       <c r="J350" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -19191,18 +19175,18 @@
       </c>
       <c r="C351" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
       <c r="F351" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -19218,13 +19202,13 @@
       </c>
       <c r="J351" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -19241,23 +19225,23 @@
       </c>
       <c r="B352" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
+          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
       <c r="F352" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -19273,13 +19257,13 @@
       </c>
       <c r="J352" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K352" s="19" t="n"/>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19296,23 +19280,23 @@
       </c>
       <c r="B353" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C353" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the network, especially between on-premises and Azure.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
       <c r="F353" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -19328,13 +19312,13 @@
       </c>
       <c r="J353" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K353" s="19" t="n"/>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19356,18 +19340,18 @@
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
+          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
       <c r="F354" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -19381,19 +19365,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J354" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K354" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J354" s="13" t="n"/>
+      <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19410,23 +19386,23 @@
       </c>
       <c r="B355" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>Use site-to-site VPN as failover of ExpressRoute, especially if only using a single ExpressRoute circuit.</t>
+          <t>Add diagnostic settings to save DDoS related logs for all the protected public IP addresses (DDoS IP or Network Protection).</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
       <c r="F355" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -19440,11 +19416,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J355" s="13" t="n"/>
+      <c r="J355" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19461,7 +19441,7 @@
       </c>
       <c r="B356" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C356" s="18" t="inlineStr">
@@ -19471,13 +19451,13 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19491,15 +19471,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J356" s="13" t="n"/>
-      <c r="K356" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J356" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19526,13 +19506,17 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
-        </is>
-      </c>
-      <c r="E357" s="18" t="n"/>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+        </is>
+      </c>
+      <c r="E357" s="18" t="inlineStr">
+        <is>
+          <t>You can use AS-path prepending and connection weights to influence traffic from Azure to on-premises, and the full range of BGP attributes in your own routers to influence traffic from on-premises to Azure.</t>
+        </is>
+      </c>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -19546,11 +19530,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J357" s="13" t="n"/>
+      <c r="J357" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19567,7 +19555,7 @@
       </c>
       <c r="B358" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C358" s="18" t="inlineStr">
@@ -19577,7 +19565,7 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t>Ensure the two physical links of your ExpressRoute circuit are connected to two distinct edge devices in your network.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
@@ -19602,10 +19590,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K358" s="19" t="n"/>
+      <c r="K358" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19622,7 +19614,7 @@
       </c>
       <c r="B359" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C359" s="18" t="inlineStr">
@@ -19632,13 +19624,13 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>Ensure Bidirectional Forwarding Detection (BFD) is enabled and configured on customer or provider edge routing devices.</t>
+          <t>Ensure that you're using unlimited-data ExpressRoute circuits only if you reach the bandwidth that justifies their cost.</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
       <c r="F359" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -19652,15 +19644,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J359" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K359" s="19" t="n"/>
+      <c r="J359" s="13" t="n"/>
+      <c r="K359" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19677,7 +19669,7 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
@@ -19687,7 +19679,7 @@
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>Connect the ExpressRoute Gateway to two or more circuits from different peering locations for higher resiliency.</t>
+          <t>Leverage the Local SKU of ExpressRoute to reduce the cost of your circuits, if your circuits' peering location supports your Azure regions for the Local SKU.</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
@@ -19707,15 +19699,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J360" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K360" s="19" t="n"/>
+      <c r="J360" s="13" t="n"/>
+      <c r="K360" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19732,7 +19724,7 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
@@ -19742,7 +19734,7 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>Configure diagnostic logs and alerts for ExpressRoute virtual network gateway.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
@@ -19767,10 +19759,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K361" s="19" t="n"/>
+      <c r="K361" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19797,7 +19793,7 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>Avoid using ExpressRoute circuits for VNet-to-VNet communication.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
@@ -19825,7 +19821,7 @@
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19842,7 +19838,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19852,13 +19848,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations are used</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19874,13 +19870,13 @@
       </c>
       <c r="J363" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19897,23 +19893,23 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>Use IP addresses from the address allocation ranges for private internets (RFC 1918).</t>
+          <t>Use zone-redundant VPN gateways to connect branches or remote locations to Azure (where available).</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
       <c r="F364" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -19929,17 +19925,17 @@
       </c>
       <c r="J364" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K364" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19956,23 +19952,23 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16)</t>
+          <t>Use redundant VPN appliances on-premises (active/active or active/passive).</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19988,17 +19984,13 @@
       </c>
       <c r="J365" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K365" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K365" s="19" t="n"/>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -20015,17 +20007,17 @@
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>If using ExpressRoute Direct, consider using ExpressRoute Local circuits to the local Azure regions to save costs</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
@@ -20047,13 +20039,13 @@
       </c>
       <c r="J366" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -20070,17 +20062,17 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution with a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
@@ -20102,13 +20094,13 @@
       </c>
       <c r="J367" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K367" s="19" t="n"/>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -20125,17 +20117,17 @@
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, consider using Azure DNS Private Resolver.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Express Route Insights.</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -20157,13 +20149,13 @@
       </c>
       <c r="J368" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -20185,18 +20177,18 @@
       </c>
       <c r="C369" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the network, especially between on-premises and Azure.</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -20210,11 +20202,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -20231,23 +20227,23 @@
       </c>
       <c r="B370" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C370" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Use ExpressRoute circuits from different peering locations for redundancy.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -20263,13 +20259,17 @@
       </c>
       <c r="J370" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K370" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K370" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -20286,17 +20286,17 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>Consider using Azure Bastion to securely connect to your network.</t>
+          <t>Use site-to-site VPN as failover of ExpressRoute, especially if only using a single ExpressRoute circuit.</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
@@ -20320,7 +20320,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -20337,23 +20337,23 @@
       </c>
       <c r="B372" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C372" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Bastion in a subnet /26 or larger.</t>
+          <t>If you are using a route table in the GatewaySubnet, make sure that gateway routes are propagated.</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -20370,12 +20370,12 @@
       <c r="J372" s="13" t="n"/>
       <c r="K372" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -20392,23 +20392,23 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>If using ExpressRoute, your on-premises routing should be dynamic: in the event of a connection failure it should converge to the remaining connection of the circuit. Load should be shared across both connections ideally as active/active, although active/passive is supported too.</t>
         </is>
       </c>
       <c r="E373" s="18" t="n"/>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -20422,15 +20422,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J373" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J373" s="13" t="n"/>
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -20447,23 +20443,23 @@
       </c>
       <c r="B374" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C374" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Ensure the two physical links of your ExpressRoute circuit are connected to two distinct edge devices in your network.</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -20479,13 +20475,13 @@
       </c>
       <c r="J374" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -20502,23 +20498,23 @@
       </c>
       <c r="B375" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C375" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Deploy WAFs and other reverse proxies are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Ensure Bidirectional Forwarding Detection (BFD) is enabled and configured on customer or provider edge routing devices.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -20534,13 +20530,13 @@
       </c>
       <c r="J375" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -20557,17 +20553,17 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
+          <t>Connect the ExpressRoute Gateway to two or more circuits from different peering locations for higher resiliency.</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
@@ -20589,13 +20585,13 @@
       </c>
       <c r="J376" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20612,23 +20608,23 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Assess and review network outbound traffic configuration and strategy before the upcoming breaking change. On September 30, 2025, default outbound access for new deployments will be retired and only explicit access configurations will be allowed</t>
+          <t>Configure diagnostic logs and alerts for ExpressRoute virtual network gateway.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
       <c r="F377" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -20642,11 +20638,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J377" s="13" t="n"/>
+      <c r="J377" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20663,23 +20663,23 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save DDoS related logs for all the protected public IP addresses (DDoS IP or Network Protection).</t>
+          <t>Avoid using ExpressRoute circuits for VNet-to-VNet communication.</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -20695,13 +20695,13 @@
       </c>
       <c r="J378" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -23640,18 +23640,18 @@
       </c>
       <c r="C434" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23665,11 +23665,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J434" s="13" t="n"/>
+      <c r="J434" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23691,12 +23695,12 @@
       </c>
       <c r="C435" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
+          <t>Export logs to Azure Storage if your log retention requirements exceed twelve years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -23716,11 +23720,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J435" s="13" t="n"/>
+      <c r="J435" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23737,17 +23745,17 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
+          <t>Monitor OS level virtual machine (VM) configuration drift using Azure Policy. Enabling Azure Automanage Machine Configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
@@ -23767,11 +23775,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J436" s="13" t="n"/>
+      <c r="J436" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23793,12 +23805,12 @@
       </c>
       <c r="C437" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in Azure.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23820,13 +23832,13 @@
       </c>
       <c r="J437" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23848,12 +23860,12 @@
       </c>
       <c r="C438" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if your log retention requirements exceed twelve years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
@@ -23875,13 +23887,13 @@
       </c>
       <c r="J438" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23903,12 +23915,12 @@
       </c>
       <c r="C439" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Monitor OS level virtual machine (VM) configuration drift using Azure Policy. Enabling Azure Automanage Machine Configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23930,13 +23942,13 @@
       </c>
       <c r="J439" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23958,12 +23970,12 @@
       </c>
       <c r="C440" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in Azure.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
@@ -23983,15 +23995,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J440" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J440" s="13" t="n"/>
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -24013,12 +24021,12 @@
       </c>
       <c r="C441" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
@@ -24038,15 +24046,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J441" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J441" s="13" t="n"/>
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -24068,12 +24072,12 @@
       </c>
       <c r="C442" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t>When using Change and Inventory Tracking via Azure Automation Accounts, ensure that you have selected supported regions for linking your Log Analytics workspace and automation accounts together.</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -24093,15 +24097,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J442" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J442" s="13" t="n"/>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -24118,17 +24118,17 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>When using Azure Backup, consider the different backup types (GRS, ZRS &amp; LRS) as the default setting is GRS</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
@@ -24152,7 +24152,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -24169,17 +24169,17 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
@@ -24203,7 +24203,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -24220,20 +24220,24 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>When using Change and Inventory Tracking via Azure Automation Accounts, ensure that you have selected supported regions for linking your Log Analytics workspace and automation accounts together.</t>
-        </is>
-      </c>
-      <c r="E445" s="18" t="n"/>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
+      <c r="E445" s="18" t="inlineStr">
+        <is>
+          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
+        </is>
+      </c>
       <c r="F445" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -24254,7 +24258,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -24271,7 +24275,7 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
@@ -24281,7 +24285,7 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -24305,7 +24309,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -24322,24 +24326,20 @@
       </c>
       <c r="B447" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C447" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
-        </is>
-      </c>
-      <c r="E447" s="18" t="inlineStr">
-        <is>
-          <t>Azure Policy's guest configuration features can audit and remediate machine settings (e.g., OS, application, environment) to ensure resources align with expected configurations, and Update Management can enforce patch management for VMs.</t>
-        </is>
-      </c>
+          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+        </is>
+      </c>
+      <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -24360,7 +24360,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -24377,7 +24377,7 @@
       </c>
       <c r="B448" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C448" s="18" t="inlineStr">
@@ -24387,13 +24387,13 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -24411,7 +24411,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -24428,23 +24428,23 @@
       </c>
       <c r="B449" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C449" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities, or an Azure-compatible, 3rd-party backup solution.</t>
+          <t>Avoid running a production workload on a single VM.</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -24462,7 +24462,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -24489,13 +24489,13 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>Leverage Availability Zones for your VMs in regions where they are supported.</t>
+          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -24513,7 +24513,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -24530,17 +24530,17 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Avoid running a production workload on a single VM.</t>
+          <t>Add diagnostic settings to save WAF logs from application delivery services like Azure Front Door and Azure Application Gateway. Regularly review the logs to check for attacks and for false positive detections.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -24564,7 +24564,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -24581,17 +24581,17 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Azure Load Balancer and Application Gateway distribute incoming network traffic across multiple resources.</t>
+          <t>Send WAF logs from your application delivery services like Azure Front Door and Azure Application Gateway to Microsoft Sentinel. Detect attacks and integrate WAF telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
@@ -24615,7 +24615,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -9034,7 +9034,7 @@
       </c>
       <c r="D161" s="18" t="inlineStr">
         <is>
-          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
+          <t>Make sure that internal deployments for Azure Load Balancer are set up to use Direct Server Return (DSR). This setting (Enabling Floating IP) will reduce latency when internal load balancer configurations are used for high-availability configurations on the DBMS layer.</t>
         </is>
       </c>
       <c r="E161" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22953,7 +22953,7 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Be aware of APIM's limits</t>
+          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22987,7 +22987,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
+          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -23014,7 +23014,7 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Ensure that custom SSL certificates are stored an Azure Key Vault so they can be securely accessed and updated</t>
+          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
@@ -23038,7 +23038,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>39460bdb-156f-4dc2-a87f-1e8c11ab0998</t>
+          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -23065,13 +23065,13 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Protect incoming requests to APIs (data plane) with Azure AD</t>
+          <t>Use Microsoft Entra ID to authenticate users in the Developer Portal</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -23089,7 +23089,7 @@
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>e9217997-5f6c-479d-8576-8f2adf706ec8</t>
+          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -23116,7 +23116,7 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Use Azure AD to authenticate users in the Developer Portal</t>
+          <t>Create appropriate groups to control the visibility of the products</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
@@ -23140,7 +23140,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>5e5f64ba-c90e-480e-8888-398d96cf0bfb</t>
+          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -23157,7 +23157,7 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
@@ -23167,7 +23167,7 @@
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Create appropriate groups to control the visibility of the products</t>
+          <t>Use Backends feature to eliminate redundant API backend configurations</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -23191,7 +23191,7 @@
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>f8e574ce-280f-49c8-b2ef-68279b081cf3</t>
+          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -23218,7 +23218,7 @@
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Use Backends feature to eliminate redundant API backend configurations</t>
+          <t>Use Named Values to store common values that can be used in policies</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -23242,7 +23242,7 @@
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>06862505-2d9a-4874-9491-2837b00a3475</t>
+          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -23259,7 +23259,7 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
@@ -23269,7 +23269,7 @@
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Use Named Values to store common values that can be used in policies</t>
+          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
@@ -23293,7 +23293,7 @@
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>03b125d5-b69b-4739-b7fd-84b86da4933e</t>
+          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Use the premium tier for production workloads.</t>
+          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -23344,7 +23344,7 @@
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
+          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23371,13 +23371,13 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>For DR, leverage the premium tier with deployments scaled across two or more regions for 99.99% SLA</t>
+          <t>Ensure there is an automated backup routine</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -23395,7 +23395,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
+          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23422,7 +23422,7 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
+          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
@@ -23446,7 +23446,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
+          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23463,7 +23463,7 @@
       </c>
       <c r="B434" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C434" s="18" t="inlineStr">
@@ -23473,13 +23473,13 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Deploy at least one unit in two or more availability zones for an increased SLA of 99.99%</t>
+          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23497,7 +23497,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
+          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="B435" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C435" s="18" t="inlineStr">
@@ -23524,13 +23524,13 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
+          <t>Apply throttling policies to control the number of requests per second</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
       <c r="F435" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
@@ -23544,11 +23544,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J435" s="13" t="n"/>
+      <c r="J435" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
+        </is>
+      </c>
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
+          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23565,7 +23569,7 @@
       </c>
       <c r="B436" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C436" s="18" t="inlineStr">
@@ -23575,13 +23579,13 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>Ensure there is an automated backup routine</t>
+          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
       <c r="F436" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -23599,7 +23603,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>8d2db6e8-85c6-4118-a52c-ae76a4f27934</t>
+          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23616,7 +23620,7 @@
       </c>
       <c r="B437" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="C437" s="18" t="inlineStr">
@@ -23626,13 +23630,13 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>If you need to log at high performance levels, consider Event Hubs policy</t>
+          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
       <c r="F437" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
@@ -23650,7 +23654,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>8210699f-8d43-45c2-8f19-57e54134bd8f</t>
+          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23667,7 +23671,7 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
@@ -23677,7 +23681,7 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>Apply throttling policies to control the number of requests per second</t>
+          <t>Use the premium tier for production workloads.</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
@@ -23697,15 +23701,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J438" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/protect-apis-on-api-management/</t>
-        </is>
-      </c>
+      <c r="J438" s="13" t="n"/>
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>121bfc39-fa7b-4096-b93b-ab56c1bc0bed</t>
+          <t>1fe8db45-a017-4888-8c4d-4422583cfae0</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23722,7 +23722,7 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
@@ -23732,7 +23732,7 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Configure autoscaling to scale out the number of instances when the load increases</t>
+          <t>In multi-region model, use Policies to route the requests to regional backends based on availability or latency.</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
@@ -23756,7 +23756,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
+          <t>1b8d68a4-66cd-44d5-ba94-3ee94440e8d6</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
@@ -23783,13 +23783,13 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Deploy self-hosted gateways where Azure doesn't have a region close to the backend APIs.</t>
+          <t>Be aware of APIM's limits</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23807,7 +23807,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>84b94abb-59b6-4b9d-8587-3413669468e8</t>
+          <t>46f07d33-ef9a-44e8-8f98-67c097c5d8cd</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23834,13 +23834,13 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Use Policies to add a fail-over backend URL and caching to reduce failing calls.</t>
+          <t>Ensure that the self-hosted gateway deployments are resilient.</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23858,7 +23858,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>43e60b94-7bca-43a2-aadf-efb04d63a485</t>
+          <t>10f58602-f0f9-4d77-972a-956f6e0f2600</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -37021,7 +37021,7 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs in outside of Azure using Azure Arc.</t>
+          <t>Use Azure Update Manager as a patching mechanism for Windows and Linux VMs outside of Azure using Azure Arc.</t>
         </is>
       </c>
       <c r="E686" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -25994,7 +25994,7 @@
       </c>
       <c r="B491" s="18" t="inlineStr">
         <is>
-          <t>Operational Execellence</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="C491" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -29114,7 +29114,11 @@
           <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
-      <c r="K546" s="19" t="n"/>
+      <c r="K546" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualwans' | extend compliant= (properties.allowBranchToBranchTraffic == 'true') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L546" s="19" t="inlineStr">
         <is>
           <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
@@ -29169,7 +29173,11 @@
           <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
-      <c r="K547" s="19" t="n"/>
+      <c r="K547" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualhubs'| extend compliant= (properties.hubRoutingPreference =~ 'ASPath') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L547" s="19" t="inlineStr">
         <is>
           <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -20257,12 +20257,12 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>When possible, your application should be using a managed identity to authenticate to Azure Service Bus. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
+          <t>When possible, disable SAS key authentication (or local authentication) and use only Microsoft Entra ID for authentication</t>
         </is>
       </c>
       <c r="E386" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Service Bus client app running inside an Azure App Service application or in a virtual machine with enabled managed entities for Azure resources support does not need to handle SAS rules and keys, or any other access tokens. The client app only needs the endpoint address of the Service Bus Messaging namespace. </t>
+          <t>Microsoft Entra ID provides superior security and ease of use over shared access signatures (SAS). With Microsoft Entra ID, there’s no need to store the tokens in your code and risk potential security vulnerabilities. We recommend that you use Microsoft Entra ID with your Azure Service Bus applications when possible.</t>
         </is>
       </c>
       <c r="F386" s="18" t="inlineStr">
@@ -20286,7 +20286,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K386" s="19" t="n"/>
+      <c r="K386" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L386" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>
@@ -55636,7 +55640,11 @@
         </is>
       </c>
       <c r="J1048" s="13" t="n"/>
-      <c r="K1048" s="19" t="n"/>
+      <c r="K1048" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L1048" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -55691,7 +55699,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K1049" s="19" t="n"/>
+      <c r="K1049" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L1049" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -55907,7 +55919,11 @@
         </is>
       </c>
       <c r="J1053" s="13" t="n"/>
-      <c r="K1053" s="19" t="n"/>
+      <c r="K1053" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L1053" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -3548,7 +3548,11 @@
         </is>
       </c>
       <c r="J56" s="13" t="n"/>
-      <c r="K56" s="19" t="n"/>
+      <c r="K56" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L56" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -20257,12 +20261,12 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>When possible, your application should be using a managed identity to authenticate to Azure Service Bus. If not, consider having the storage credential (SAS, service principal credential) in Azure Key Vault or an equivalent service</t>
+          <t>When possible, disable SAS key authentication (or local authentication) and use only Microsoft Entra ID for authentication</t>
         </is>
       </c>
       <c r="E386" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">A Service Bus client app running inside an Azure App Service application or in a virtual machine with enabled managed entities for Azure resources support does not need to handle SAS rules and keys, or any other access tokens. The client app only needs the endpoint address of the Service Bus Messaging namespace. </t>
+          <t>Microsoft Entra ID provides superior security and ease of use over shared access signatures (SAS). With Microsoft Entra ID, there’s no need to store the tokens in your code and risk potential security vulnerabilities. We recommend that you use Microsoft Entra ID with your Azure Service Bus applications when possible.</t>
         </is>
       </c>
       <c r="F386" s="18" t="inlineStr">
@@ -20286,7 +20290,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K386" s="19" t="n"/>
+      <c r="K386" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L386" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>
@@ -55636,7 +55644,11 @@
         </is>
       </c>
       <c r="J1048" s="13" t="n"/>
-      <c r="K1048" s="19" t="n"/>
+      <c r="K1048" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L1048" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -55691,7 +55703,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K1049" s="19" t="n"/>
+      <c r="K1049" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L1049" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -55907,7 +55923,11 @@
         </is>
       </c>
       <c r="J1053" s="13" t="n"/>
-      <c r="K1053" s="19" t="n"/>
+      <c r="K1053" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L1053" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -3548,7 +3548,11 @@
         </is>
       </c>
       <c r="J56" s="13" t="n"/>
-      <c r="K56" s="19" t="n"/>
+      <c r="K56" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L56" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -23750,17 +23754,17 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>Operations</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>Use one Entra tenant for managing your Azure resources, unless you have a clear regulatory or business requirement for multi-tenants.</t>
+          <t>Deploy your Azure landing zone connectivity resources in multiple regions, so that you can quickly support multi-region application landing zones and disaster recovery scenarios.</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
@@ -23782,13 +23786,13 @@
       </c>
       <c r="J451" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
+          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
         </is>
       </c>
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
+          <t>7bc1c396-2461-4698-b57f-30ca69525252</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -23815,13 +23819,13 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>Use Multi-Tenant Automation approach to managing your Microsoft Entra ID Tenants.</t>
+          <t>Use one Entra tenant for managing your Azure resources, unless you have a clear regulatory or business requirement for multi-tenants.</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -23837,13 +23841,13 @@
       </c>
       <c r="J452" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
+          <t>https://learn.microsoft.com/training/modules/deploy-resources-scopes-bicep/2-understand-deployment-scopes</t>
         </is>
       </c>
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
+          <t>70c15989-c726-42c7-b0d3-24b7375b9201</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -23870,13 +23874,13 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>Use Azure Lighthouse for Multi-Tenant Management with the same IDs.</t>
+          <t>Use Multi-Tenant Automation approach to managing your Microsoft Entra ID Tenants.</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
       <c r="F453" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -23892,13 +23896,13 @@
       </c>
       <c r="J453" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
+          <t>https://learn.microsoft.com/entra/architecture/multi-tenant-user-management-introduction/</t>
         </is>
       </c>
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
+          <t>6309957b-821a-43d1-b9d9-7fcf1802b747</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -23915,7 +23919,7 @@
       </c>
       <c r="B454" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Operations</t>
         </is>
       </c>
       <c r="C454" s="18" t="inlineStr">
@@ -23925,7 +23929,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>If you give a partner access to administer your tenant, use Azure Lighthouse.</t>
+          <t>Use Azure Lighthouse for Multi-Tenant Management with the same IDs.</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -23947,13 +23951,13 @@
       </c>
       <c r="J454" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/concepts/cross-tenant-management-experience</t>
         </is>
       </c>
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
+          <t>78e11934-499a-45ed-8ef7-aae5578f0ecf</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -23970,7 +23974,7 @@
       </c>
       <c r="B455" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C455" s="18" t="inlineStr">
@@ -23980,7 +23984,7 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
+          <t>If you give a partner access to administer your tenant, use Azure Lighthouse.</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
@@ -24002,13 +24006,13 @@
       </c>
       <c r="J455" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/lighthouse/how-to/onboard-customer</t>
         </is>
       </c>
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>5d82e6df-6f61-42f2-82e2-3132d293be3d</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24035,13 +24039,13 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
+          <t>Enforce a RBAC model that aligns to your cloud operating model. Scope and Assign across Management Groups and Subscriptions.</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24057,13 +24061,13 @@
       </c>
       <c r="J456" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24090,7 +24094,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Only use groups to assign permissions. Add on-premises groups to the Entra ID only group if a group management system is already in place.</t>
+          <t>Only use the authentication type Work or school account for all account types. Avoid using the Microsoft account</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24112,13 +24116,13 @@
       </c>
       <c r="J457" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24145,13 +24149,13 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Enforce Microsoft Entra ID Conditional Access policies for any user with rights to Azure environments.</t>
+          <t>Only use groups to assign permissions. Add on-premises groups to the Entra ID only group if a group management system is already in place.</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24167,13 +24171,13 @@
       </c>
       <c r="J458" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24200,7 +24204,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Enforce multi-factor authentication for any user with rights to the Azure environments.</t>
+          <t>Enforce Microsoft Entra ID Conditional Access policies for any user with rights to Azure environments.</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24222,13 +24226,13 @@
       </c>
       <c r="J459" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24255,13 +24259,13 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Enforce Microsoft Entra ID Privileged Identity Management (PIM) to establish zero standing access and least privilege.</t>
+          <t>Enforce multi-factor authentication for any user with rights to the Azure environments.</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
       <c r="F460" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -24277,13 +24281,13 @@
       </c>
       <c r="J460" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24310,7 +24314,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>If planning to switch from Active Directory Domain Services to Entra domain services, evaluate the compatibility of all workloads.</t>
+          <t>Enforce Microsoft Entra ID Privileged Identity Management (PIM) to establish zero standing access and least privilege.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24332,13 +24336,13 @@
       </c>
       <c r="J461" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24355,7 +24359,7 @@
       </c>
       <c r="B462" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C462" s="18" t="inlineStr">
@@ -24365,7 +24369,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">When using Microsoft Entra Domain Services use replica sets. Replica sets will improve the resiliency of your managed domain and allow you to deploy to additional regions. </t>
+          <t>If planning to switch from Active Directory Domain Services to Entra domain services, evaluate the compatibility of all workloads.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24387,17 +24391,13 @@
       </c>
       <c r="J462" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
-        </is>
-      </c>
-      <c r="K462" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+        </is>
+      </c>
+      <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24414,7 +24414,7 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
@@ -24424,7 +24424,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Integrate Microsoft Entra ID logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
+          <t xml:space="preserve">When using Microsoft Entra Domain Services use replica sets. Replica sets will improve the resiliency of your managed domain and allow you to deploy to additional regions. </t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24446,13 +24446,17 @@
       </c>
       <c r="J463" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
-        </is>
-      </c>
-      <c r="K463" s="19" t="n"/>
+          <t>https://learn.microsoft.com/training/modules/understand-azure-active-directory/6-examine-azure-domain-services</t>
+        </is>
+      </c>
+      <c r="K463" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>0dd4e625-9c4b-4a56-b54a-4357bac12761</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24479,13 +24483,13 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout.</t>
+          <t>Integrate Microsoft Entra ID logs with the platform-central Azure Monitor. Azure Monitor allows for a single source of truth around log and monitoring data in Azure, giving organizations a cloud native options to meet requirements around log collection and retention.</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
       <c r="F464" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
@@ -24501,13 +24505,13 @@
       </c>
       <c r="J464" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/monitoring-health/howto-integrate-activity-logs-with-azure-monitor-logs</t>
         </is>
       </c>
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24534,13 +24538,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Do not use on-premises synced accounts for Microsoft Entra ID role assignments, unless you have a scenario that specifically requires it.</t>
+          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24556,13 +24560,13 @@
       </c>
       <c r="J465" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24589,7 +24593,7 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>When using Microsoft Entra ID Application Proxy to give remote users access to applications, manage it as a Platform resource as you can only have one instance per tenant.</t>
+          <t>Do not use on-premises synced accounts for Microsoft Entra ID role assignments, unless you have a scenario that specifically requires it.</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
@@ -24611,13 +24615,13 @@
       </c>
       <c r="J466" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24639,12 +24643,12 @@
       </c>
       <c r="C467" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>Use a hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
+          <t>When using Microsoft Entra ID Application Proxy to give remote users access to applications, manage it as a Platform resource as you can only have one instance per tenant.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24666,13 +24670,13 @@
       </c>
       <c r="J467" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -24689,7 +24693,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -24699,13 +24703,13 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Deploy shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS services.</t>
+          <t>Use a hub-and-spoke network topology for network scenarios that require maximum flexibility.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
       <c r="F468" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -24721,13 +24725,13 @@
       </c>
       <c r="J468" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/hub-and-spoke-network-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -24744,7 +24748,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -24754,13 +24758,13 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Deploy your Azure landing zone connectivity resources in multiple regions, so that you can quickly support multi-region application landing zones and disaster recovery scenarios.</t>
+          <t>Deploy shared networking services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy DNS services.</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -24782,7 +24786,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>7bc1c396-2461-4698-b57f-30ca69525252</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -30261,7 +30265,11 @@
           <t>https://learn.microsoft.com/training/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
-      <c r="K567" s="19" t="n"/>
+      <c r="K567" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualhubs' | extend addressSpace = properties.addressPrefix | extend compliant= (toint(substring(addressSpace, indexof(addressSpace, '/') + 1)) &lt; 23) | distinct name, id, compliant</t>
+        </is>
+      </c>
       <c r="L567" s="19" t="inlineStr">
         <is>
           <t>9c75dfef-573c-461c-a698-68598595581a</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -24281,7 +24281,7 @@
       </c>
       <c r="J460" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/entra/identity/authentication/concept-mandatory-multifactor-authentication</t>
         </is>
       </c>
       <c r="K460" s="19" t="n"/>
@@ -24538,7 +24538,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout.</t>
+          <t xml:space="preserve">Implement an emergency access or break-glass accounts to prevent tenant-wide account lockout. MFA will be turned on by default for all users in Oct 2024. We recommend updating these accounts to use passkey (FIDO2) or configure certificate-based authentication for MFA. </t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24560,7 +24560,7 @@
       </c>
       <c r="J465" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access#exclude-at-least-one-account-from-conditional-access-policies</t>
         </is>
       </c>
       <c r="K465" s="19" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -60646,7 +60646,11 @@
         </is>
       </c>
       <c r="J1138" s="13" t="n"/>
-      <c r="K1138" s="19" t="n"/>
+      <c r="K1138" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = ( sku.name == 'Premium' and  isnotnull(properties.additionalLocations)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1138" s="19" t="inlineStr">
         <is>
           <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
@@ -60697,7 +60701,11 @@
         </is>
       </c>
       <c r="J1139" s="13" t="n"/>
-      <c r="K1139" s="19" t="n"/>
+      <c r="K1139" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = ( sku.name == 'Premium' and  isnotnull(zones) and sku.capacity &gt;= 2 ) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1139" s="19" t="inlineStr">
         <is>
           <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
@@ -60956,7 +60964,11 @@
         </is>
       </c>
       <c r="J1144" s="13" t="n"/>
-      <c r="K1144" s="19" t="n"/>
+      <c r="K1144" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | join kind = leftouter (resources | where type == 'microsoft.insights/autoscalesettings' | extend targetResourceUri = tostring(properties.targetResourceUri)) on $left.id == $right.targetResourceUri | extend compliant = (sku.name == 'Premium' and isnotempty(targetResourceUri) and properties1.enabled == true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1144" s="19" t="inlineStr">
         <is>
           <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
@@ -61368,7 +61380,11 @@
         </is>
       </c>
       <c r="J1152" s="13" t="n"/>
-      <c r="K1152" s="19" t="n"/>
+      <c r="K1152" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (isnotnull(properties.virtualNetworkConfiguration)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1152" s="19" t="inlineStr">
         <is>
           <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
@@ -61470,7 +61486,11 @@
         </is>
       </c>
       <c r="J1154" s="13" t="n"/>
-      <c r="K1154" s="19" t="n"/>
+      <c r="K1154" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (properties.virtualNetworkType == 'None' and isnotnull(properties.privateEndpointConnections)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1154" s="19" t="inlineStr">
         <is>
           <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
@@ -61521,7 +61541,11 @@
         </is>
       </c>
       <c r="J1155" s="13" t="n"/>
-      <c r="K1155" s="19" t="n"/>
+      <c r="K1155" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (properties.virtualNetworkType == 'Internal') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1155" s="19" t="inlineStr">
         <is>
           <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
@@ -62082,7 +62106,11 @@
         </is>
       </c>
       <c r="J1166" s="13" t="n"/>
-      <c r="K1166" s="19" t="n"/>
+      <c r="K1166" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (isnotnull(identity)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1166" s="19" t="inlineStr">
         <is>
           <t>791abd8b-7706-4e31-9569-afefde724be3</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -48140,7 +48140,11 @@
         </is>
       </c>
       <c r="J908" s="13" t="n"/>
-      <c r="K908" s="19" t="n"/>
+      <c r="K908" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L908" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -60646,7 +60650,11 @@
         </is>
       </c>
       <c r="J1138" s="13" t="n"/>
-      <c r="K1138" s="19" t="n"/>
+      <c r="K1138" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = ( sku.name == 'Premium' and  isnotnull(properties.additionalLocations)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1138" s="19" t="inlineStr">
         <is>
           <t>beae759e-4ddb-4326-bf26-47f87d3454b6</t>
@@ -60697,7 +60705,11 @@
         </is>
       </c>
       <c r="J1139" s="13" t="n"/>
-      <c r="K1139" s="19" t="n"/>
+      <c r="K1139" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = ( sku.name == 'Premium' and  isnotnull(zones) and sku.capacity &gt;= 2 ) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1139" s="19" t="inlineStr">
         <is>
           <t>9c8d1664-dd9a-49d4-bd83-950af0af4044</t>
@@ -60956,7 +60968,11 @@
         </is>
       </c>
       <c r="J1144" s="13" t="n"/>
-      <c r="K1144" s="19" t="n"/>
+      <c r="K1144" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | join kind = leftouter (resources | where type == 'microsoft.insights/autoscalesettings' | extend targetResourceUri = tostring(properties.targetResourceUri)) on $left.id == $right.targetResourceUri | extend compliant = (sku.name == 'Premium' and isnotempty(targetResourceUri) and properties1.enabled == true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1144" s="19" t="inlineStr">
         <is>
           <t>bb5f356b-3daf-47a2-a9ee-867a8100bbd5</t>
@@ -61368,7 +61384,11 @@
         </is>
       </c>
       <c r="J1152" s="13" t="n"/>
-      <c r="K1152" s="19" t="n"/>
+      <c r="K1152" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (isnotnull(properties.virtualNetworkConfiguration)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1152" s="19" t="inlineStr">
         <is>
           <t>cd45c90e-7690-4753-930b-bf290c69c074</t>
@@ -61470,7 +61490,11 @@
         </is>
       </c>
       <c r="J1154" s="13" t="n"/>
-      <c r="K1154" s="19" t="n"/>
+      <c r="K1154" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (properties.virtualNetworkType == 'None' and isnotnull(properties.privateEndpointConnections)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1154" s="19" t="inlineStr">
         <is>
           <t>67437a28-2721-4a2c-becd-caa54c8237a5</t>
@@ -61521,7 +61545,11 @@
         </is>
       </c>
       <c r="J1155" s="13" t="n"/>
-      <c r="K1155" s="19" t="n"/>
+      <c r="K1155" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (properties.virtualNetworkType == 'Internal') | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1155" s="19" t="inlineStr">
         <is>
           <t>d698adbd-3288-44cb-b10a-9b572da395ae</t>
@@ -62082,7 +62110,11 @@
         </is>
       </c>
       <c r="J1166" s="13" t="n"/>
-      <c r="K1166" s="19" t="n"/>
+      <c r="K1166" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.apimanagement/service' | extend compliant = (isnotnull(identity)) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L1166" s="19" t="inlineStr">
         <is>
           <t>791abd8b-7706-4e31-9569-afefde724be3</t>

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -48140,7 +48140,11 @@
         </is>
       </c>
       <c r="J908" s="13" t="n"/>
-      <c r="K908" s="19" t="n"/>
+      <c r="K908" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L908" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -51667,7 +51671,7 @@
       </c>
       <c r="C975" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D975" s="18" t="inlineStr">
@@ -51722,7 +51726,7 @@
       </c>
       <c r="C976" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D976" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.en.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.en.xlsx
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C69" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D69" s="18" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C70" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D70" s="18" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C71" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D71" s="18" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C72" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D72" s="18" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="C73" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D73" s="18" t="inlineStr">
@@ -4460,7 +4460,7 @@
       </c>
       <c r="C74" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D74" s="18" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="C75" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D75" s="18" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C79" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D79" s="18" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="C80" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D80" s="18" t="inlineStr">
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C81" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D81" s="18" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C82" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D82" s="18" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="C83" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D83" s="18" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="C84" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D84" s="18" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="C85" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D85" s="18" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="C86" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D86" s="18" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C87" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D87" s="18" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C88" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D88" s="18" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="C89" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D89" s="18" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="C90" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D90" s="18" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="C91" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D91" s="18" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C92" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D92" s="18" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C93" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D93" s="18" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C94" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D94" s="18" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="C95" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D95" s="18" t="inlineStr">
@@ -5682,7 +5682,7 @@
       </c>
       <c r="C96" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D96" s="18" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C97" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D97" s="18" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C98" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D98" s="18" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="C99" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D99" s="18" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="C100" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D100" s="18" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="C101" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D101" s="18" t="inlineStr">
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C102" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D102" s="18" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="C103" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D103" s="18" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C104" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D104" s="18" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="C105" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D105" s="18" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C106" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D106" s="18" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="C107" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D107" s="18" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C108" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D108" s="18" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="C109" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D109" s="18" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="C110" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D110" s="18" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="C111" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D111" s="18" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C112" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D112" s="18" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="C113" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D113" s="18" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="C114" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D114" s="18" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C115" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D115" s="18" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C116" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D116" s="18" t="inlineStr">
@@ -6817,7 +6817,7 @@
       </c>
       <c r="C117" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D117" s="18" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="C118" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D118" s="18" t="inlineStr">
@@ -18509,7 +18509,7 @@
       </c>
       <c r="C333" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D333" s="18" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="C334" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D334" s="18" t="inlineStr">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="C337" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D337" s="18" t="inlineStr">
@@ -18772,7 +18772,7 @@
       </c>
       <c r="C338" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D338" s="18" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="C348" s="18" t="inlineStr">
         <is>
-          <t>Azure SQL</t>
+          <t>SQL</t>
         </is>
       </c>
       <c r="D348" s="18" t="inlineStr">
@@ -19506,7 +19506,7 @@
       </c>
       <c r="C352" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D352" s="18" t="inlineStr">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="C354" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D354" s="18" t="inlineStr">
@@ -19667,7 +19667,7 @@
       </c>
       <c r="C355" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D355" s="18" t="inlineStr">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="C356" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D356" s="18" t="inlineStr">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="C357" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D357" s="18" t="inlineStr">
@@ -19832,7 +19832,7 @@
       </c>
       <c r="C358" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D358" s="18" t="inlineStr">
@@ -19883,7 +19883,7 @@
       </c>
       <c r="C359" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D359" s="18" t="inlineStr">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="C360" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Functions</t>
         </is>
       </c>
       <c r="D360" s="18" t="inlineStr">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="C522" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D522" s="18" t="inlineStr">
@@ -28435,7 +28435,7 @@
       </c>
       <c r="C523" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D523" s="18" t="inlineStr">
@@ -28486,7 +28486,7 @@
       </c>
       <c r="C524" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D524" s="18" t="inlineStr">
@@ -28537,7 +28537,7 @@
       </c>
       <c r="C525" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D525" s="18" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="C526" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D526" s="18" t="inlineStr">
@@ -28643,7 +28643,7 @@
       </c>
       <c r="C527" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D527" s="18" t="inlineStr">
@@ -28694,7 +28694,7 @@
       </c>
       <c r="C528" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D528" s="18" t="inlineStr">
@@ -28745,7 +28745,7 @@
       </c>
       <c r="C529" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D529" s="18" t="inlineStr">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="C530" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D530" s="18" t="inlineStr">
@@ -28847,7 +28847,7 @@
       </c>
       <c r="C531" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D531" s="18" t="inlineStr">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="C532" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D532" s="18" t="inlineStr">
@@ -28949,7 +28949,7 @@
       </c>
       <c r="C533" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D533" s="18" t="inlineStr">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="C534" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D534" s="18" t="inlineStr">
@@ -29051,7 +29051,7 @@
       </c>
       <c r="C535" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D535" s="18" t="inlineStr">
@@ -29102,7 +29102,7 @@
       </c>
       <c r="C536" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D536" s="18" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="C537" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D537" s="18" t="inlineStr">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="C538" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D538" s="18" t="inlineStr">
@@ -29255,7 +29255,7 @@
       </c>
       <c r="C539" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D539" s="18" t="inlineStr">
@@ -29306,7 +29306,7 @@
       </c>
       <c r="C540" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D540" s="18" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="C541" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D541" s="18" t="inlineStr">
@@ -29408,7 +29408,7 @@
       </c>
       <c r="C542" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D542" s="18" t="inlineStr">
@@ -29459,7 +29459,7 @@
       </c>
       <c r="C543" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D543" s="18" t="inlineStr">
@@ -29510,7 +29510,7 @@
       </c>
       <c r="C544" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D544" s="18" t="inlineStr">
@@ -29561,7 +29561,7 @@
       </c>
       <c r="C545" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D545" s="18" t="inlineStr">
@@ -29612,7 +29612,7 @@
       </c>
       <c r="C546" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D546" s="18" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="C547" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D547" s="18" t="inlineStr">
@@ -29718,7 +29718,7 @@
       </c>
       <c r="C548" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D548" s="18" t="inlineStr">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="C549" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D549" s="18" t="inlineStr">
@@ -29820,7 +29820,7 @@
       </c>
       <c r="C550" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D550" s="18" t="inlineStr">
@@ -29871,7 +29871,7 @@
       </c>
       <c r="C551" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D551" s="18" t="inlineStr">
@@ -29922,7 +29922,7 @@
       </c>
       <c r="C552" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D552" s="18" t="inlineStr">
@@ -29973,7 +29973,7 @@
       </c>
       <c r="C553" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D553" s="18" t="inlineStr">
@@ -30024,7 +30024,7 @@
       </c>
       <c r="C554" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D554" s="18" t="inlineStr">
@@ -30075,7 +30075,7 @@
       </c>
       <c r="C555" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D555" s="18" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="C556" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D556" s="18" t="inlineStr">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="C557" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D557" s="18" t="inlineStr">
@@ -30224,7 +30224,7 @@
       </c>
       <c r="C558" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D558" s="18" t="inlineStr">
@@ -30271,7 +30271,7 @@
       </c>
       <c r="C559" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D559" s="18" t="inlineStr">
@@ -30318,7 +30318,7 @@
       </c>
       <c r="C560" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D560" s="18" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="C561" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D561" s="18" t="inlineStr">
@@ -30412,7 +30412,7 @@
       </c>
       <c r="C562" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D562" s="18" t="inlineStr">
@@ -30463,7 +30463,7 @@
       </c>
       <c r="C563" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D563" s="18" t="inlineStr">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="C564" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D564" s="18" t="inlineStr">
@@ -30565,7 +30565,7 @@
       </c>
       <c r="C565" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D565" s="18" t="inlineStr">
@@ -30612,7 +30612,7 @@
       </c>
       <c r="C566" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D566" s="18" t="inlineStr">
@@ -30663,7 +30663,7 @@
       </c>
       <c r="C567" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D567" s="18" t="inlineStr">
@@ -30718,7 +30718,7 @@
       </c>
       <c r="C568" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D568" s="18" t="inlineStr">
@@ -30769,7 +30769,7 @@
       </c>
       <c r="C569" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D569" s="18" t="inlineStr">
@@ -30816,7 +30816,7 @@
       </c>
       <c r="C570" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D570" s="18" t="inlineStr">
@@ -30863,7 +30863,7 @@
       </c>
       <c r="C571" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D571" s="18" t="inlineStr">
@@ -30918,7 +30918,7 @@
       </c>
       <c r="C572" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D572" s="18" t="inlineStr">
@@ -30969,7 +30969,7 @@
       </c>
       <c r="C573" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D573" s="18" t="inlineStr">
@@ -31020,7 +31020,7 @@
       </c>
       <c r="C574" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D574" s="18" t="inlineStr">
@@ -31075,7 +31075,7 @@
       </c>
       <c r="C575" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D575" s="18" t="inlineStr">
@@ -31126,7 +31126,7 @@
       </c>
       <c r="C576" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D576" s="18" t="inlineStr">
@@ -31177,7 +31177,7 @@
       </c>
       <c r="C577" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D577" s="18" t="inlineStr">
@@ -31228,7 +31228,7 @@
       </c>
       <c r="C578" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D578" s="18" t="inlineStr">
@@ -31279,7 +31279,7 @@
       </c>
       <c r="C579" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D579" s="18" t="inlineStr">
@@ -31330,7 +31330,7 @@
       </c>
       <c r="C580" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D580" s="18" t="inlineStr">
@@ -31381,7 +31381,7 @@
       </c>
       <c r="C581" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D581" s="18" t="inlineStr">
@@ -31432,7 +31432,7 @@
       </c>
       <c r="C582" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D582" s="18" t="inlineStr">
@@ -31483,7 +31483,7 @@
       </c>
       <c r="C583" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D583" s="18" t="inlineStr">
@@ -31534,7 +31534,7 @@
       </c>
       <c r="C584" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D584" s="18" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="C585" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D585" s="18" t="inlineStr">
@@ -31636,7 +31636,7 @@
       </c>
       <c r="C586" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D586" s="18" t="inlineStr">
@@ -31687,7 +31687,7 @@
       </c>
       <c r="C587" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D587" s="18" t="inlineStr">
@@ -31738,7 +31738,7 @@
       </c>
       <c r="C588" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D588" s="18" t="inlineStr">
@@ -31789,7 +31789,7 @@
       </c>
       <c r="C589" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D589" s="18" t="inlineStr">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="C590" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D590" s="18" t="inlineStr">
@@ -31887,7 +31887,7 @@
       </c>
       <c r="C591" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D591" s="18" t="inlineStr">
@@ -31938,7 +31938,7 @@
       </c>
       <c r="C592" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D592" s="18" t="inlineStr">
@@ -31989,7 +31989,7 @@
       </c>
       <c r="C593" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D593" s="18" t="inlineStr">
@@ -32040,7 +32040,7 @@
       </c>
       <c r="C594" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D594" s="18" t="inlineStr">
@@ -32086,23 +32086,23 @@
       </c>
       <c r="B595" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C595" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Consider Quota management practices. Use dynamic quota for certain use cases when your application can use extra capacity opportunistically or the application itself is driving the rate at which the Azure OpenAI API is called</t>
+          <t>Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
       <c r="F595" s="18" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="G595" t="inlineStr">
@@ -32120,7 +32120,7 @@
       <c r="K595" s="19" t="n"/>
       <c r="L595" s="19" t="inlineStr">
         <is>
-          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
         </is>
       </c>
       <c r="M595" s="20" t="n"/>
@@ -32137,17 +32137,17 @@
       </c>
       <c r="B596" s="18" t="inlineStr">
         <is>
-          <t>Operational Excellence</t>
+          <t>Reliability</t>
         </is>
       </c>
       <c r="C596" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D596" s="18" t="inlineStr">
         <is>
-          <t>Use Load balancer solutions like APIM based gateway for balancing load and capacity across services and regions</t>
+          <t>Manage rate limits for your model deployments and monitor usage of tokens per minute (TPM) and requests per minute (RPM) for pay-as-you-go deployments</t>
         </is>
       </c>
       <c r="E596" s="18" t="n"/>
@@ -32171,7 +32171,7 @@
       <c r="K596" s="19" t="n"/>
       <c r="L596" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
         </is>
       </c>
       <c r="M596" s="20" t="n"/>
@@ -32193,12 +32193,12 @@
       </c>
       <c r="C597" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>Follow the guidance for fine-tuning with large data files and import the data from an Azure blob store. Large files, 100 MB or larger, can become unstable when uploaded through multipart forms because the requests are atomic and can't be retried or resumed</t>
+          <t>Monitor provision-managed utilization if you're using the provisioned throughput payment model</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
@@ -32222,7 +32222,7 @@
       <c r="K597" s="19" t="n"/>
       <c r="L597" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc411</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
         </is>
       </c>
       <c r="M597" s="20" t="n"/>
@@ -32239,23 +32239,23 @@
       </c>
       <c r="B598" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="C598" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Manage rate limits for your model deployments and monitor usage of tokens per minute (TPM) and requests per minute (RPM) for pay-as-you-go deployments</t>
+          <t>Consider Quota management practices. Use dynamic quota for certain use cases when your application can use extra capacity opportunistically or the application itself is driving the rate at which the Azure OpenAI API is called</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
       <c r="F598" s="18" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G598" t="inlineStr">
@@ -32273,7 +32273,7 @@
       <c r="K598" s="19" t="n"/>
       <c r="L598" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc412</t>
+          <t>d5f3547c-c346-4d81-9028-a71ffe1b9b5d</t>
         </is>
       </c>
       <c r="M598" s="20" t="n"/>
@@ -32295,12 +32295,12 @@
       </c>
       <c r="C599" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Monitor provision-managed utilization if you're using the provisioned throughput payment model</t>
+          <t>Tune content filters to minimize false positives from overly aggressive filters</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
@@ -32324,7 +32324,7 @@
       <c r="K599" s="19" t="n"/>
       <c r="L599" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc413</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
         </is>
       </c>
       <c r="M599" s="20" t="n"/>
@@ -32341,17 +32341,17 @@
       </c>
       <c r="B600" s="18" t="inlineStr">
         <is>
-          <t>Reliability</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="C600" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Tune content filters to minimize false positives from overly aggressive filters</t>
+          <t>Use customer-managed keys for fine-tuned models and training data that's uploaded to Azure OpenAI</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
@@ -32375,7 +32375,7 @@
       <c r="K600" s="19" t="n"/>
       <c r="L600" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc414</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
         </is>
       </c>
       <c r="M600" s="20" t="n"/>
@@ -32397,12 +32397,12 @@
       </c>
       <c r="C601" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Use customer-managed keys for fine-tuned models and training data that's uploaded to Azure OpenAI</t>
+          <t>Implement jailbreak risk detection to safeguard your language model deployments against prompt injection attacks</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32423,10 +32423,14 @@
         </is>
       </c>
       <c r="J601" s="13" t="n"/>
-      <c r="K601" s="19" t="n"/>
+      <c r="K601" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.cognitiveservices/accounts' and kind =~ 'contentsafety' | project id, compliant = 1</t>
+        </is>
+      </c>
       <c r="L601" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc415</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
         </is>
       </c>
       <c r="M601" s="20" t="n"/>
@@ -32448,12 +32452,12 @@
       </c>
       <c r="C602" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D602" s="18" t="inlineStr">
         <is>
-          <t>Implement jailbreak risk detection to safeguard your language model deployments against prompt injection attacks</t>
+          <t>Use security controls like throttling, service isolation and gateway pattern to prevent attacks that might exhaust model usage quotas</t>
         </is>
       </c>
       <c r="E602" s="18" t="n"/>
@@ -32474,14 +32478,10 @@
         </is>
       </c>
       <c r="J602" s="13" t="n"/>
-      <c r="K602" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.cognitiveservices/accounts' and kind =~ 'contentsafety' | project id, compliant = 1</t>
-        </is>
-      </c>
+      <c r="K602" s="19" t="n"/>
       <c r="L602" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc416</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
         </is>
       </c>
       <c r="M602" s="20" t="n"/>
@@ -32498,17 +32498,17 @@
       </c>
       <c r="B603" s="18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost Optimization</t>
         </is>
       </c>
       <c r="C603" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>Use security controls like throttling, service isolation and gateway pattern to prevent attacks that might exhaust model usage quotas</t>
+          <t>Develop your cost model, considering prompt sizes. Understanding prompt input and response sizes and how text translates into tokens helps you create a viable cost model</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
@@ -32532,7 +32532,7 @@
       <c r="K603" s="19" t="n"/>
       <c r="L603" s="19" t="inlineStr">
         <is>
-          <t>9de0d5d7-31d4-41e3-911c-817bfafbc417</t>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
         </is>
       </c>
       <c r="M603" s="20" t="n"/>
@@ -32554,12 +32554,12 @@
       </c>
       <c r="C604" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Develop your cost model, considering prompt sizes. Understanding prompt input and response sizes and how text translates into tokens helps you create a viable cost model</t>
+          <t>Consider model pricing and capabilities when you choose models. Start with less-costly models for less-complex tasks like text generation or completion tasks and for complex tasks like language translation or content understanding, consider using more advanced models. Optimize costs while still achieving the desired application performance</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
@@ -32583,7 +32583,7 @@
       <c r="K604" s="19" t="n"/>
       <c r="L604" s="19" t="inlineStr">
         <is>
-          <t>72d41e36-11cc-457b-9a4b-1410d43958a9</t>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
         </is>
       </c>
       <c r="M604" s="20" t="n"/>
@@ -32605,12 +32605,12 @@
       </c>
       <c r="C605" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Consider model pricing and capabilities when you choose models. Start with less-costly models for less-complex tasks like text generation or completion tasks and for complex tasks like language translation or content understanding, consider using more advanced models. Optimize costs while still achieving the desired application performance</t>
+          <t>Maximize Azure OpenAI price breakpoints like fine-tuning and model breakpoints like image generation to your advantage. Fine-tuning is charged per hour, use as much time as you have available per hour to improve results without slipping into the next billing period. The cost for generating 100 images is the same as the cost for 1 image</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>
@@ -32634,7 +32634,7 @@
       <c r="K605" s="19" t="n"/>
       <c r="L605" s="19" t="inlineStr">
         <is>
-          <t>72d41e36-11cc-457b-9a4b-1410d43958a1</t>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
         </is>
       </c>
       <c r="M605" s="20" t="n"/>
@@ -32656,12 +32656,12 @@
       </c>
       <c r="C606" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D606" s="18" t="inlineStr">
         <is>
-          <t>Maximize Azure OpenAI price breakpoints like fine-tuning and model breakpoints like image generation to your advantage. Fine-tuning is charged per hour, use as much time as you have available per hour to improve results without slipping into the next billing period. The cost for generating 100 images is the same as the cost for 1 image</t>
+          <t>Remove unused fine-tuned models when they're no longer being consumed to avoid incurring an ongoing hosting fee</t>
         </is>
       </c>
       <c r="E606" s="18" t="n"/>
@@ -32685,7 +32685,7 @@
       <c r="K606" s="19" t="n"/>
       <c r="L606" s="19" t="inlineStr">
         <is>
-          <t>72d41e36-11cc-457b-9a4b-1410d43958a2</t>
+          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
         </is>
       </c>
       <c r="M606" s="20" t="n"/>
@@ -32707,12 +32707,12 @@
       </c>
       <c r="C607" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D607" s="18" t="inlineStr">
         <is>
-          <t>Remove unused fine-tuned models when they're no longer being consumed to avoid incurring an ongoing hosting fee</t>
+          <t>Create concise prompts that provide enough context for the model to generate a useful response. Also ensure that you optimize the limit of the response length.</t>
         </is>
       </c>
       <c r="E607" s="18" t="n"/>
@@ -32736,7 +32736,7 @@
       <c r="K607" s="19" t="n"/>
       <c r="L607" s="19" t="inlineStr">
         <is>
-          <t>72d41e36-11cc-457b-9a4b-1410d43958a3</t>
+          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
         </is>
       </c>
       <c r="M607" s="20" t="n"/>
@@ -32753,17 +32753,17 @@
       </c>
       <c r="B608" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization</t>
+          <t>Operational Excellence</t>
         </is>
       </c>
       <c r="C608" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D608" s="18" t="inlineStr">
         <is>
-          <t>Create concise prompts that provide enough context for the model to generate a useful response. Also ensure that you optimize the limit of the response length.</t>
+          <t>Use infrastructure as code (IaC) to deploy Azure OpenAI, model deployments, and other infrastructure required for fine-tuning models</t>
         </is>
       </c>
       <c r="E608" s="18" t="n"/>
@@ -32787,7 +32787,7 @@
       <c r="K608" s="19" t="n"/>
       <c r="L608" s="19" t="inlineStr">
         <is>
-          <t>7f42c78e-78cb-46a2-8ad1-90916e6a8d8g</t>
+          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
         </is>
       </c>
       <c r="M608" s="20" t="n"/>
@@ -32809,12 +32809,12 @@
       </c>
       <c r="C609" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D609" s="18" t="inlineStr">
         <is>
-          <t>Use infrastructure as code (IaC) to deploy Azure OpenAI, model deployments, and other infrastructure required for fine-tuning models</t>
+          <t>Use Load balancer solutions like APIM based gateway for balancing load and capacity across services and regions</t>
         </is>
       </c>
       <c r="E609" s="18" t="n"/>
@@ -32838,7 +32838,7 @@
       <c r="K609" s="19" t="n"/>
       <c r="L609" s="19" t="inlineStr">
         <is>
-          <t>b4861bc3-bc14-4aeb-9e66-e8d9a3aec219</t>
+          <t>9de0d5d7-31d4-41e3-911c-817bfafbc410</t>
         </is>
       </c>
       <c r="M609" s="20" t="n"/>
@@ -32860,7 +32860,7 @@
       </c>
       <c r="C610" s="18" t="inlineStr">
         <is>
-          <t>Azure OpenAI</t>
+          <t>OpenAI</t>
         </is>
       </c>
       <c r="D610" s="18" t="inlineStr">
@@ -41826,7 +41826,7 @@
     <row r="790">
       <c r="A790" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B790" s="18" t="inlineStr">
@@ -41836,7 +41836,7 @@
       </c>
       <c r="C790" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D790" s="18" t="inlineStr">
@@ -41877,7 +41877,7 @@
     <row r="791">
       <c r="A791" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B791" s="18" t="inlineStr">
@@ -41887,7 +41887,7 @@
       </c>
       <c r="C791" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D791" s="18" t="inlineStr">
@@ -41932,7 +41932,7 @@
     <row r="792">
       <c r="A792" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B792" s="18" t="inlineStr">
@@ -41942,7 +41942,7 @@
       </c>
       <c r="C792" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D792" s="18" t="inlineStr">
@@ -41987,7 +41987,7 @@
     <row r="793">
       <c r="A793" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B793" s="18" t="inlineStr">
@@ -41997,7 +41997,7 @@
       </c>
       <c r="C793" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D793" s="18" t="inlineStr">
@@ -42034,7 +42034,7 @@
     <row r="794">
       <c r="A794" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B794" s="18" t="inlineStr">
@@ -42044,7 +42044,7 @@
       </c>
       <c r="C794" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D794" s="18" t="inlineStr">
@@ -42085,7 +42085,7 @@
     <row r="795">
       <c r="A795" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B795" s="18" t="inlineStr">
@@ -42095,7 +42095,7 @@
       </c>
       <c r="C795" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D795" s="18" t="inlineStr">
@@ -42140,7 +42140,7 @@
     <row r="796">
       <c r="A796" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B796" s="18" t="inlineStr">
@@ -42150,7 +42150,7 @@
       </c>
       <c r="C796" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D796" s="18" t="inlineStr">
@@ -42195,7 +42195,7 @@
     <row r="797">
       <c r="A797" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B797" s="18" t="inlineStr">
@@ -42205,7 +42205,7 @@
       </c>
       <c r="C797" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D797" s="18" t="inlineStr">
@@ -42246,7 +42246,7 @@
     <row r="798">
       <c r="A798" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B798" s="18" t="inlineStr">
@@ -42256,7 +42256,7 @@
       </c>
       <c r="C798" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D798" s="18" t="inlineStr">
@@ -42301,7 +42301,7 @@
     <row r="799">
       <c r="A799" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B799" s="18" t="inlineStr">
@@ -42311,7 +42311,7 @@
       </c>
       <c r="C799" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D799" s="18" t="inlineStr">
@@ -42352,7 +42352,7 @@
     <row r="800">
       <c r="A800" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B800" s="18" t="inlineStr">
@@ -42362,7 +42362,7 @@
       </c>
       <c r="C800" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D800" s="18" t="inlineStr">
@@ -42407,7 +42407,7 @@
     <row r="801">
       <c r="A801" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B801" s="18" t="inlineStr">
@@ -42417,7 +42417,7 @@
       </c>
       <c r="C801" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D801" s="18" t="inlineStr">
@@ -42458,7 +42458,7 @@
     <row r="802">
       <c r="A802" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B802" s="18" t="inlineStr">
@@ -42468,7 +42468,7 @@
       </c>
       <c r="C802" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D802" s="18" t="inlineStr">
@@ -42509,7 +42509,7 @@
     <row r="803">
       <c r="A803" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B803" s="18" t="inlineStr">
@@ -42519,7 +42519,7 @@
       </c>
       <c r="C803" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D803" s="18" t="inlineStr">
@@ -42556,7 +42556,7 @@
     <row r="804">
       <c r="A804" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B804" s="18" t="inlineStr">
@@ -42566,7 +42566,7 @@
       </c>
       <c r="C804" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D804" s="18" t="inlineStr">
@@ -42607,7 +42607,7 @@
     <row r="805">
       <c r="A805" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B805" s="18" t="inlineStr">
@@ -42617,7 +42617,7 @@
       </c>
       <c r="C805" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D805" s="18" t="inlineStr">
@@ -42658,7 +42658,7 @@
     <row r="806">
       <c r="A806" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B806" s="18" t="inlineStr">
@@ -42668,7 +42668,7 @@
       </c>
       <c r="C806" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D806" s="18" t="inlineStr">
@@ -42713,7 +42713,7 @@
     <row r="807">
       <c r="A807" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B807" s="18" t="inlineStr">
@@ -42723,7 +42723,7 @@
       </c>
       <c r="C807" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D807" s="18" t="inlineStr">
@@ -42760,7 +42760,7 @@
     <row r="808">
       <c r="A808" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B808" s="18" t="inlineStr">
@@ -42770,7 +42770,7 @@
       </c>
       <c r="C808" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D808" s="18" t="inlineStr">
@@ -42815,7 +42815,7 @@
     <row r="809">
       <c r="A809" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B809" s="18" t="inlineStr">
@@ -42825,7 +42825,7 @@
       </c>
       <c r="C809" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D809" s="18" t="inlineStr">
@@ -42870,7 +42870,7 @@
     <row r="810">
       <c r="A810" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B810" s="18" t="inlineStr">
@@ -42880,7 +42880,7 @@
       </c>
       <c r="C810" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D810" s="18" t="inlineStr">
@@ -42925,7 +42925,7 @@
     <row r="811">
       <c r="A811" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B811" s="18" t="inlineStr">
@@ -42935,7 +42935,7 @@
       </c>
       <c r="C811" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D811" s="18" t="inlineStr">
@@ -42976,7 +42976,7 @@
     <row r="812">
       <c r="A812" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B812" s="18" t="inlineStr">
@@ -42986,7 +42986,7 @@
       </c>
       <c r="C812" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D812" s="18" t="inlineStr">
@@ -43031,7 +43031,7 @@
     <row r="813">
       <c r="A813" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B813" s="18" t="inlineStr">
@@ -43041,7 +43041,7 @@
       </c>
       <c r="C813" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D813" s="18" t="inlineStr">
@@ -43078,7 +43078,7 @@
     <row r="814">
       <c r="A814" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B814" s="18" t="inlineStr">
@@ -43088,7 +43088,7 @@
       </c>
       <c r="C814" s="18" t="inlineStr">
         <is>
-          <t>Azure Synapse Analytics</t>
+          <t>Synapse Analytics</t>
         </is>
       </c>
       <c r="D814" s="18" t="inlineStr">
@@ -43129,7 +43129,7 @@
     <row r="815">
       <c r="A815" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B815" s="18" t="inlineStr">
@@ -43139,7 +43139,7 @@
       </c>
       <c r="C815" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hubs</t>
+          <t>Event Hubs</t>
         </is>
       </c>
       <c r="D815" s="18" t="inlineStr">
@@ -43180,7 +43180,7 @@
     <row r="816">
       <c r="A816" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B816" s="18" t="inlineStr">
@@ -43190,7 +43190,7 @@
       </c>
       <c r="C816" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D816" s="18" t="inlineStr">
@@ -43235,7 +43235,7 @@
     <row r="817">
       <c r="A817" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B817" s="18" t="inlineStr">
@@ -43290,7 +43290,7 @@
     <row r="818">
       <c r="A818" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B818" s="18" t="inlineStr">
@@ -43345,7 +43345,7 @@
     <row r="819">
       <c r="A819" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B819" s="18" t="inlineStr">
@@ -43404,7 +43404,7 @@
     <row r="820">
       <c r="A820" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B820" s="18" t="inlineStr">
@@ -43463,7 +43463,7 @@
     <row r="821">
       <c r="A821" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B821" s="18" t="inlineStr">
@@ -43522,7 +43522,7 @@
     <row r="822">
       <c r="A822" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B822" s="18" t="inlineStr">
@@ -43581,7 +43581,7 @@
     <row r="823">
       <c r="A823" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B823" s="18" t="inlineStr">
@@ -43636,7 +43636,7 @@
     <row r="824">
       <c r="A824" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B824" s="18" t="inlineStr">
@@ -43691,7 +43691,7 @@
     <row r="825">
       <c r="A825" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B825" s="18" t="inlineStr">
@@ -43701,7 +43701,7 @@
       </c>
       <c r="C825" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D825" s="18" t="inlineStr">
@@ -43742,7 +43742,7 @@
     <row r="826">
       <c r="A826" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B826" s="18" t="inlineStr">
@@ -43797,7 +43797,7 @@
     <row r="827">
       <c r="A827" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B827" s="18" t="inlineStr">
@@ -43807,7 +43807,7 @@
       </c>
       <c r="C827" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D827" s="18" t="inlineStr">
@@ -43852,7 +43852,7 @@
     <row r="828">
       <c r="A828" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B828" s="18" t="inlineStr">
@@ -43907,7 +43907,7 @@
     <row r="829">
       <c r="A829" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B829" s="18" t="inlineStr">
@@ -43917,7 +43917,7 @@
       </c>
       <c r="C829" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D829" s="18" t="inlineStr">
@@ -43958,7 +43958,7 @@
     <row r="830">
       <c r="A830" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B830" s="18" t="inlineStr">
@@ -44013,7 +44013,7 @@
     <row r="831">
       <c r="A831" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B831" s="18" t="inlineStr">
@@ -44023,7 +44023,7 @@
       </c>
       <c r="C831" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D831" s="18" t="inlineStr">
@@ -44060,7 +44060,7 @@
     <row r="832">
       <c r="A832" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B832" s="18" t="inlineStr">
@@ -44115,7 +44115,7 @@
     <row r="833">
       <c r="A833" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B833" s="18" t="inlineStr">
@@ -44125,7 +44125,7 @@
       </c>
       <c r="C833" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D833" s="18" t="inlineStr">
@@ -44162,7 +44162,7 @@
     <row r="834">
       <c r="A834" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B834" s="18" t="inlineStr">
@@ -44221,7 +44221,7 @@
     <row r="835">
       <c r="A835" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B835" s="18" t="inlineStr">
@@ -44231,7 +44231,7 @@
       </c>
       <c r="C835" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D835" s="18" t="inlineStr">
@@ -44272,7 +44272,7 @@
     <row r="836">
       <c r="A836" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B836" s="18" t="inlineStr">
@@ -44331,7 +44331,7 @@
     <row r="837">
       <c r="A837" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B837" s="18" t="inlineStr">
@@ -44341,7 +44341,7 @@
       </c>
       <c r="C837" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D837" s="18" t="inlineStr">
@@ -44386,7 +44386,7 @@
     <row r="838">
       <c r="A838" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B838" s="18" t="inlineStr">
@@ -44445,7 +44445,7 @@
     <row r="839">
       <c r="A839" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B839" s="18" t="inlineStr">
@@ -44504,7 +44504,7 @@
     <row r="840">
       <c r="A840" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B840" s="18" t="inlineStr">
@@ -44563,7 +44563,7 @@
     <row r="841">
       <c r="A841" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B841" s="18" t="inlineStr">
@@ -44622,7 +44622,7 @@
     <row r="842">
       <c r="A842" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B842" s="18" t="inlineStr">
@@ -44681,7 +44681,7 @@
     <row r="843">
       <c r="A843" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B843" s="18" t="inlineStr">
@@ -44736,7 +44736,7 @@
     <row r="844">
       <c r="A844" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B844" s="18" t="inlineStr">
@@ -44746,7 +44746,7 @@
       </c>
       <c r="C844" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D844" s="18" t="inlineStr">
@@ -44791,7 +44791,7 @@
     <row r="845">
       <c r="A845" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B845" s="18" t="inlineStr">
@@ -44801,7 +44801,7 @@
       </c>
       <c r="C845" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D845" s="18" t="inlineStr">
@@ -44842,7 +44842,7 @@
     <row r="846">
       <c r="A846" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B846" s="18" t="inlineStr">
@@ -44852,7 +44852,7 @@
       </c>
       <c r="C846" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D846" s="18" t="inlineStr">
@@ -44893,7 +44893,7 @@
     <row r="847">
       <c r="A847" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B847" s="18" t="inlineStr">
@@ -44903,7 +44903,7 @@
       </c>
       <c r="C847" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D847" s="18" t="inlineStr">
@@ -44948,7 +44948,7 @@
     <row r="848">
       <c r="A848" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B848" s="18" t="inlineStr">
@@ -44958,7 +44958,7 @@
       </c>
       <c r="C848" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D848" s="18" t="inlineStr">
@@ -44999,7 +44999,7 @@
     <row r="849">
       <c r="A849" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B849" s="18" t="inlineStr">
@@ -45009,7 +45009,7 @@
       </c>
       <c r="C849" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D849" s="18" t="inlineStr">
@@ -45054,7 +45054,7 @@
     <row r="850">
       <c r="A850" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B850" s="18" t="inlineStr">
@@ -45064,7 +45064,7 @@
       </c>
       <c r="C850" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D850" s="18" t="inlineStr">
@@ -45109,7 +45109,7 @@
     <row r="851">
       <c r="A851" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B851" s="18" t="inlineStr">
@@ -45156,7 +45156,7 @@
     <row r="852">
       <c r="A852" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B852" s="18" t="inlineStr">
@@ -45211,7 +45211,7 @@
     <row r="853">
       <c r="A853" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B853" s="18" t="inlineStr">
@@ -45266,7 +45266,7 @@
     <row r="854">
       <c r="A854" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B854" s="18" t="inlineStr">
@@ -45313,7 +45313,7 @@
     <row r="855">
       <c r="A855" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B855" s="18" t="inlineStr">
@@ -45364,7 +45364,7 @@
     <row r="856">
       <c r="A856" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B856" s="18" t="inlineStr">
@@ -45411,7 +45411,7 @@
     <row r="857">
       <c r="A857" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B857" s="18" t="inlineStr">
@@ -45458,7 +45458,7 @@
     <row r="858">
       <c r="A858" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B858" s="18" t="inlineStr">
@@ -45505,7 +45505,7 @@
     <row r="859">
       <c r="A859" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B859" s="18" t="inlineStr">
@@ -45556,7 +45556,7 @@
     <row r="860">
       <c r="A860" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B860" s="18" t="inlineStr">
@@ -45607,7 +45607,7 @@
     <row r="861">
       <c r="A861" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B861" s="18" t="inlineStr">
@@ -45658,7 +45658,7 @@
     <row r="862">
       <c r="A862" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B862" s="18" t="inlineStr">
@@ -45709,7 +45709,7 @@
     <row r="863">
       <c r="A863" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B863" s="18" t="inlineStr">
@@ -45764,7 +45764,7 @@
     <row r="864">
       <c r="A864" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B864" s="18" t="inlineStr">
@@ -45815,7 +45815,7 @@
     <row r="865">
       <c r="A865" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B865" s="18" t="inlineStr">
@@ -45866,7 +45866,7 @@
     <row r="866">
       <c r="A866" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B866" s="18" t="inlineStr">
@@ -45917,7 +45917,7 @@
     <row r="867">
       <c r="A867" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B867" s="18" t="inlineStr">
@@ -45968,7 +45968,7 @@
     <row r="868">
       <c r="A868" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B868" s="18" t="inlineStr">
@@ -46015,7 +46015,7 @@
     <row r="869">
       <c r="A869" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B869" s="18" t="inlineStr">
@@ -46062,7 +46062,7 @@
     <row r="870">
       <c r="A870" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B870" s="18" t="inlineStr">
@@ -46109,7 +46109,7 @@
     <row r="871">
       <c r="A871" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B871" s="18" t="inlineStr">
@@ -46156,7 +46156,7 @@
     <row r="872">
       <c r="A872" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B872" s="18" t="inlineStr">
@@ -46211,7 +46211,7 @@
     <row r="873">
       <c r="A873" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B873" s="18" t="inlineStr">
@@ -46258,7 +46258,7 @@
     <row r="874">
       <c r="A874" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B874" s="18" t="inlineStr">
@@ -46268,7 +46268,7 @@
       </c>
       <c r="C874" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D874" s="18" t="inlineStr">
@@ -46309,7 +46309,7 @@
     <row r="875">
       <c r="A875" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B875" s="18" t="inlineStr">
@@ -46319,7 +46319,7 @@
       </c>
       <c r="C875" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D875" s="18" t="inlineStr">
@@ -46364,7 +46364,7 @@
     <row r="876">
       <c r="A876" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B876" s="18" t="inlineStr">
@@ -46374,7 +46374,7 @@
       </c>
       <c r="C876" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D876" s="18" t="inlineStr">
@@ -46419,7 +46419,7 @@
     <row r="877">
       <c r="A877" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B877" s="18" t="inlineStr">
@@ -46429,7 +46429,7 @@
       </c>
       <c r="C877" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D877" s="18" t="inlineStr">
@@ -46470,7 +46470,7 @@
     <row r="878">
       <c r="A878" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B878" s="18" t="inlineStr">
@@ -46480,7 +46480,7 @@
       </c>
       <c r="C878" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D878" s="18" t="inlineStr">
@@ -46525,7 +46525,7 @@
     <row r="879">
       <c r="A879" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B879" s="18" t="inlineStr">
@@ -46535,7 +46535,7 @@
       </c>
       <c r="C879" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D879" s="18" t="inlineStr">
@@ -46576,7 +46576,7 @@
     <row r="880">
       <c r="A880" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B880" s="18" t="inlineStr">
@@ -46586,7 +46586,7 @@
       </c>
       <c r="C880" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D880" s="18" t="inlineStr">
@@ -46631,7 +46631,7 @@
     <row r="881">
       <c r="A881" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B881" s="18" t="inlineStr">
@@ -46641,7 +46641,7 @@
       </c>
       <c r="C881" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D881" s="18" t="inlineStr">
@@ -46682,7 +46682,7 @@
     <row r="882">
       <c r="A882" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B882" s="18" t="inlineStr">
@@ -46692,7 +46692,7 @@
       </c>
       <c r="C882" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D882" s="18" t="inlineStr">
@@ -46733,7 +46733,7 @@
     <row r="883">
       <c r="A883" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B883" s="18" t="inlineStr">
@@ -46743,7 +46743,7 @@
       </c>
       <c r="C883" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D883" s="18" t="inlineStr">
@@ -46788,7 +46788,7 @@
     <row r="884">
       <c r="A884" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B884" s="18" t="inlineStr">
@@ -46798,7 +46798,7 @@
       </c>
       <c r="C884" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D884" s="18" t="inlineStr">
@@ -46839,7 +46839,7 @@
     <row r="885">
       <c r="A885" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B885" s="18" t="inlineStr">
@@ -46849,7 +46849,7 @@
       </c>
       <c r="C885" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D885" s="18" t="inlineStr">
@@ -46894,7 +46894,7 @@
     <row r="886">
       <c r="A886" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B886" s="18" t="inlineStr">
@@ -46904,7 +46904,7 @@
       </c>
       <c r="C886" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D886" s="18" t="inlineStr">
@@ -46949,7 +46949,7 @@
     <row r="887">
       <c r="A887" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B887" s="18" t="inlineStr">
@@ -46959,7 +46959,7 @@
       </c>
       <c r="C887" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D887" s="18" t="inlineStr">
@@ -47004,7 +47004,7 @@
     <row r="888">
       <c r="A888" s="18" t="inlineStr">
         <is>
-          <t>Use the 'Import latest checklist' button to get the latest version of a review checklist</t>
+          <t>Data Security review checklist</t>
         </is>
       </c>
       <c r="B888" s="18" t="inlineStr">
@@ -47014,7 +47014,7 @@
       </c>
       <c r="C888" s="18" t="inlineStr">
         <is>
-          <t>Azure Databricks</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D888" s="18" t="inlineStr">
@@ -48140,7 +48140,11 @@
         </is>
       </c>
       <c r="J908" s="13" t="n"/>
-      <c r="K908" s="19" t="n"/>
+      <c r="K908" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L908" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -51667,7 +51671,7 @@
       </c>
       <c r="C975" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D975" s="18" t="inlineStr">
@@ -51722,7 +51726,7 @@
       </c>
       <c r="C976" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D976" s="18" t="inlineStr">
@@ -63093,7 +63097,7 @@
       </c>
       <c r="C1185" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1185" s="18" t="inlineStr">
@@ -63144,7 +63148,7 @@
       </c>
       <c r="C1186" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1186" s="18" t="inlineStr">
@@ -63195,7 +63199,7 @@
       </c>
       <c r="C1187" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1187" s="18" t="inlineStr">
@@ -63246,7 +63250,7 @@
       </c>
       <c r="C1188" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1188" s="18" t="inlineStr">
@@ -63297,7 +63301,7 @@
       </c>
       <c r="C1189" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1189" s="18" t="inlineStr">
@@ -63348,7 +63352,7 @@
       </c>
       <c r="C1190" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1190" s="18" t="inlineStr">
@@ -63399,7 +63403,7 @@
       </c>
       <c r="C1191" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1191" s="18" t="inlineStr">
@@ -63454,7 +63458,7 @@
       </c>
       <c r="C1192" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1192" s="18" t="inlineStr">
@@ -63505,7 +63509,7 @@
       </c>
       <c r="C1193" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1193" s="18" t="inlineStr">
@@ -63556,7 +63560,7 @@
       </c>
       <c r="C1194" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Data Factory</t>
         </is>
       </c>
       <c r="D1194" s="18" t="inlineStr">
